--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>73672.61271019117</v>
+        <v>73672.61271019116</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>74215.2668311255</v>
+        <v>74215.26683112551</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>74310.30982221333</v>
+        <v>74310.30982221331</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74504.50948619374</v>
+        <v>74504.50948619373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>74603.70533576921</v>
+        <v>74603.70533576919</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74704.32510734316</v>
+        <v>74704.32510734317</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74909.91783195676</v>
+        <v>74909.91783195677</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>75014.93220810105</v>
+        <v>75014.93220810103</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>75339.1020713762</v>
+        <v>75339.10207137621</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75450.2734248248</v>
+        <v>75450.27342482479</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75563.03915150184</v>
+        <v>75563.03915150187</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75677.42192236731</v>
+        <v>75677.42192236728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75793.44472544885</v>
+        <v>75793.44472544883</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75911.1308701393</v>
+        <v>75911.13087013931</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>76030.50399154829</v>
+        <v>76030.50399154828</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>76151.58805490985</v>
+        <v>76151.58805490988</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>76274.40736004629</v>
+        <v>76274.4073600463</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>76398.98654588862</v>
+        <v>76398.98654588865</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76525.35059505506</v>
+        <v>76525.35059505509</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76653.5248384872</v>
+        <v>76653.52483848721</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>77049.16736766566</v>
+        <v>77049.16736766565</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>77184.8428296382</v>
+        <v>77184.84282963818</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>77322.46053187196</v>
+        <v>77322.46053187198</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>77462.04799596019</v>
+        <v>77462.04799596018</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77747.24421352927</v>
+        <v>77747.24421352928</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77892.90994309876</v>
+        <v>77892.90994309874</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>78040.65939714843</v>
+        <v>78040.65939714844</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>78342.52783081189</v>
+        <v>78342.52783081192</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>78496.70701383021</v>
+        <v>78496.70701383019</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78653.0903391207</v>
+        <v>78653.09033912071</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78811.70896056089</v>
+        <v>78811.70896056092</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78972.59446302519</v>
+        <v>78972.59446302521</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>79135.77886812083</v>
+        <v>79135.77886812085</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>79469.17469121574</v>
+        <v>79469.17469121577</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79812.16155985682</v>
+        <v>79812.16155985683</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79987.33649846171</v>
+        <v>79987.33649846175</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>80165.01197106183</v>
+        <v>80165.01197106182</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>80345.22322311784</v>
+        <v>80345.22322311782</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>80528.00598535953</v>
+        <v>80528.00598535952</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80713.39648019715</v>
+        <v>80713.39648019717</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80901.43142821314</v>
+        <v>80901.43142821311</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>81092.14805473332</v>
+        <v>81092.14805473333</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>81285.58409648071</v>
+        <v>81285.5840964807</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81680.76797003337</v>
+        <v>81680.76797003335</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81882.59389331192</v>
+        <v>81882.59389331196</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>82087.29542865833</v>
+        <v>82087.29542865831</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>82294.91297250631</v>
+        <v>82294.91297250635</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>82505.48747437673</v>
+        <v>82505.48747437677</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82719.06044413039</v>
+        <v>82719.06044413036</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82935.67395931078</v>
+        <v>82935.67395931082</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>83155.37067257911</v>
+        <v>83155.37067257907</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83833.39531299418</v>
+        <v>83833.39531299415</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>84065.86311297167</v>
+        <v>84065.86311297171</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>84301.63626782996</v>
+        <v>84301.63626782993</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>84540.76104230781</v>
+        <v>84540.7610423078</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84783.28433095498</v>
+        <v>84783.28433095501</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>85029.25366633944</v>
+        <v>85029.2536663394</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85531.72384765146</v>
+        <v>85531.72384765143</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>85788.32302412277</v>
+        <v>85788.32302412279</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>86048.56492556591</v>
+        <v>86048.56492556589</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>86312.50040140042</v>
+        <v>86312.50040140048</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86851.6589302365</v>
+        <v>86851.65893023653</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>87126.98716537748</v>
+        <v>87126.98716537745</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>87406.21935744527</v>
+        <v>87406.21935744531</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87689.40989393354</v>
+        <v>87689.40989393352</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>88267.88723673552</v>
+        <v>88267.88723673548</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>88563.28653337489</v>
+        <v>88563.28653337488</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88862.86917453889</v>
+        <v>88862.86917453894</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>89474.81791958452</v>
+        <v>89474.81791958454</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89787.30270911983</v>
+        <v>89787.30270911985</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>90104.20823496839</v>
+        <v>90104.20823496838</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>90425.59585735585</v>
+        <v>90425.59585735583</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90751.52776237347</v>
+        <v>90751.5277623735</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>91417.27735844915</v>
+        <v>91417.27735844917</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92101.97144014468</v>
+        <v>92101.97144014467</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>92451.58721336302</v>
+        <v>92451.58721336303</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92806.13833932164</v>
+        <v>92806.1383393217</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>93165.69309346532</v>
+        <v>93165.69309346526</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93900.09117880161</v>
+        <v>93900.09117880159</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>94275.07568757006</v>
+        <v>94275.07568757003</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>94655.34620404628</v>
+        <v>94655.34620404625</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>95040.97570348129</v>
+        <v>95040.97570348138</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>95432.03813824982</v>
+        <v>95432.03813824986</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>95828.60845064835</v>
+        <v>95828.60845064829</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>96230.76258587814</v>
+        <v>96230.76258587815</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>96638.57750521546</v>
+        <v>96638.57750521545</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>97052.13119937351</v>
+        <v>97052.13119937357</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>97471.50270206187</v>
+        <v>97471.50270206181</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97896.77210374536</v>
+        <v>97896.77210374534</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>98328.02056560986</v>
+        <v>98328.0205656099</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98765.33033373792</v>
+        <v>98765.33033373789</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>99208.78475349967</v>
+        <v>99208.7847534996</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>99658.46828416492</v>
+        <v>99658.46828416488</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>100576.8661740433</v>
+        <v>100576.8661740432</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>101045.7551560011</v>
+        <v>101045.7551560012</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>106658.1742623637</v>
+        <v>106658.1742623638</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>107212.2345273364</v>
+        <v>107212.2345273363</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>110702.9931843856</v>
+        <v>110702.9931843857</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>115832.4610304374</v>
+        <v>115832.4610304375</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>129672.5250383114</v>
+        <v>129672.5250383113</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>137015.1355886208</v>
+        <v>137015.1355886207</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>153162.4428383266</v>
+        <v>153162.4428383265</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>154362.0367321587</v>
+        <v>154362.0367321586</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>156811.3348504399</v>
+        <v>156811.33485044</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>163238.0641267566</v>
+        <v>163238.0641267567</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>165935.3829513713</v>
+        <v>165935.3829513714</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>168708.1868074936</v>
+        <v>168708.1868074937</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>170123.5742081687</v>
+        <v>170123.5742081686</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>171558.6563153349</v>
+        <v>171558.656315335</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>174489.0462923709</v>
+        <v>174489.0462923708</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>177501.6892810892</v>
+        <v>177501.6892810893</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>179039.606744141</v>
+        <v>179039.6067441411</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>180598.9992935047</v>
+        <v>180598.9992935046</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>185409.2069368019</v>
+        <v>185409.2069368018</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>190424.3788053221</v>
+        <v>190424.3788053222</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>204872.684428501</v>
+        <v>204872.6844285009</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>210723.155521773</v>
+        <v>210723.1555217729</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>214763.4157539866</v>
+        <v>214763.4157539865</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>216826.8521845277</v>
+        <v>216826.8521845278</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>221042.6307330405</v>
+        <v>221042.6307330406</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>232123.2052538918</v>
+        <v>232123.2052538919</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>236782.5478387084</v>
+        <v>236782.5478387085</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>244028.4006153759</v>
+        <v>244028.4006153758</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>249036.9035691441</v>
+        <v>249036.9035691442</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>251596.3348753515</v>
+        <v>251596.3348753516</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>256828.6868072517</v>
+        <v>256828.6868072518</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>262216.6907518751</v>
+        <v>262216.690751875</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>264970.7405938028</v>
+        <v>264970.7405938027</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>267765.7470188442</v>
+        <v>267765.7470188444</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>270602.422632578</v>
+        <v>270602.4226325781</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>273481.495771632</v>
+        <v>273481.4957716319</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>276403.7108848072</v>
+        <v>276403.7108848071</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>294886.8010524592</v>
+        <v>294886.8010524593</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>298133.2907006649</v>
+        <v>298133.290700665</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>301429.5055759804</v>
+        <v>301429.5055759803</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>304776.3532056026</v>
+        <v>304776.3532056027</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>308174.7613299994</v>
+        <v>308174.7613299995</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>318688.9383542506</v>
+        <v>318688.9383542505</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>329702.5899468837</v>
+        <v>329702.5899468836</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>333489.6872265408</v>
+        <v>333489.6872265407</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>345214.0934553651</v>
+        <v>345214.093455365</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>353344.5608929003</v>
+        <v>353344.5608929005</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>357507.6663326382</v>
+        <v>357507.6663326384</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>366035.9012778486</v>
+        <v>366035.9012778485</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>370403.6229644691</v>
+        <v>370403.6229644694</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>383937.3314143649</v>
+        <v>383937.3314143646</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>393332.5871087941</v>
+        <v>393332.5871087943</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>398146.3987048669</v>
+        <v>398146.3987048668</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>403039.6664215456</v>
+        <v>403039.6664215457</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>408013.9271389833</v>
+        <v>408013.9271389832</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>418211.7231784987</v>
+        <v>418211.7231784988</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>423438.4808369878</v>
+        <v>423438.4808369879</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>428752.6764240384</v>
+        <v>428752.6764240383</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>434155.9961562232</v>
+        <v>434155.9961562233</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>439650.1563739741</v>
+        <v>439650.1563739739</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>445236.9035382264</v>
+        <v>445236.9035382266</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>456695.2948279204</v>
+        <v>456695.2948279205</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>462570.5818280168</v>
+        <v>462570.581828017</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>474622.6683279803</v>
+        <v>474622.6683279805</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>487089.5527009718</v>
+        <v>487089.552700972</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>493483.4447449681</v>
+        <v>493483.4447449683</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>513331.112896005</v>
+        <v>513331.1128960051</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>527138.5799421349</v>
+        <v>527138.5799421351</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>534221.3618987397</v>
+        <v>534221.3618987398</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>541426.3842552097</v>
+        <v>541426.3842552096</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>548755.8312063391</v>
+        <v>548755.8312063389</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>556211.9081015583</v>
+        <v>556211.9081015585</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>563796.8402248585</v>
+        <v>563796.8402248586</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>571512.8714790763</v>
+        <v>571512.8714790764</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>579362.2629718495</v>
+        <v>579362.2629718499</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>587347.2915006446</v>
+        <v>587347.2915006445</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>595470.2479343851</v>
+        <v>595470.2479343849</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>603733.4354893647</v>
+        <v>603733.4354893646</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>612139.167897273</v>
+        <v>612139.1678972732</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>620689.7674633517</v>
+        <v>620689.7674633516</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>647234.0768492817</v>
+        <v>647234.0768492818</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>656387.4653130269</v>
+        <v>656387.4653130267</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>684796.1175350414</v>
+        <v>684796.1175350413</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>694589.5557074111</v>
+        <v>694589.5557074109</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>704548.7709285424</v>
+        <v>704548.7709285426</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>724973.6166142049</v>
+        <v>724973.6166142048</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>735443.7349000882</v>
+        <v>735443.7349000883</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>746088.5991258792</v>
+        <v>746088.5991258794</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>756910.3835947815</v>
+        <v>756910.3835947819</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>779093.2352682409</v>
+        <v>779093.235268241</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>790458.4645529642</v>
+        <v>790458.4645529643</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>802008.930476065</v>
+        <v>802008.9304760654</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>813746.5975294431</v>
+        <v>813746.5975294427</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>825673.3762986953</v>
+        <v>825673.3762986956</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>837791.1192966126</v>
+        <v>837791.1192966125</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>850101.6167304602</v>
+        <v>850101.6167304604</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>888206.5126751087</v>
+        <v>888206.512675109</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>914603.1716800767</v>
+        <v>914603.1716800771</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>928103.7546608796</v>
+        <v>928103.7546608794</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>984148.671013756</v>
+        <v>984148.6710137563</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>998675.4329661144</v>
+        <v>998675.4329661146</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1053496.20508831</v>
+        <v>1053496.205088309</v>
       </c>
       <c r="C359" t="n">
         <v>36719.19759167101</v>
@@ -9791,7 +9791,7 @@
         <v>1050762.037464072</v>
       </c>
       <c r="C360" t="n">
-        <v>55442.36374271062</v>
+        <v>55442.36374271061</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>1045191.354621472</v>
       </c>
       <c r="C362" t="n">
-        <v>93618.06115128932</v>
+        <v>93618.06115128931</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>1030634.306601172</v>
       </c>
       <c r="C367" t="n">
-        <v>193317.8124874951</v>
+        <v>193317.812487495</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>1024543.220269148</v>
       </c>
       <c r="C369" t="n">
-        <v>234897.5676921779</v>
+        <v>234897.567692178</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>1015098.212762823</v>
       </c>
       <c r="C372" t="n">
-        <v>299073.0044573631</v>
+        <v>299073.0044573632</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>299071.2855227672</v>
       </c>
       <c r="D373" t="n">
-        <v>21871.06790918903</v>
+        <v>21871.06790918904</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>995004.9908248377</v>
+        <v>995004.9908248375</v>
       </c>
       <c r="C378" t="n">
         <v>299057.766930907</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>987920.5426690683</v>
+        <v>987920.5426690679</v>
       </c>
       <c r="C380" t="n">
         <v>299049.0734662284</v>
       </c>
       <c r="D380" t="n">
-        <v>181514.7407579095</v>
+        <v>181514.7407579096</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>984300.7843801958</v>
+        <v>984300.7843801959</v>
       </c>
       <c r="C381" t="n">
         <v>299043.7454215143</v>
       </c>
       <c r="D381" t="n">
-        <v>205234.455849161</v>
+        <v>205234.4558491611</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>980627.7460832114</v>
+        <v>980627.7460832116</v>
       </c>
       <c r="C382" t="n">
-        <v>299037.6438757742</v>
+        <v>299037.6438757743</v>
       </c>
       <c r="D382" t="n">
         <v>229176.184526739</v>
@@ -10386,10 +10386,10 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>976900.1959209524</v>
+        <v>976900.195920952</v>
       </c>
       <c r="C383" t="n">
-        <v>299030.6656540545</v>
+        <v>299030.6656540546</v>
       </c>
       <c r="D383" t="n">
         <v>229175.755297763</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>973116.8705698296</v>
+        <v>973116.8705698297</v>
       </c>
       <c r="C384" t="n">
         <v>299022.6952231982</v>
@@ -10441,13 +10441,13 @@
         <v>969276.4750748049</v>
       </c>
       <c r="C385" t="n">
-        <v>299013.6034159759</v>
+        <v>299013.6034159758</v>
       </c>
       <c r="D385" t="n">
         <v>229174.6345190064</v>
       </c>
       <c r="E385" t="n">
-        <v>73134.17709204105</v>
+        <v>73134.17709204103</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>965377.6827684345</v>
+        <v>965377.6827684348</v>
       </c>
       <c r="C386" t="n">
         <v>299003.2460516347</v>
       </c>
       <c r="D386" t="n">
-        <v>229173.9108351998</v>
+        <v>229173.9108351997</v>
       </c>
       <c r="E386" t="n">
-        <v>97939.52352627297</v>
+        <v>97939.52352627294</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>961419.1352836952</v>
       </c>
       <c r="C387" t="n">
-        <v>298991.4624481785</v>
+        <v>298991.4624481784</v>
       </c>
       <c r="D387" t="n">
         <v>229173.0523877177</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>957399.4426708196</v>
+        <v>957399.4426708198</v>
       </c>
       <c r="C388" t="n">
         <v>298978.0738219896</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>953317.1836288982</v>
+        <v>953317.1836288981</v>
       </c>
       <c r="C389" t="n">
         <v>298962.8815707936</v>
@@ -10568,13 +10568,13 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>949170.9058634836</v>
+        <v>949170.9058634837</v>
       </c>
       <c r="C390" t="n">
         <v>298945.6654364538</v>
       </c>
       <c r="D390" t="n">
-        <v>229169.4153926195</v>
+        <v>229169.4153926196</v>
       </c>
       <c r="E390" t="n">
         <v>199222.4419900503</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>944959.126581901</v>
+        <v>944959.1265819009</v>
       </c>
       <c r="C391" t="n">
         <v>298926.1815446825</v>
@@ -10620,10 +10620,10 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>940680.3331383849</v>
+        <v>940680.3331383847</v>
       </c>
       <c r="C392" t="n">
-        <v>298904.1603194614</v>
+        <v>298904.1603194613</v>
       </c>
       <c r="D392" t="n">
         <v>229165.7778843072</v>
@@ -10655,7 +10655,7 @@
         <v>229163.4690594222</v>
       </c>
       <c r="E393" t="n">
-        <v>251058.5039749619</v>
+        <v>251058.503974962</v>
       </c>
       <c r="F393" t="n">
         <v>26206.29389542504</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>931915.5089370185</v>
+        <v>931915.5089370182</v>
       </c>
       <c r="C394" t="n">
         <v>298851.2856554551</v>
@@ -10684,7 +10684,7 @@
         <v>251058.1286235727</v>
       </c>
       <c r="F394" t="n">
-        <v>52600.22815305603</v>
+        <v>52600.22815305604</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10710,7 +10710,7 @@
         <v>251057.6748753486</v>
       </c>
       <c r="F395" t="n">
-        <v>79178.55674494569</v>
+        <v>79178.55674494567</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>922863.7701990611</v>
+        <v>922863.7701990613</v>
       </c>
       <c r="C396" t="n">
         <v>298784.2835669072</v>
@@ -10750,13 +10750,13 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>918226.2381006444</v>
+        <v>918226.2381006442</v>
       </c>
       <c r="C397" t="n">
         <v>298744.4705311003</v>
       </c>
       <c r="D397" t="n">
-        <v>229149.5756256321</v>
+        <v>229149.5756256322</v>
       </c>
       <c r="E397" t="n">
         <v>251056.4680876523</v>
@@ -10776,10 +10776,10 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>913512.0472673938</v>
+        <v>913512.0472673939</v>
       </c>
       <c r="C398" t="n">
-        <v>298699.830264837</v>
+        <v>298699.8302648369</v>
       </c>
       <c r="D398" t="n">
         <v>229144.5481626818</v>
@@ -10814,7 +10814,7 @@
         <v>251054.7248769141</v>
       </c>
       <c r="F399" t="n">
-        <v>187270.3733552181</v>
+        <v>187270.373355218</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10831,13 +10831,13 @@
         <v>903846.9185471528</v>
       </c>
       <c r="C400" t="n">
-        <v>298593.9475238947</v>
+        <v>298593.9475238948</v>
       </c>
       <c r="D400" t="n">
         <v>229131.9211162903</v>
       </c>
       <c r="E400" t="n">
-        <v>251053.5864619022</v>
+        <v>251053.5864619023</v>
       </c>
       <c r="F400" t="n">
         <v>214721.5930908233</v>
@@ -10854,13 +10854,13 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>898892.5534454007</v>
+        <v>898892.5534454009</v>
       </c>
       <c r="C401" t="n">
         <v>298531.5246045501</v>
       </c>
       <c r="D401" t="n">
-        <v>229124.0629545556</v>
+        <v>229124.0629545557</v>
       </c>
       <c r="E401" t="n">
         <v>251052.2259099889</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>893854.6806179995</v>
+        <v>893854.6806179993</v>
       </c>
       <c r="C402" t="n">
         <v>298461.9072289846</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>888731.5574060589</v>
+        <v>888731.5574060588</v>
       </c>
       <c r="C403" t="n">
         <v>298384.3706095304</v>
@@ -10938,7 +10938,7 @@
         <v>298298.1302112174</v>
       </c>
       <c r="D404" t="n">
-        <v>229092.3828028007</v>
+        <v>229092.3828028008</v>
       </c>
       <c r="E404" t="n">
         <v>251046.374674542</v>
@@ -10973,7 +10973,7 @@
         <v>270114.4081075541</v>
       </c>
       <c r="G405" t="n">
-        <v>84272.48467194098</v>
+        <v>84272.484671941</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,19 +10984,19 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>872833.1962256999</v>
+        <v>872833.1962257</v>
       </c>
       <c r="C406" t="n">
         <v>298096.0811343504</v>
       </c>
       <c r="D406" t="n">
-        <v>229062.4708782056</v>
+        <v>229062.4708782057</v>
       </c>
       <c r="E406" t="n">
-        <v>251040.4277739289</v>
+        <v>251040.427773929</v>
       </c>
       <c r="F406" t="n">
-        <v>270113.9733543786</v>
+        <v>270113.9733543787</v>
       </c>
       <c r="G406" t="n">
         <v>112666.2745550352</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>867351.5892305569</v>
+        <v>867351.589230557</v>
       </c>
       <c r="C407" t="n">
         <v>297978.3745580461</v>
@@ -11022,10 +11022,10 @@
         <v>251036.6189743244</v>
       </c>
       <c r="F407" t="n">
-        <v>270113.4430078416</v>
+        <v>270113.4430078415</v>
       </c>
       <c r="G407" t="n">
-        <v>141206.744006205</v>
+        <v>141206.7440062051</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11045,13 +11045,13 @@
         <v>229023.1343051846</v>
       </c>
       <c r="E408" t="n">
-        <v>251032.1274488753</v>
+        <v>251032.1274488752</v>
       </c>
       <c r="F408" t="n">
         <v>270112.797410974</v>
       </c>
       <c r="G408" t="n">
-        <v>169891.1574496161</v>
+        <v>169891.1574496162</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>856104.7542633052</v>
+        <v>856104.7542633055</v>
       </c>
       <c r="C409" t="n">
-        <v>297704.3097348573</v>
+        <v>297704.3097348574</v>
       </c>
       <c r="D409" t="n">
-        <v>228999.1361322035</v>
+        <v>228999.1361322034</v>
       </c>
       <c r="E409" t="n">
         <v>251026.8409516897</v>
@@ -11091,13 +11091,13 @@
         <v>850336.1204648742</v>
       </c>
       <c r="C410" t="n">
-        <v>297545.6058989196</v>
+        <v>297545.6058989195</v>
       </c>
       <c r="D410" t="n">
-        <v>228971.7543489596</v>
+        <v>228971.7543489597</v>
       </c>
       <c r="E410" t="n">
-        <v>251020.6306873102</v>
+        <v>251020.6306873101</v>
       </c>
       <c r="F410" t="n">
         <v>270111.0625302487</v>
@@ -11140,10 +11140,10 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>838500.1046673638</v>
+        <v>838500.1046673637</v>
       </c>
       <c r="C412" t="n">
-        <v>297178.3789133358</v>
+        <v>297178.3789133359</v>
       </c>
       <c r="D412" t="n">
         <v>228905.0995259569</v>
@@ -11178,7 +11178,7 @@
         <v>250994.8754309401</v>
       </c>
       <c r="F413" t="n">
-        <v>270106.8525633555</v>
+        <v>270106.8525633554</v>
       </c>
       <c r="G413" t="n">
         <v>286017.4670916628</v>
@@ -11192,10 +11192,10 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>826255.0955327988</v>
+        <v>826255.0955327989</v>
       </c>
       <c r="C414" t="n">
-        <v>296735.0875753896</v>
+        <v>296735.0875753897</v>
       </c>
       <c r="D414" t="n">
         <v>228819.21683343</v>
@@ -11204,7 +11204,7 @@
         <v>250983.273010077</v>
       </c>
       <c r="F414" t="n">
-        <v>270104.8428558204</v>
+        <v>270104.8428558203</v>
       </c>
       <c r="G414" t="n">
         <v>286017.229282884</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>819975.3968436433</v>
+        <v>819975.3968436432</v>
       </c>
       <c r="C415" t="n">
         <v>296480.9667658008</v>
@@ -11227,7 +11227,7 @@
         <v>228767.6034619203</v>
       </c>
       <c r="E415" t="n">
-        <v>250969.7733306387</v>
+        <v>250969.7733306386</v>
       </c>
       <c r="F415" t="n">
         <v>270102.4322917445</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>813588.9782811935</v>
+        <v>813588.9782811936</v>
       </c>
       <c r="C416" t="n">
         <v>296202.9039179684</v>
@@ -11253,10 +11253,10 @@
         <v>228709.3133351216</v>
       </c>
       <c r="E416" t="n">
-        <v>250954.0963134251</v>
+        <v>250954.0963134252</v>
       </c>
       <c r="F416" t="n">
-        <v>270099.5470205268</v>
+        <v>270099.5470205267</v>
       </c>
       <c r="G416" t="n">
         <v>286016.5711083111</v>
@@ -11270,10 +11270,10 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>807094.4818108624</v>
+        <v>807094.4818108628</v>
       </c>
       <c r="C417" t="n">
-        <v>295899.0622023716</v>
+        <v>295899.0622023715</v>
       </c>
       <c r="D417" t="n">
         <v>228643.595381331</v>
@@ -11296,13 +11296,13 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>800490.6268390913</v>
+        <v>800490.6268390912</v>
       </c>
       <c r="C418" t="n">
         <v>295567.5095420209</v>
       </c>
       <c r="D418" t="n">
-        <v>228569.629953785</v>
+        <v>228569.6299537851</v>
       </c>
       <c r="E418" t="n">
         <v>250914.9055608099</v>
@@ -11322,19 +11322,19 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>793776.2185219905</v>
+        <v>793776.2185219903</v>
       </c>
       <c r="C419" t="n">
         <v>295206.2184064728</v>
       </c>
       <c r="D419" t="n">
-        <v>228486.5246649772</v>
+        <v>228486.5246649771</v>
       </c>
       <c r="E419" t="n">
         <v>250890.6355809831</v>
       </c>
       <c r="F419" t="n">
-        <v>270087.108273154</v>
+        <v>270087.1082731539</v>
       </c>
       <c r="G419" t="n">
         <v>286014.895115301</v>
@@ -11363,7 +11363,7 @@
         <v>270081.310341225</v>
       </c>
       <c r="G420" t="n">
-        <v>286014.0671245199</v>
+        <v>286014.06712452</v>
       </c>
       <c r="H420" t="n">
         <v>238504.5083713763</v>
@@ -11386,7 +11386,7 @@
         <v>250830.4993736259</v>
       </c>
       <c r="F421" t="n">
-        <v>270074.4436638309</v>
+        <v>270074.4436638308</v>
       </c>
       <c r="G421" t="n">
         <v>286013.0558641696</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>772959.1923816906</v>
+        <v>772959.1923816905</v>
       </c>
       <c r="C422" t="n">
         <v>293922.2187987923</v>
@@ -11412,7 +11412,7 @@
         <v>250793.5723494873</v>
       </c>
       <c r="F422" t="n">
-        <v>270066.3284450279</v>
+        <v>270066.328445028</v>
       </c>
       <c r="G422" t="n">
         <v>286011.8235804013</v>
@@ -11429,7 +11429,7 @@
         <v>765792.6408942507</v>
       </c>
       <c r="C423" t="n">
-        <v>293419.8149402395</v>
+        <v>293419.8149402396</v>
       </c>
       <c r="D423" t="n">
         <v>228042.0805488917</v>
@@ -11441,7 +11441,7 @@
         <v>270056.7579694126</v>
       </c>
       <c r="G423" t="n">
-        <v>286010.3253847539</v>
+        <v>286010.325384754</v>
       </c>
       <c r="H423" t="n">
         <v>329986.9828556538</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>758511.1543430637</v>
+        <v>758511.1543430635</v>
       </c>
       <c r="C424" t="n">
         <v>292876.1379286271</v>
@@ -11467,7 +11467,7 @@
         <v>270045.4951753668</v>
       </c>
       <c r="G424" t="n">
-        <v>286008.5080448192</v>
+        <v>286008.5080448193</v>
       </c>
       <c r="H424" t="n">
         <v>360725.3553727782</v>
@@ -11478,10 +11478,10 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>751114.2384501679</v>
+        <v>751114.2384501677</v>
       </c>
       <c r="C425" t="n">
-        <v>292288.6179986548</v>
+        <v>292288.6179986547</v>
       </c>
       <c r="D425" t="n">
         <v>227735.7872347477</v>
@@ -11493,7 +11493,7 @@
         <v>270032.2688947782</v>
       </c>
       <c r="G425" t="n">
-        <v>286006.3085982173</v>
+        <v>286006.3085982174</v>
       </c>
       <c r="H425" t="n">
         <v>391586.3956550187</v>
@@ -11516,7 +11516,7 @@
         <v>250584.7677370828</v>
       </c>
       <c r="F426" t="n">
-        <v>270016.7697434311</v>
+        <v>270016.769743431</v>
       </c>
       <c r="G426" t="n">
         <v>286003.6527694967</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>735972.8959107953</v>
+        <v>735972.8959107952</v>
       </c>
       <c r="C427" t="n">
         <v>290971.3834230381</v>
@@ -11539,13 +11539,13 @@
         <v>227358.3548890935</v>
       </c>
       <c r="E427" t="n">
-        <v>250513.2581605804</v>
+        <v>250513.2581605803</v>
       </c>
       <c r="F427" t="n">
         <v>269998.6456483456</v>
       </c>
       <c r="G427" t="n">
-        <v>286000.4531682145</v>
+        <v>286000.4531682146</v>
       </c>
       <c r="H427" t="n">
         <v>453679.5985968144</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>728228.2630260312</v>
+        <v>728228.2630260313</v>
       </c>
       <c r="C428" t="n">
         <v>290236.1600124704</v>
@@ -11571,7 +11571,7 @@
         <v>269977.4970010211</v>
       </c>
       <c r="G428" t="n">
-        <v>285996.607245197</v>
+        <v>285996.6072451971</v>
       </c>
       <c r="H428" t="n">
         <v>484913.9693809148</v>
@@ -11582,13 +11582,13 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>720367.8067570416</v>
+        <v>720367.8067570415</v>
       </c>
       <c r="C429" t="n">
         <v>289446.0900583871</v>
       </c>
       <c r="D429" t="n">
-        <v>226896.4592750424</v>
+        <v>226896.4592750423</v>
       </c>
       <c r="E429" t="n">
         <v>250340.2210046531</v>
@@ -11611,7 +11611,7 @@
         <v>712391.8703405078</v>
       </c>
       <c r="C430" t="n">
-        <v>288598.2763180028</v>
+        <v>288598.2763180027</v>
       </c>
       <c r="D430" t="n">
         <v>226629.2142607099</v>
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>704300.9915642795</v>
+        <v>704300.9915642794</v>
       </c>
       <c r="C431" t="n">
         <v>287689.7802179841</v>
       </c>
       <c r="D431" t="n">
-        <v>226335.0916685224</v>
+        <v>226335.0916685225</v>
       </c>
       <c r="E431" t="n">
-        <v>250119.1715986638</v>
+        <v>250119.1715986639</v>
       </c>
       <c r="F431" t="n">
         <v>269891.0821300661</v>
       </c>
       <c r="G431" t="n">
-        <v>285979.8881072557</v>
+        <v>285979.8881072558</v>
       </c>
       <c r="H431" t="n">
-        <v>579386.9301137975</v>
+        <v>579386.9301137978</v>
       </c>
     </row>
     <row r="432">
@@ -11663,7 +11663,7 @@
         <v>696095.9112670785</v>
       </c>
       <c r="C432" t="n">
-        <v>286717.632127476</v>
+        <v>286717.6321274759</v>
       </c>
       <c r="D432" t="n">
         <v>226011.9483363711</v>
@@ -11675,7 +11675,7 @@
         <v>269852.6973951383</v>
       </c>
       <c r="G432" t="n">
-        <v>285972.0411015059</v>
+        <v>285972.041101506</v>
       </c>
       <c r="H432" t="n">
         <v>611141.2884380197</v>
@@ -11686,16 +11686,16 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>687777.5815006262</v>
+        <v>687777.5815006259</v>
       </c>
       <c r="C433" t="n">
-        <v>285678.842583951</v>
+        <v>285678.8425839511</v>
       </c>
       <c r="D433" t="n">
         <v>225657.535436931</v>
       </c>
       <c r="E433" t="n">
-        <v>249838.9697095359</v>
+        <v>249838.9697095358</v>
       </c>
       <c r="F433" t="n">
         <v>269808.3806010333</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>679347.1732934506</v>
+        <v>679347.1732934505</v>
       </c>
       <c r="C434" t="n">
         <v>284570.414457302</v>
@@ -11738,13 +11738,13 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>670806.083954809</v>
+        <v>670806.0839548091</v>
       </c>
       <c r="C435" t="n">
         <v>283389.3560279214</v>
       </c>
       <c r="D435" t="n">
-        <v>224845.3904609269</v>
+        <v>224845.3904609268</v>
       </c>
       <c r="E435" t="n">
         <v>249486.5335108709</v>
@@ -11764,10 +11764,10 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>662155.9438567825</v>
+        <v>662155.9438567827</v>
       </c>
       <c r="C436" t="n">
-        <v>282132.6949443847</v>
+        <v>282132.6949443846</v>
       </c>
       <c r="D436" t="n">
         <v>224382.6555877379</v>
@@ -11776,13 +11776,13 @@
         <v>249278.5673009115</v>
       </c>
       <c r="F436" t="n">
-        <v>269631.2907056125</v>
+        <v>269631.2907056124</v>
       </c>
       <c r="G436" t="n">
-        <v>285923.1454407789</v>
+        <v>285923.1454407788</v>
       </c>
       <c r="H436" t="n">
-        <v>739545.2829530062</v>
+        <v>739545.2829530061</v>
       </c>
     </row>
     <row r="437">
@@ -11808,7 +11808,7 @@
         <v>285904.9691722887</v>
       </c>
       <c r="H437" t="n">
-        <v>772008.8401725704</v>
+        <v>772008.8401725702</v>
       </c>
     </row>
     <row r="438">
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>644536.2347303812</v>
+        <v>644536.2347303813</v>
       </c>
       <c r="C438" t="n">
         <v>279380.8617835164</v>
@@ -11845,7 +11845,7 @@
         <v>635571.1442605113</v>
       </c>
       <c r="C439" t="n">
-        <v>277879.9788045969</v>
+        <v>277879.9788045968</v>
       </c>
       <c r="D439" t="n">
         <v>222735.8715499072</v>
@@ -11868,16 +11868,16 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>626505.9690805126</v>
+        <v>626505.9690805128</v>
       </c>
       <c r="C440" t="n">
         <v>276292.1045712437</v>
       </c>
       <c r="D440" t="n">
-        <v>222091.4119197418</v>
+        <v>222091.4119197419</v>
       </c>
       <c r="E440" t="n">
-        <v>248184.2047002049</v>
+        <v>248184.2047002048</v>
       </c>
       <c r="F440" t="n">
         <v>269251.6217240565</v>
@@ -11886,7 +11886,7 @@
         <v>285829.3114453038</v>
       </c>
       <c r="H440" t="n">
-        <v>870329.1066363967</v>
+        <v>870329.106636397</v>
       </c>
     </row>
     <row r="441">
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>617343.5840582852</v>
+        <v>617343.5840582853</v>
       </c>
       <c r="C441" t="n">
         <v>274614.5999761103</v>
@@ -11912,7 +11912,7 @@
         <v>285795.1558060613</v>
       </c>
       <c r="H441" t="n">
-        <v>903426.3987841988</v>
+        <v>903426.3987841986</v>
       </c>
     </row>
     <row r="442">
@@ -11923,7 +11923,7 @@
         <v>608087.123461311</v>
       </c>
       <c r="C442" t="n">
-        <v>272844.9442255561</v>
+        <v>272844.944225556</v>
       </c>
       <c r="D442" t="n">
         <v>220641.7062941987</v>
@@ -11932,13 +11932,13 @@
         <v>247444.429687963</v>
       </c>
       <c r="F442" t="n">
-        <v>268975.2829480384</v>
+        <v>268975.2829480383</v>
       </c>
       <c r="G442" t="n">
-        <v>285755.3940217194</v>
+        <v>285755.3940217195</v>
       </c>
       <c r="H442" t="n">
-        <v>936693.1002758419</v>
+        <v>936693.1002758418</v>
       </c>
     </row>
     <row r="443">
@@ -11949,7 +11949,7 @@
         <v>598739.9824205635</v>
       </c>
       <c r="C443" t="n">
-        <v>270980.7530913291</v>
+        <v>270980.753091329</v>
       </c>
       <c r="D443" t="n">
         <v>219830.4646558002</v>
@@ -11961,7 +11961,7 @@
         <v>268809.4175484222</v>
       </c>
       <c r="G443" t="n">
-        <v>285709.2118478588</v>
+        <v>285709.2118478589</v>
       </c>
       <c r="H443" t="n">
         <v>970133.9430522267</v>
@@ -11972,19 +11972,19 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>589305.8174221646</v>
+        <v>589305.8174221648</v>
       </c>
       <c r="C444" t="n">
         <v>269019.7973818708</v>
       </c>
       <c r="D444" t="n">
-        <v>218957.588276294</v>
+        <v>218957.5882762941</v>
       </c>
       <c r="E444" t="n">
         <v>246545.9985056463</v>
       </c>
       <c r="F444" t="n">
-        <v>268622.3602314287</v>
+        <v>268622.3602314286</v>
       </c>
       <c r="G444" t="n">
         <v>285655.6953534831</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>579788.5457840007</v>
+        <v>579788.5457840008</v>
       </c>
       <c r="C445" t="n">
         <v>266960.0215054074</v>
@@ -12013,10 +12013,10 @@
         <v>268411.854105035</v>
       </c>
       <c r="G445" t="n">
-        <v>285593.8217459571</v>
+        <v>285593.8217459572</v>
       </c>
       <c r="H445" t="n">
-        <v>1037557.643791452</v>
+        <v>1037557.643791453</v>
       </c>
     </row>
     <row r="446">
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>550781.1359528782</v>
+        <v>550781.1359528783</v>
       </c>
       <c r="C448" t="n">
         <v>260170.2083894244</v>
@@ -12094,7 +12094,7 @@
         <v>285345.9946110561</v>
       </c>
       <c r="H448" t="n">
-        <v>1140124.170673348</v>
+        <v>1140124.170673349</v>
       </c>
     </row>
     <row r="449">
@@ -12105,10 +12105,10 @@
         <v>540975.7494080887</v>
       </c>
       <c r="C449" t="n">
-        <v>257698.7111016541</v>
+        <v>257698.7111016542</v>
       </c>
       <c r="D449" t="n">
-        <v>213562.8762101414</v>
+        <v>213562.8762101415</v>
       </c>
       <c r="E449" t="n">
         <v>243433.2423327217</v>
@@ -12140,7 +12140,7 @@
         <v>242633.4384935905</v>
       </c>
       <c r="F450" t="n">
-        <v>266916.0011466577</v>
+        <v>266916.0011466576</v>
       </c>
       <c r="G450" t="n">
         <v>285114.4511740814</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>521191.2828641288</v>
+        <v>521191.2828641287</v>
       </c>
       <c r="C451" t="n">
         <v>252437.5124991911</v>
@@ -12169,7 +12169,7 @@
         <v>266507.2340200208</v>
       </c>
       <c r="G451" t="n">
-        <v>284973.6227137459</v>
+        <v>284973.622713746</v>
       </c>
       <c r="H451" t="n">
         <v>1244531.382523556</v>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>73672.61271019116</v>
+        <v>73672.61271019114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73759.86088339567</v>
+        <v>73759.86088339565</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73848.36262488693</v>
+        <v>73848.36262488691</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73938.13582261652</v>
+        <v>73938.1358226165</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>74215.26683112551</v>
+        <v>74215.2668311255</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>74310.30982221331</v>
+        <v>74310.30982221333</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74504.50948619373</v>
+        <v>74504.5094861937</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>74603.70533576919</v>
+        <v>74603.70533576921</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74704.32510734317</v>
+        <v>74704.32510734316</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74806.38908363419</v>
+        <v>74806.38908363417</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74909.91783195677</v>
+        <v>74909.91783195671</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>75014.93220810103</v>
+        <v>75014.93220810102</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>75121.45336026236</v>
+        <v>75121.45336026231</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>75229.50273302145</v>
+        <v>75229.50273302142</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>75339.10207137621</v>
+        <v>75339.10207137615</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75450.27342482479</v>
+        <v>75450.27342482476</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75563.03915150187</v>
+        <v>75563.03915150186</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75677.42192236728</v>
+        <v>75677.42192236731</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75911.13087013931</v>
+        <v>75911.13087013927</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>76151.58805490988</v>
+        <v>76151.58805490987</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>76398.98654588865</v>
+        <v>76398.98654588862</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76525.35059505509</v>
+        <v>76525.35059505512</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76653.52483848721</v>
+        <v>76653.52483848722</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76783.53496014548</v>
+        <v>76783.53496014549</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76915.40700176402</v>
+        <v>76915.40700176405</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>77049.16736766565</v>
+        <v>77049.16736766571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>77184.84282963818</v>
+        <v>77184.84282963823</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>77322.46053187198</v>
+        <v>77322.46053187196</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>77462.04799596018</v>
+        <v>77462.04799596019</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77603.63312596196</v>
+        <v>77603.63312596193</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77892.90994309874</v>
+        <v>77892.90994309868</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>78040.65939714844</v>
+        <v>78040.65939714841</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>78190.52206152063</v>
+        <v>78190.52206152059</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>78342.52783081192</v>
+        <v>78342.52783081189</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>78496.70701383019</v>
+        <v>78496.70701383016</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78653.09033912071</v>
+        <v>78653.09033912068</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78811.70896056092</v>
+        <v>78811.70896056089</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78972.59446302521</v>
+        <v>78972.59446302518</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>79135.77886812085</v>
+        <v>79135.77886812076</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>79469.17469121577</v>
+        <v>79469.17469121571</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>79639.45238872268</v>
+        <v>79639.45238872264</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79987.33649846175</v>
+        <v>79987.33649846169</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>80165.01197106182</v>
+        <v>80165.01197106177</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>80345.22322311782</v>
+        <v>80345.22322311781</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>80528.00598535952</v>
+        <v>80528.00598535954</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80713.39648019717</v>
+        <v>80713.3964801971</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>81092.14805473333</v>
+        <v>81092.1480547333</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>81285.5840964807</v>
+        <v>81285.58409648067</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>81481.77780831119</v>
+        <v>81481.77780831125</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81882.59389331196</v>
+        <v>81882.59389331195</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>82087.29542865831</v>
+        <v>82087.29542865836</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>82294.91297250635</v>
+        <v>82294.91297250634</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>82505.48747437677</v>
+        <v>82505.48747437671</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82719.06044413036</v>
+        <v>82719.06044413033</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82935.67395931082</v>
+        <v>82935.67395931076</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>83155.37067257907</v>
+        <v>83155.37067257908</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>83378.19381924017</v>
+        <v>83378.19381924014</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83833.39531299415</v>
+        <v>83833.39531299412</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>84065.86311297171</v>
+        <v>84065.86311297162</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>84301.63626782993</v>
+        <v>84301.63626782998</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>84540.7610423078</v>
+        <v>84540.76104230784</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84783.28433095501</v>
+        <v>84783.28433095495</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>85029.2536663394</v>
+        <v>85029.25366633944</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>85278.71722735817</v>
+        <v>85278.71722735824</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85531.72384765143</v>
+        <v>85531.72384765142</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>85788.32302412279</v>
+        <v>85788.32302412274</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>86048.56492556589</v>
+        <v>86048.56492556588</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>86312.50040140048</v>
+        <v>86312.50040140045</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86851.65893023653</v>
+        <v>86851.65893023652</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>87126.98716537745</v>
+        <v>87126.98716537732</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87689.40989393352</v>
+        <v>87689.40989393357</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87976.61389774529</v>
+        <v>87976.61389774528</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>88267.88723673548</v>
+        <v>88267.88723673543</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88862.86917453894</v>
+        <v>88862.86917453888</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>89166.69332142273</v>
+        <v>89166.69332142275</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89787.30270911985</v>
+        <v>89787.30270911982</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>90104.20823496838</v>
+        <v>90104.20823496836</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>90425.59585735583</v>
+        <v>90425.5958573558</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90751.5277623735</v>
+        <v>90751.52776237349</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>91082.06697269721</v>
+        <v>91082.06697269714</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>91417.27735844917</v>
+        <v>91417.27735844921</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91757.2236482044</v>
+        <v>91757.22364820441</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>92451.58721336303</v>
+        <v>92451.58721336297</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92806.1383393217</v>
+        <v>92806.13833932165</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>93165.69309346526</v>
+        <v>93165.69309346529</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93530.32066699472</v>
+        <v>93530.32066699468</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93900.09117880159</v>
+        <v>93900.09117880161</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>94655.34620404625</v>
+        <v>94655.34620404628</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>95040.97570348138</v>
+        <v>95040.97570348134</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>95828.60845064829</v>
+        <v>95828.60845064835</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>96638.57750521545</v>
+        <v>96638.57750521549</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>97052.13119937357</v>
+        <v>97052.13119937356</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>97471.50270206181</v>
+        <v>97471.50270206183</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>98328.0205656099</v>
+        <v>98328.02056560991</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98765.33033373789</v>
+        <v>98765.3303337378</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>99208.7847534996</v>
+        <v>99208.7847534997</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>99658.46828416488</v>
+        <v>99658.46828416483</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>100576.8661740432</v>
+        <v>100576.8661740433</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>102003.3585377357</v>
+        <v>102003.3585377356</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>103490.6991919083</v>
+        <v>103490.6991919084</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>106658.1742623638</v>
+        <v>106658.1742623637</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>107212.2345273363</v>
+        <v>107212.2345273364</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>107774.0396136547</v>
+        <v>107774.0396136546</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>109506.9896804166</v>
+        <v>109506.9896804167</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>110100.8471227412</v>
+        <v>110100.8471227413</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>110702.9931843857</v>
+        <v>110702.9931843856</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>113842.0683318742</v>
+        <v>113842.0683318741</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>115832.4610304375</v>
+        <v>115832.4610304374</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>117206.0032772003</v>
+        <v>117206.0032772004</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>120810.5636615774</v>
+        <v>120810.5636615773</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>123095.7706871196</v>
+        <v>123095.7706871195</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>123878.7616561928</v>
+        <v>123878.7616561929</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>129672.5250383113</v>
+        <v>129672.5250383114</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>131433.100609247</v>
+        <v>131433.1006092469</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>137015.1355886207</v>
+        <v>137015.1355886208</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>137991.0971432358</v>
+        <v>137991.0971432359</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>142031.9808923748</v>
+        <v>142031.9808923747</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>143077.4137855176</v>
+        <v>143077.4137855177</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>145211.9074550983</v>
+        <v>145211.9074550982</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>149661.1305904884</v>
+        <v>149661.1305904883</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>150812.2146085688</v>
+        <v>150812.2146085689</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>155578.2561454939</v>
+        <v>155578.256145494</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>156811.33485044</v>
+        <v>156811.3348504399</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>160614.1205873763</v>
+        <v>160614.1205873762</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>163238.0641267567</v>
+        <v>163238.0641267566</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>165935.3829513714</v>
+        <v>165935.3829513713</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>167312.2146608153</v>
+        <v>167312.2146608154</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>168708.1868074937</v>
+        <v>168708.1868074936</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>180598.9992935046</v>
+        <v>180598.9992935047</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>182180.1820622553</v>
+        <v>182180.1820622552</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>183783.4757852486</v>
+        <v>183783.4757852487</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>185409.2069368018</v>
+        <v>185409.2069368019</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>190424.3788053222</v>
+        <v>190424.378805322</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>195653.8222131607</v>
+        <v>195653.8222131606</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>197446.2696257677</v>
+        <v>197446.2696257678</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>201107.3708164068</v>
+        <v>201107.3708164067</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>204872.6844285009</v>
+        <v>204872.6844285011</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>206795.4256866944</v>
+        <v>206795.4256866945</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>208745.441453759</v>
+        <v>208745.4414537589</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>216826.8521845278</v>
+        <v>216826.8521845277</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>218919.7679007128</v>
+        <v>218919.7679007129</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>221042.6307330406</v>
+        <v>221042.6307330405</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>227595.7243315918</v>
+        <v>227595.7243315919</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>229843.2478299589</v>
+        <v>229843.2478299588</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>232123.2052538919</v>
+        <v>232123.2052538918</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>234436.1253208035</v>
+        <v>234436.1253208034</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>236782.5478387085</v>
+        <v>236782.5478387084</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>241578.1166422797</v>
+        <v>241578.1166422798</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>244028.4006153758</v>
+        <v>244028.4006153759</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>246514.4630227514</v>
+        <v>246514.4630227513</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>256828.6868072518</v>
+        <v>256828.6868072516</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>259502.9002436296</v>
+        <v>259502.9002436295</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>262216.690751875</v>
+        <v>262216.6907518751</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>264970.7405938027</v>
+        <v>264970.7405938028</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>267765.7470188444</v>
+        <v>267765.7470188442</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>276403.7108848071</v>
+        <v>276403.710884807</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>298133.290700665</v>
+        <v>298133.2907006647</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>315130.0736833267</v>
+        <v>315130.0736833269</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>318688.9383542505</v>
+        <v>318688.9383542504</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>325974.1497607294</v>
+        <v>325974.1497607295</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>333489.6872265407</v>
+        <v>333489.6872265406</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>337336.5466811644</v>
+        <v>337336.5466811645</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>349247.1132223103</v>
+        <v>349247.1132223102</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>366035.9012778485</v>
+        <v>366035.9012778486</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>379352.9594958185</v>
+        <v>379352.9594958184</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>383937.3314143646</v>
+        <v>383937.3314143645</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>388596.7241305936</v>
+        <v>388596.7241305935</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>393332.5871087943</v>
+        <v>393332.5871087942</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>398146.3987048668</v>
+        <v>398146.3987048669</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>403039.6664215457</v>
+        <v>403039.6664215458</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>413070.74731866</v>
+        <v>413070.7473186602</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>418211.7231784988</v>
+        <v>418211.7231784989</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>423438.4808369879</v>
+        <v>423438.4808369876</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>428752.6764240383</v>
+        <v>428752.6764240381</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>434155.9961562233</v>
+        <v>434155.9961562231</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>439650.1563739739</v>
+        <v>439650.1563739741</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>445236.9035382266</v>
+        <v>445236.9035382263</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>450918.0141839505</v>
+        <v>450918.0141839506</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>456695.2948279205</v>
+        <v>456695.2948279204</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>462570.581828017</v>
+        <v>462570.5818280167</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>468545.7411912924</v>
+        <v>468545.7411912925</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>487089.552700972</v>
+        <v>487089.5527009718</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>493483.4447449683</v>
+        <v>493483.4447449682</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>499986.9732606894</v>
+        <v>499986.9732606891</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>506602.1748883423</v>
+        <v>506602.1748883419</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>520175.8764724779</v>
+        <v>520175.876472478</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>527138.5799421351</v>
+        <v>527138.5799421349</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>534221.3618987398</v>
+        <v>534221.3618987396</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>541426.3842552096</v>
+        <v>541426.3842552097</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>548755.8312063389</v>
+        <v>548755.8312063388</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>556211.9081015585</v>
+        <v>556211.9081015583</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>563796.8402248586</v>
+        <v>563796.8402248584</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>571512.8714790764</v>
+        <v>571512.8714790767</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>587347.2915006445</v>
+        <v>587347.2915006446</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>603733.4354893646</v>
+        <v>603733.4354893644</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>612139.1678972732</v>
+        <v>612139.1678972731</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>620689.7674633516</v>
+        <v>620689.7674633519</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>638234.8877246164</v>
+        <v>638234.8877246163</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>647234.0768492818</v>
+        <v>647234.0768492816</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>665697.3852041134</v>
+        <v>665697.3852041136</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>694589.5557074109</v>
+        <v>694589.5557074113</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>704548.7709285426</v>
+        <v>704548.7709285422</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>714676.0393133429</v>
+        <v>714676.039313343</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>735443.7349000883</v>
+        <v>735443.7349000885</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>746088.5991258794</v>
+        <v>746088.5991258792</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>779093.235268241</v>
+        <v>779093.2352682415</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>790458.4645529643</v>
+        <v>790458.464552964</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>802008.9304760654</v>
+        <v>802008.9304760653</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>813746.5975294427</v>
+        <v>813746.5975294426</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>837791.1192966125</v>
+        <v>837791.1192966126</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>850101.6167304604</v>
+        <v>850101.61673046</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>875307.6984089905</v>
+        <v>875307.6984089904</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>888206.512675109</v>
+        <v>888206.5126751087</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>901304.5326205384</v>
+        <v>901304.5326205385</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>914603.1716800771</v>
+        <v>914603.171680077</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>928103.7546608794</v>
+        <v>928103.7546608796</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>955715.5817725608</v>
+        <v>955715.5817725607</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>984148.6710137563</v>
+        <v>984148.6710137562</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>998675.4329661146</v>
+        <v>998675.432966114</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1045191.354621472</v>
+        <v>1045191.354621471</v>
       </c>
       <c r="C362" t="n">
         <v>93618.06115128931</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1039479.554866057</v>
+        <v>1039479.554866058</v>
       </c>
       <c r="C364" t="n">
         <v>132767.7417240925</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1011864.017408258</v>
+        <v>1011864.017408257</v>
       </c>
       <c r="C373" t="n">
         <v>299071.2855227672</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1008585.304899231</v>
+        <v>1008585.30489923</v>
       </c>
       <c r="C374" t="n">
         <v>299069.2964828606</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1005261.081855184</v>
+        <v>1005261.081855185</v>
       </c>
       <c r="C375" t="n">
         <v>299066.9978697175</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>995004.9908248375</v>
+        <v>995004.9908248377</v>
       </c>
       <c r="C378" t="n">
         <v>299057.766930907</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>991488.2215804912</v>
+        <v>991488.2215804915</v>
       </c>
       <c r="C379" t="n">
         <v>299053.7200038602</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>987920.5426690679</v>
+        <v>987920.5426690681</v>
       </c>
       <c r="C380" t="n">
         <v>299049.0734662284</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>980627.7460832116</v>
+        <v>980627.7460832117</v>
       </c>
       <c r="C382" t="n">
         <v>299037.6438757743</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>973116.8705698297</v>
+        <v>973116.8705698301</v>
       </c>
       <c r="C384" t="n">
         <v>299022.6952231982</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>969276.4750748049</v>
+        <v>969276.4750748053</v>
       </c>
       <c r="C385" t="n">
         <v>299013.6034159758</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>965377.6827684348</v>
+        <v>965377.6827684343</v>
       </c>
       <c r="C386" t="n">
         <v>299003.2460516347</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>961419.1352836952</v>
+        <v>961419.1352836953</v>
       </c>
       <c r="C387" t="n">
         <v>298991.4624481784</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>957399.4426708198</v>
+        <v>957399.4426708197</v>
       </c>
       <c r="C388" t="n">
         <v>298978.0738219896</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>953317.1836288981</v>
+        <v>953317.1836288983</v>
       </c>
       <c r="C389" t="n">
         <v>298962.8815707936</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>944959.1265819009</v>
+        <v>944959.1265819011</v>
       </c>
       <c r="C391" t="n">
         <v>298926.1815446825</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>940680.3331383847</v>
+        <v>940680.3331383846</v>
       </c>
       <c r="C392" t="n">
         <v>298904.1603194613</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>931915.5089370182</v>
+        <v>931915.5089370185</v>
       </c>
       <c r="C394" t="n">
         <v>298851.2856554551</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>927426.3117782751</v>
+        <v>927426.3117782752</v>
       </c>
       <c r="C395" t="n">
         <v>298819.7440112258</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>922863.7701990613</v>
+        <v>922863.770199061</v>
       </c>
       <c r="C396" t="n">
         <v>298784.2835669072</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>918226.2381006442</v>
+        <v>918226.2381006447</v>
       </c>
       <c r="C397" t="n">
         <v>298744.4705311003</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>913512.0472673939</v>
+        <v>913512.0472673937</v>
       </c>
       <c r="C398" t="n">
         <v>298699.8302648369</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>908719.5094239558</v>
+        <v>908719.5094239562</v>
       </c>
       <c r="C399" t="n">
         <v>298649.844344563</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>898892.5534454009</v>
+        <v>898892.5534454008</v>
       </c>
       <c r="C401" t="n">
         <v>298531.5246045501</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>893854.6806179993</v>
+        <v>893854.6806179992</v>
       </c>
       <c r="C402" t="n">
         <v>298461.9072289846</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>888731.5574060588</v>
+        <v>888731.5574060587</v>
       </c>
       <c r="C403" t="n">
         <v>298384.3706095304</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>883521.4354461017</v>
+        <v>883521.4354461016</v>
       </c>
       <c r="C404" t="n">
         <v>298298.1302112174</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>872833.1962257</v>
+        <v>872833.1962256999</v>
       </c>
       <c r="C406" t="n">
         <v>298096.0811343504</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>867351.589230557</v>
+        <v>867351.5892305567</v>
       </c>
       <c r="C407" t="n">
         <v>297978.3745580461</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>861776.0131905152</v>
+        <v>861776.0131905155</v>
       </c>
       <c r="C408" t="n">
         <v>297848.1618002662</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>856104.7542633055</v>
+        <v>856104.7542633053</v>
       </c>
       <c r="C409" t="n">
         <v>297704.3097348574</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>850336.1204648742</v>
+        <v>850336.1204648741</v>
       </c>
       <c r="C410" t="n">
         <v>297545.6058989195</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>832429.5017820001</v>
+        <v>832429.5017819998</v>
       </c>
       <c r="C413" t="n">
         <v>296967.0086443547</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>826255.0955327989</v>
+        <v>826255.0955327993</v>
       </c>
       <c r="C414" t="n">
         <v>296735.0875753897</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>819975.3968436432</v>
+        <v>819975.3968436434</v>
       </c>
       <c r="C415" t="n">
         <v>296480.9667658008</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>807094.4818108628</v>
+        <v>807094.4818108627</v>
       </c>
       <c r="C417" t="n">
         <v>295899.0622023715</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>800490.6268390912</v>
+        <v>800490.6268390915</v>
       </c>
       <c r="C418" t="n">
         <v>295567.5095420209</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>786950.1563171918</v>
+        <v>786950.1563171917</v>
       </c>
       <c r="C420" t="n">
         <v>294813.0661658944</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>772959.1923816905</v>
+        <v>772959.1923816907</v>
       </c>
       <c r="C422" t="n">
         <v>293922.2187987923</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>758511.1543430635</v>
+        <v>758511.1543430636</v>
       </c>
       <c r="C424" t="n">
         <v>292876.1379286271</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>743601.5479480707</v>
+        <v>743601.5479480708</v>
       </c>
       <c r="C426" t="n">
         <v>291654.606887569</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>696095.9112670785</v>
+        <v>696095.9112670784</v>
       </c>
       <c r="C432" t="n">
         <v>286717.6321274759</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>687777.5815006259</v>
+        <v>687777.5815006261</v>
       </c>
       <c r="C433" t="n">
         <v>285678.8425839511</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>679347.1732934505</v>
+        <v>679347.1732934506</v>
       </c>
       <c r="C434" t="n">
         <v>284570.414457302</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>670806.0839548091</v>
+        <v>670806.083954809</v>
       </c>
       <c r="C435" t="n">
         <v>283389.3560279214</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>662155.9438567827</v>
+        <v>662155.9438567826</v>
       </c>
       <c r="C436" t="n">
         <v>282132.6949443846</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>653398.6226326729</v>
+        <v>653398.622632673</v>
       </c>
       <c r="C437" t="n">
         <v>280797.4930158487</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>644536.2347303813</v>
+        <v>644536.2347303812</v>
       </c>
       <c r="C438" t="n">
         <v>279380.8617835164</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>598739.9824205635</v>
+        <v>598739.9824205636</v>
       </c>
       <c r="C443" t="n">
         <v>270980.753091329</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>579788.5457840008</v>
+        <v>579788.5457840007</v>
       </c>
       <c r="C445" t="n">
         <v>266960.0215054074</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>570192.344079276</v>
+        <v>570192.3440792761</v>
       </c>
       <c r="C446" t="n">
         <v>264799.5619888465</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>560521.6454742185</v>
+        <v>560521.6454742184</v>
       </c>
       <c r="C447" t="n">
         <v>262536.765809349</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>550781.1359528783</v>
+        <v>550781.1359528782</v>
       </c>
       <c r="C448" t="n">
         <v>260170.2083894244</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>540975.7494080887</v>
+        <v>540975.7494080886</v>
       </c>
       <c r="C449" t="n">
         <v>257698.7111016542</v>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>73672.61271019114</v>
+        <v>73672.61271019116</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73759.86088339565</v>
+        <v>73759.86088339567</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73848.36262488691</v>
+        <v>73848.36262488693</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>74029.19861637632</v>
+        <v>74029.19861637634</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>74310.30982221333</v>
+        <v>74310.3098222133</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>74406.7175566643</v>
+        <v>74406.71755666431</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74504.5094861937</v>
+        <v>74504.50948619371</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74704.32510734316</v>
+        <v>74704.32510734313</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74806.38908363417</v>
+        <v>74806.38908363419</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74909.91783195671</v>
+        <v>74909.91783195676</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>75014.93220810102</v>
+        <v>75014.93220810103</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>75121.45336026231</v>
+        <v>75121.45336026233</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>75229.50273302142</v>
+        <v>75229.50273302144</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>75339.10207137615</v>
+        <v>75339.10207137618</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75450.27342482476</v>
+        <v>75450.27342482479</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75563.03915150186</v>
+        <v>75563.03915150184</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75677.42192236731</v>
+        <v>75677.4219223673</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75911.13087013927</v>
+        <v>75911.13087013931</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>76030.50399154828</v>
+        <v>76030.50399154831</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>76151.58805490987</v>
+        <v>76151.58805490988</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>76398.98654588862</v>
+        <v>76398.98654588866</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76525.35059505512</v>
+        <v>76525.35059505506</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76653.52483848722</v>
+        <v>76653.52483848721</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76783.53496014549</v>
+        <v>76783.53496014551</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76915.40700176405</v>
+        <v>76915.40700176403</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>77049.16736766571</v>
+        <v>77049.16736766564</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>77184.84282963823</v>
+        <v>77184.84282963819</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>77462.04799596019</v>
+        <v>77462.04799596021</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77603.63312596193</v>
+        <v>77603.63312596195</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77747.24421352928</v>
+        <v>77747.24421352929</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77892.90994309868</v>
+        <v>77892.90994309873</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>78040.65939714841</v>
+        <v>78040.65939714843</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>78190.52206152059</v>
+        <v>78190.52206152066</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>78342.52783081189</v>
+        <v>78342.52783081192</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>78496.70701383016</v>
+        <v>78496.70701383021</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78653.09033912068</v>
+        <v>78653.0903391207</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78811.70896056089</v>
+        <v>78811.70896056094</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78972.59446302518</v>
+        <v>78972.59446302516</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>79135.77886812076</v>
+        <v>79135.77886812079</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>79301.29463999523</v>
+        <v>79301.29463999519</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>79639.45238872264</v>
+        <v>79639.45238872273</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79812.16155985683</v>
+        <v>79812.16155985688</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79987.33649846169</v>
+        <v>79987.33649846174</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>80165.01197106177</v>
+        <v>80165.01197106182</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>80345.22322311781</v>
+        <v>80345.22322311782</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80713.3964801971</v>
+        <v>80713.39648019716</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80901.43142821311</v>
+        <v>80901.43142821309</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>81481.77780831125</v>
+        <v>81481.77780831119</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81680.76797003335</v>
+        <v>81680.76797003332</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>82087.29542865836</v>
+        <v>82087.29542865838</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>82294.91297250634</v>
+        <v>82294.9129725064</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>82505.48747437671</v>
+        <v>82505.48747437679</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82719.06044413033</v>
+        <v>82719.06044413039</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82935.67395931076</v>
+        <v>82935.67395931082</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>83155.37067257908</v>
+        <v>83155.37067257917</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>83378.19381924014</v>
+        <v>83378.19381924013</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>83604.18722486269</v>
+        <v>83604.18722486273</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83833.39531299412</v>
+        <v>83833.39531299411</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>84065.86311297162</v>
+        <v>84065.86311297174</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>84301.63626782998</v>
+        <v>84301.63626782996</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>84540.76104230784</v>
+        <v>84540.76104230781</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84783.28433095495</v>
+        <v>84783.28433095498</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>85029.25366633944</v>
+        <v>85029.25366633938</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>85278.71722735824</v>
+        <v>85278.71722735814</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85531.72384765142</v>
+        <v>85531.72384765143</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>85788.32302412274</v>
+        <v>85788.3230241227</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>86048.56492556588</v>
+        <v>86048.56492556594</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>86580.18099051736</v>
+        <v>86580.18099051737</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86851.65893023652</v>
+        <v>86851.65893023658</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>87126.98716537732</v>
+        <v>87126.98716537742</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>87406.21935744531</v>
+        <v>87406.2193574453</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87689.40989393357</v>
+        <v>87689.40989393354</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87976.61389774528</v>
+        <v>87976.61389774535</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>88563.28653337488</v>
+        <v>88563.28653337486</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88862.86917453888</v>
+        <v>88862.86917453891</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>89166.69332142275</v>
+        <v>89166.69332142266</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>89474.81791958454</v>
+        <v>89474.81791958444</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89787.30270911982</v>
+        <v>89787.3027091198</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>90104.20823496836</v>
+        <v>90104.20823496839</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>90425.5958573558</v>
+        <v>90425.59585735586</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90751.52776237349</v>
+        <v>90751.52776237346</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>91082.06697269714</v>
+        <v>91082.0669726972</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>91417.27735844921</v>
+        <v>91417.27735844915</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91757.22364820441</v>
+        <v>91757.2236482044</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92101.97144014467</v>
+        <v>92101.97144014465</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>92451.58721336297</v>
+        <v>92451.58721336299</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92806.13833932165</v>
+        <v>92806.13833932164</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>93165.69309346529</v>
+        <v>93165.69309346531</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93530.32066699468</v>
+        <v>93530.32066699481</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93900.09117880161</v>
+        <v>93900.09117880167</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>94275.07568757003</v>
+        <v>94275.07568757005</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>95040.97570348134</v>
+        <v>95040.97570348126</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>95432.03813824986</v>
+        <v>95432.0381382498</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>95828.60845064835</v>
+        <v>95828.60845064827</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>96230.76258587815</v>
+        <v>96230.76258587818</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>96638.57750521549</v>
+        <v>96638.57750521546</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>97052.13119937356</v>
+        <v>97052.13119937359</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>97471.50270206183</v>
+        <v>97471.50270206189</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97896.77210374534</v>
+        <v>97896.77210374533</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>98328.02056560991</v>
+        <v>98328.02056560983</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>99208.7847534997</v>
+        <v>99208.78475349967</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>99658.46828416483</v>
+        <v>99658.46828416492</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>100576.8661740433</v>
+        <v>100576.8661740432</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>101045.7551560012</v>
+        <v>101045.7551560011</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>102003.3585377356</v>
+        <v>102003.3585377357</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>103490.6991919084</v>
+        <v>103490.6991919083</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>106111.754346029</v>
+        <v>106111.7543460291</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>107774.0396136546</v>
+        <v>107774.0396136547</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>109506.9896804167</v>
+        <v>109506.9896804166</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>110100.8471227413</v>
+        <v>110100.8471227412</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>111313.5410554173</v>
+        <v>111313.5410554172</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>113196.750456938</v>
+        <v>113196.7504569381</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>113842.0683318741</v>
+        <v>113842.0683318742</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>117206.0032772004</v>
+        <v>117206.0032772003</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>119338.8103732942</v>
+        <v>119338.8103732941</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>121561.8151691911</v>
+        <v>121561.8151691912</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>122323.5033469819</v>
+        <v>122323.503346982</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>123095.7706871195</v>
+        <v>123095.7706871196</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>123878.7616561929</v>
+        <v>123878.7616561928</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>125477.5024125856</v>
+        <v>125477.5024125855</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>126293.5512973956</v>
+        <v>126293.5512973957</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>131433.1006092469</v>
+        <v>131433.100609247</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>136052.5064050794</v>
+        <v>136052.5064050793</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>137015.1355886208</v>
+        <v>137015.1355886207</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>137991.0971432359</v>
+        <v>137991.0971432358</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>143077.4137855177</v>
+        <v>143077.4137855176</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>145211.9074550982</v>
+        <v>145211.9074550983</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>146301.3724826614</v>
+        <v>146301.3724826613</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>154362.0367321586</v>
+        <v>154362.0367321587</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>159329.0238593038</v>
+        <v>159329.0238593037</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>164577.4213927748</v>
+        <v>164577.4213927749</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>167312.2146608154</v>
+        <v>167312.2146608153</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>170123.5742081686</v>
+        <v>170123.5742081687</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>171558.656315335</v>
+        <v>171558.6563153349</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>173013.7173257698</v>
+        <v>173013.7173257699</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>177501.6892810893</v>
+        <v>177501.6892810892</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>180598.9992935047</v>
+        <v>180598.9992935046</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>182180.1820622552</v>
+        <v>182180.1820622553</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>185409.2069368019</v>
+        <v>185409.2069368018</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>190424.378805322</v>
+        <v>190424.3788053221</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>195653.8222131606</v>
+        <v>195653.8222131607</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>197446.2696257678</v>
+        <v>197446.2696257677</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>199263.990813203</v>
+        <v>199263.9908132029</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>204872.6844285011</v>
+        <v>204872.684428501</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>206795.4256866945</v>
+        <v>206795.4256866944</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>212729.000044403</v>
+        <v>212729.0000444029</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>216826.8521845277</v>
+        <v>216826.8521845278</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>218919.7679007129</v>
+        <v>218919.7679007128</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>223195.9180191695</v>
+        <v>223195.9180191694</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>227595.7243315919</v>
+        <v>227595.7243315918</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>229843.2478299588</v>
+        <v>229843.2478299589</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>232123.2052538918</v>
+        <v>232123.2052538917</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>234436.1253208034</v>
+        <v>234436.1253208035</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>239163.0239933764</v>
+        <v>239163.0239933763</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>244028.4006153759</v>
+        <v>244028.4006153758</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>246514.4630227513</v>
+        <v>246514.4630227515</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>249036.9035691442</v>
+        <v>249036.9035691441</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>251596.3348753516</v>
+        <v>251596.3348753515</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>254193.3828065134</v>
+        <v>254193.3828065133</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>256828.6868072516</v>
+        <v>256828.6868072517</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>259502.9002436295</v>
+        <v>259502.9002436296</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>262216.6907518751</v>
+        <v>262216.690751875</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>264970.7405938028</v>
+        <v>264970.7405938026</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>273481.4957716319</v>
+        <v>273481.495771632</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>276403.710884807</v>
+        <v>276403.7108848073</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>279369.8289202455</v>
+        <v>279369.8289202454</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>282380.6277184442</v>
+        <v>282380.6277184443</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>285436.9024108878</v>
+        <v>285436.9024108879</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>288539.4658240431</v>
+        <v>288539.4658240429</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>301429.5055759803</v>
+        <v>301429.5055759804</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>304776.3532056027</v>
+        <v>304776.3532056028</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>308174.7613299995</v>
+        <v>308174.7613299994</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>315130.0736833269</v>
+        <v>315130.0736833267</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>318688.9383542504</v>
+        <v>318688.9383542506</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>322303.285275294</v>
+        <v>322303.2852752938</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>325974.1497607295</v>
+        <v>325974.1497607292</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>329702.5899468836</v>
+        <v>329702.5899468837</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>333489.6872265406</v>
+        <v>333489.6872265408</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>337336.5466811645</v>
+        <v>337336.5466811644</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>341244.2975100381</v>
+        <v>341244.2975100382</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>353344.5608929005</v>
+        <v>353344.5608929003</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>357507.6663326384</v>
+        <v>357507.6663326383</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>366035.9012778486</v>
+        <v>366035.9012778487</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>370403.6229644694</v>
+        <v>370403.6229644693</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>374842.187524376</v>
+        <v>374842.1875243759</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>379352.9594958184</v>
+        <v>379352.9594958185</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>383937.3314143645</v>
+        <v>383937.3314143648</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>388596.7241305935</v>
+        <v>388596.7241305936</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>393332.5871087942</v>
+        <v>393332.5871087943</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>398146.3987048669</v>
+        <v>398146.3987048668</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>403039.6664215458</v>
+        <v>403039.6664215456</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>408013.9271389832</v>
+        <v>408013.9271389831</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>413070.7473186602</v>
+        <v>413070.74731866</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>418211.7231784989</v>
+        <v>418211.723178499</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>423438.4808369876</v>
+        <v>423438.4808369878</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>428752.6764240381</v>
+        <v>428752.6764240382</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>434155.9961562231</v>
+        <v>434155.9961562233</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>439650.1563739741</v>
+        <v>439650.156373974</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>456695.2948279204</v>
+        <v>456695.2948279203</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>462570.5818280167</v>
+        <v>462570.5818280168</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>468545.7411912925</v>
+        <v>468545.7411912923</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>474622.6683279805</v>
+        <v>474622.6683279803</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>480803.2877485628</v>
+        <v>480803.2877485627</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>487089.5527009718</v>
+        <v>487089.5527009715</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>493483.4447449682</v>
+        <v>493483.4447449681</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>499986.9732606891</v>
+        <v>499986.9732606893</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>506602.1748883419</v>
+        <v>506602.1748883422</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>513331.1128960051</v>
+        <v>513331.112896005</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>541426.3842552097</v>
+        <v>541426.3842552098</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>548755.8312063388</v>
+        <v>548755.8312063389</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>556211.9081015583</v>
+        <v>556211.9081015581</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>563796.8402248584</v>
+        <v>563796.8402248585</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>571512.8714790767</v>
+        <v>571512.8714790763</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>579362.2629718499</v>
+        <v>579362.2629718498</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>595470.2479343849</v>
+        <v>595470.2479343851</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>603733.4354893644</v>
+        <v>603733.4354893646</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>612139.1678972731</v>
+        <v>612139.167897273</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>620689.7674633519</v>
+        <v>620689.7674633517</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>638234.8877246163</v>
+        <v>638234.8877246164</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>647234.0768492816</v>
+        <v>647234.0768492818</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>656387.4653130267</v>
+        <v>656387.4653130269</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>665697.3852041136</v>
+        <v>665697.3852041133</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>684796.1175350413</v>
+        <v>684796.1175350415</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>694589.5557074113</v>
+        <v>694589.5557074111</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>704548.7709285422</v>
+        <v>704548.7709285424</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>714676.039313343</v>
+        <v>714676.0393133429</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>724973.6166142048</v>
+        <v>724973.6166142049</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>735443.7349000885</v>
+        <v>735443.7349000882</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>756910.3835947819</v>
+        <v>756910.3835947817</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>767911.2283169682</v>
+        <v>767911.2283169681</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>779093.2352682415</v>
+        <v>779093.2352682408</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>790458.464552964</v>
+        <v>790458.4645529642</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>802008.9304760653</v>
+        <v>802008.9304760651</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>825673.3762986956</v>
+        <v>825673.3762986958</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>837791.1192966126</v>
+        <v>837791.1192966127</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>850101.61673046</v>
+        <v>850101.6167304604</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>875307.6984089904</v>
+        <v>875307.6984089906</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>888206.5126751087</v>
+        <v>888206.512675109</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>901304.5326205385</v>
+        <v>901304.5326205383</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>928103.7546608796</v>
+        <v>928103.754660879</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>941807.5132901208</v>
+        <v>941807.513290121</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>955715.5817725607</v>
+        <v>955715.5817725606</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>969828.9923698432</v>
+        <v>969828.9923698439</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>998675.432966114</v>
+        <v>998675.4329661143</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1028352.888883519</v>
+        <v>1028352.888883518</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1043504.621876221</v>
+        <v>1043504.62187622</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>1050762.037464072</v>
       </c>
       <c r="C360" t="n">
-        <v>55442.36374271061</v>
+        <v>55442.36374271062</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>1045191.354621471</v>
       </c>
       <c r="C362" t="n">
-        <v>93618.06115128931</v>
+        <v>93618.06115128932</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1039479.554866058</v>
+        <v>1039479.554866057</v>
       </c>
       <c r="C364" t="n">
         <v>132767.7417240925</v>
@@ -9973,7 +9973,7 @@
         <v>1030634.306601172</v>
       </c>
       <c r="C367" t="n">
-        <v>193317.812487495</v>
+        <v>193317.8124874951</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1011864.017408257</v>
+        <v>1011864.017408258</v>
       </c>
       <c r="C373" t="n">
         <v>299071.2855227672</v>
       </c>
       <c r="D373" t="n">
-        <v>21871.06790918904</v>
+        <v>21871.06790918903</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1008585.30489923</v>
+        <v>1008585.304899231</v>
       </c>
       <c r="C374" t="n">
         <v>299069.2964828606</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1005261.081855185</v>
+        <v>1005261.081855184</v>
       </c>
       <c r="C375" t="n">
         <v>299066.9978697175</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>998471.9895566045</v>
+        <v>998471.9895566044</v>
       </c>
       <c r="C377" t="n">
         <v>299061.2870414809</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>995004.9908248377</v>
+        <v>995004.9908248376</v>
       </c>
       <c r="C378" t="n">
         <v>299057.766930907</v>
       </c>
       <c r="D378" t="n">
-        <v>134750.4280998642</v>
+        <v>134750.4280998641</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>991488.2215804915</v>
+        <v>991488.2215804912</v>
       </c>
       <c r="C379" t="n">
         <v>299053.7200038602</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>987920.5426690681</v>
+        <v>987920.5426690683</v>
       </c>
       <c r="C380" t="n">
         <v>299049.0734662284</v>
       </c>
       <c r="D380" t="n">
-        <v>181514.7407579096</v>
+        <v>181514.7407579095</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>980627.7460832117</v>
+        <v>980627.7460832114</v>
       </c>
       <c r="C382" t="n">
         <v>299037.6438757743</v>
       </c>
       <c r="D382" t="n">
-        <v>229176.184526739</v>
+        <v>229176.1845267389</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>976900.195920952</v>
+        <v>976900.1959209525</v>
       </c>
       <c r="C383" t="n">
         <v>299030.6656540546</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>973116.8705698301</v>
+        <v>973116.8705698298</v>
       </c>
       <c r="C384" t="n">
         <v>299022.6952231982</v>
@@ -10438,10 +10438,10 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>969276.4750748053</v>
+        <v>969276.4750748047</v>
       </c>
       <c r="C385" t="n">
-        <v>299013.6034159758</v>
+        <v>299013.6034159759</v>
       </c>
       <c r="D385" t="n">
         <v>229174.6345190064</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>965377.6827684343</v>
+        <v>965377.6827684348</v>
       </c>
       <c r="C386" t="n">
         <v>299003.2460516347</v>
@@ -10490,10 +10490,10 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>961419.1352836953</v>
+        <v>961419.1352836951</v>
       </c>
       <c r="C387" t="n">
-        <v>298991.4624481784</v>
+        <v>298991.4624481785</v>
       </c>
       <c r="D387" t="n">
         <v>229173.0523877177</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>957399.4426708197</v>
+        <v>957399.4426708196</v>
       </c>
       <c r="C388" t="n">
         <v>298978.0738219896</v>
@@ -10525,7 +10525,7 @@
         <v>229172.0357873079</v>
       </c>
       <c r="E388" t="n">
-        <v>148174.5401396465</v>
+        <v>148174.5401396464</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>953317.1836288983</v>
+        <v>953317.1836288979</v>
       </c>
       <c r="C389" t="n">
         <v>298962.8815707936</v>
@@ -10568,13 +10568,13 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>949170.9058634837</v>
+        <v>949170.9058634834</v>
       </c>
       <c r="C390" t="n">
-        <v>298945.6654364538</v>
+        <v>298945.6654364539</v>
       </c>
       <c r="D390" t="n">
-        <v>229169.4153926196</v>
+        <v>229169.4153926195</v>
       </c>
       <c r="E390" t="n">
         <v>199222.4419900503</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>944959.1265819011</v>
+        <v>944959.1265819009</v>
       </c>
       <c r="C391" t="n">
         <v>298926.1815446825</v>
@@ -10620,10 +10620,10 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>940680.3331383846</v>
+        <v>940680.333138385</v>
       </c>
       <c r="C392" t="n">
-        <v>298904.1603194613</v>
+        <v>298904.1603194614</v>
       </c>
       <c r="D392" t="n">
         <v>229165.7778843072</v>
@@ -10675,7 +10675,7 @@
         <v>931915.5089370185</v>
       </c>
       <c r="C394" t="n">
-        <v>298851.2856554551</v>
+        <v>298851.2856554552</v>
       </c>
       <c r="D394" t="n">
         <v>229160.7623150667</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>927426.3117782752</v>
+        <v>927426.3117782748</v>
       </c>
       <c r="C395" t="n">
         <v>298819.7440112258</v>
@@ -10710,7 +10710,7 @@
         <v>251057.6748753486</v>
       </c>
       <c r="F395" t="n">
-        <v>79178.55674494567</v>
+        <v>79178.55674494569</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>922863.770199061</v>
+        <v>922863.7701990613</v>
       </c>
       <c r="C396" t="n">
         <v>298784.2835669072</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>918226.2381006447</v>
+        <v>918226.2381006444</v>
       </c>
       <c r="C397" t="n">
         <v>298744.4705311003</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>913512.0472673937</v>
+        <v>913512.0472673939</v>
       </c>
       <c r="C398" t="n">
         <v>298699.8302648369</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>908719.5094239562</v>
+        <v>908719.509423956</v>
       </c>
       <c r="C399" t="n">
         <v>298649.844344563</v>
       </c>
       <c r="D399" t="n">
-        <v>229138.703750357</v>
+        <v>229138.7037503571</v>
       </c>
       <c r="E399" t="n">
-        <v>251054.7248769141</v>
+        <v>251054.724876914</v>
       </c>
       <c r="F399" t="n">
-        <v>187270.373355218</v>
+        <v>187270.3733552181</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>903846.9185471528</v>
+        <v>903846.9185471523</v>
       </c>
       <c r="C400" t="n">
         <v>298593.9475238948</v>
@@ -10837,10 +10837,10 @@
         <v>229131.9211162903</v>
       </c>
       <c r="E400" t="n">
-        <v>251053.5864619023</v>
+        <v>251053.5864619022</v>
       </c>
       <c r="F400" t="n">
-        <v>214721.5930908233</v>
+        <v>214721.5930908234</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,10 +10854,10 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>898892.5534454008</v>
+        <v>898892.553445401</v>
       </c>
       <c r="C401" t="n">
-        <v>298531.5246045501</v>
+        <v>298531.52460455</v>
       </c>
       <c r="D401" t="n">
         <v>229124.0629545557</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>893854.6806179992</v>
+        <v>893854.6806179994</v>
       </c>
       <c r="C402" t="n">
         <v>298461.9072289846</v>
@@ -10906,13 +10906,13 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>888731.5574060587</v>
+        <v>888731.5574060589</v>
       </c>
       <c r="C403" t="n">
         <v>298384.3706095304</v>
       </c>
       <c r="D403" t="n">
-        <v>229104.4796877486</v>
+        <v>229104.4796877487</v>
       </c>
       <c r="E403" t="n">
         <v>251048.6707481105</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>883521.4354461016</v>
+        <v>883521.4354461017</v>
       </c>
       <c r="C404" t="n">
-        <v>298298.1302112174</v>
+        <v>298298.1302112173</v>
       </c>
       <c r="D404" t="n">
-        <v>229092.3828028008</v>
+        <v>229092.3828028007</v>
       </c>
       <c r="E404" t="n">
         <v>251046.374674542</v>
       </c>
       <c r="F404" t="n">
-        <v>270114.7637477087</v>
+        <v>270114.7637477088</v>
       </c>
       <c r="G404" t="n">
-        <v>56028.21092959445</v>
+        <v>56028.21092959444</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>878222.5644364784</v>
+        <v>878222.5644364781</v>
       </c>
       <c r="C405" t="n">
         <v>298202.3384079568</v>
@@ -10967,13 +10967,13 @@
         <v>229078.4624289937</v>
       </c>
       <c r="E405" t="n">
-        <v>251043.6514487981</v>
+        <v>251043.651448798</v>
       </c>
       <c r="F405" t="n">
         <v>270114.4081075541</v>
       </c>
       <c r="G405" t="n">
-        <v>84272.484671941</v>
+        <v>84272.48467194098</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,13 +10984,13 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>872833.1962256999</v>
+        <v>872833.1962257</v>
       </c>
       <c r="C406" t="n">
-        <v>298096.0811343504</v>
+        <v>298096.0811343505</v>
       </c>
       <c r="D406" t="n">
-        <v>229062.4708782057</v>
+        <v>229062.4708782056</v>
       </c>
       <c r="E406" t="n">
         <v>251040.427773929</v>
@@ -11019,10 +11019,10 @@
         <v>229044.1311854461</v>
       </c>
       <c r="E407" t="n">
-        <v>251036.6189743244</v>
+        <v>251036.6189743243</v>
       </c>
       <c r="F407" t="n">
-        <v>270113.4430078415</v>
+        <v>270113.4430078416</v>
       </c>
       <c r="G407" t="n">
         <v>141206.7440062051</v>
@@ -11036,13 +11036,13 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>861776.0131905155</v>
+        <v>861776.0131905151</v>
       </c>
       <c r="C408" t="n">
         <v>297848.1618002662</v>
       </c>
       <c r="D408" t="n">
-        <v>229023.1343051846</v>
+        <v>229023.1343051845</v>
       </c>
       <c r="E408" t="n">
         <v>251032.1274488752</v>
@@ -11051,7 +11051,7 @@
         <v>270112.797410974</v>
       </c>
       <c r="G408" t="n">
-        <v>169891.1574496162</v>
+        <v>169891.1574496161</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>856104.7542633053</v>
+        <v>856104.7542633051</v>
       </c>
       <c r="C409" t="n">
         <v>297704.3097348574</v>
@@ -11088,13 +11088,13 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>850336.1204648741</v>
+        <v>850336.1204648737</v>
       </c>
       <c r="C410" t="n">
-        <v>297545.6058989195</v>
+        <v>297545.6058989196</v>
       </c>
       <c r="D410" t="n">
-        <v>228971.7543489597</v>
+        <v>228971.7543489596</v>
       </c>
       <c r="E410" t="n">
         <v>251020.6306873101</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>844468.4474549496</v>
+        <v>844468.4474549495</v>
       </c>
       <c r="C411" t="n">
         <v>297370.7555507404</v>
@@ -11126,7 +11126,7 @@
         <v>251013.3492073861</v>
       </c>
       <c r="F411" t="n">
-        <v>270109.9125997515</v>
+        <v>270109.9125997514</v>
       </c>
       <c r="G411" t="n">
         <v>256782.4403487899</v>
@@ -11172,13 +11172,13 @@
         <v>296967.0086443547</v>
       </c>
       <c r="D413" t="n">
-        <v>228864.84008931</v>
+        <v>228864.8400893099</v>
       </c>
       <c r="E413" t="n">
-        <v>250994.8754309401</v>
+        <v>250994.87543094</v>
       </c>
       <c r="F413" t="n">
-        <v>270106.8525633554</v>
+        <v>270106.8525633555</v>
       </c>
       <c r="G413" t="n">
         <v>286017.4670916628</v>
@@ -11192,13 +11192,13 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>826255.0955327993</v>
+        <v>826255.0955327987</v>
       </c>
       <c r="C414" t="n">
         <v>296735.0875753897</v>
       </c>
       <c r="D414" t="n">
-        <v>228819.21683343</v>
+        <v>228819.2168334299</v>
       </c>
       <c r="E414" t="n">
         <v>250983.273010077</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>819975.3968436434</v>
+        <v>819975.3968436433</v>
       </c>
       <c r="C415" t="n">
         <v>296480.9667658008</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>813588.9782811936</v>
+        <v>813588.9782811934</v>
       </c>
       <c r="C416" t="n">
         <v>296202.9039179684</v>
@@ -11253,10 +11253,10 @@
         <v>228709.3133351216</v>
       </c>
       <c r="E416" t="n">
-        <v>250954.0963134252</v>
+        <v>250954.0963134251</v>
       </c>
       <c r="F416" t="n">
-        <v>270099.5470205267</v>
+        <v>270099.5470205268</v>
       </c>
       <c r="G416" t="n">
         <v>286016.5711083111</v>
@@ -11270,16 +11270,16 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>807094.4818108627</v>
+        <v>807094.4818108622</v>
       </c>
       <c r="C417" t="n">
-        <v>295899.0622023715</v>
+        <v>295899.0622023716</v>
       </c>
       <c r="D417" t="n">
         <v>228643.595381331</v>
       </c>
       <c r="E417" t="n">
-        <v>250935.9257633345</v>
+        <v>250935.9257633344</v>
       </c>
       <c r="F417" t="n">
         <v>270096.1008527883</v>
@@ -11299,7 +11299,7 @@
         <v>800490.6268390915</v>
       </c>
       <c r="C418" t="n">
-        <v>295567.5095420209</v>
+        <v>295567.509542021</v>
       </c>
       <c r="D418" t="n">
         <v>228569.6299537851</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>793776.2185219903</v>
+        <v>793776.2185219899</v>
       </c>
       <c r="C419" t="n">
         <v>295206.2184064728</v>
@@ -11334,10 +11334,10 @@
         <v>250890.6355809831</v>
       </c>
       <c r="F419" t="n">
-        <v>270087.1082731539</v>
+        <v>270087.108273154</v>
       </c>
       <c r="G419" t="n">
-        <v>286014.895115301</v>
+        <v>286014.8951153009</v>
       </c>
       <c r="H419" t="n">
         <v>208254.6709881476</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>780011.4427525091</v>
+        <v>780011.442752509</v>
       </c>
       <c r="C421" t="n">
         <v>294385.8360553698</v>
@@ -11386,7 +11386,7 @@
         <v>250830.4993736259</v>
       </c>
       <c r="F421" t="n">
-        <v>270074.4436638308</v>
+        <v>270074.4436638309</v>
       </c>
       <c r="G421" t="n">
         <v>286013.0558641696</v>
@@ -11409,7 +11409,7 @@
         <v>228172.2678637904</v>
       </c>
       <c r="E422" t="n">
-        <v>250793.5723494873</v>
+        <v>250793.5723494874</v>
       </c>
       <c r="F422" t="n">
         <v>270066.328445028</v>
@@ -11418,7 +11418,7 @@
         <v>286011.8235804013</v>
       </c>
       <c r="H422" t="n">
-        <v>299370.8173409899</v>
+        <v>299370.8173409898</v>
       </c>
     </row>
     <row r="423">
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>765792.6408942507</v>
+        <v>765792.6408942505</v>
       </c>
       <c r="C423" t="n">
         <v>293419.8149402396</v>
@@ -11444,7 +11444,7 @@
         <v>286010.325384754</v>
       </c>
       <c r="H423" t="n">
-        <v>329986.9828556538</v>
+        <v>329986.9828556537</v>
       </c>
     </row>
     <row r="424">
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>758511.1543430636</v>
+        <v>758511.1543430637</v>
       </c>
       <c r="C424" t="n">
         <v>292876.1379286271</v>
@@ -11461,7 +11461,7 @@
         <v>227897.0578375996</v>
       </c>
       <c r="E424" t="n">
-        <v>250702.8834211278</v>
+        <v>250702.8834211279</v>
       </c>
       <c r="F424" t="n">
         <v>270045.4951753668</v>
@@ -11470,7 +11470,7 @@
         <v>286008.5080448193</v>
       </c>
       <c r="H424" t="n">
-        <v>360725.3553727782</v>
+        <v>360725.3553727781</v>
       </c>
     </row>
     <row r="425">
@@ -11493,7 +11493,7 @@
         <v>270032.2688947782</v>
       </c>
       <c r="G425" t="n">
-        <v>286006.3085982174</v>
+        <v>286006.3085982173</v>
       </c>
       <c r="H425" t="n">
         <v>391586.3956550187</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>743601.5479480708</v>
+        <v>743601.5479480706</v>
       </c>
       <c r="C426" t="n">
         <v>291654.606887569</v>
@@ -11516,10 +11516,10 @@
         <v>250584.7677370828</v>
       </c>
       <c r="F426" t="n">
-        <v>270016.769743431</v>
+        <v>270016.7697434311</v>
       </c>
       <c r="G426" t="n">
-        <v>286003.6527694967</v>
+        <v>286003.6527694966</v>
       </c>
       <c r="H426" t="n">
         <v>422570.8189114596</v>
@@ -11545,10 +11545,10 @@
         <v>269998.6456483456</v>
       </c>
       <c r="G427" t="n">
-        <v>286000.4531682146</v>
+        <v>286000.4531682145</v>
       </c>
       <c r="H427" t="n">
-        <v>453679.5985968144</v>
+        <v>453679.5985968143</v>
       </c>
     </row>
     <row r="428">
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>728228.2630260313</v>
+        <v>728228.2630260311</v>
       </c>
       <c r="C428" t="n">
         <v>290236.1600124704</v>
@@ -11571,7 +11571,7 @@
         <v>269977.4970010211</v>
       </c>
       <c r="G428" t="n">
-        <v>285996.6072451971</v>
+        <v>285996.607245197</v>
       </c>
       <c r="H428" t="n">
         <v>484913.9693809148</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>720367.8067570415</v>
+        <v>720367.8067570416</v>
       </c>
       <c r="C429" t="n">
         <v>289446.0900583871</v>
@@ -11594,7 +11594,7 @@
         <v>250340.2210046531</v>
       </c>
       <c r="F429" t="n">
-        <v>269952.8714288584</v>
+        <v>269952.8714288585</v>
       </c>
       <c r="G429" t="n">
         <v>285991.9949828598</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>712391.8703405078</v>
+        <v>712391.8703405079</v>
       </c>
       <c r="C430" t="n">
         <v>288598.2763180027</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>704300.9915642794</v>
+        <v>704300.9915642797</v>
       </c>
       <c r="C431" t="n">
         <v>287689.7802179841</v>
@@ -11643,16 +11643,16 @@
         <v>226335.0916685225</v>
       </c>
       <c r="E431" t="n">
-        <v>250119.1715986639</v>
+        <v>250119.1715986638</v>
       </c>
       <c r="F431" t="n">
         <v>269891.0821300661</v>
       </c>
       <c r="G431" t="n">
-        <v>285979.8881072558</v>
+        <v>285979.8881072557</v>
       </c>
       <c r="H431" t="n">
-        <v>579386.9301137978</v>
+        <v>579386.9301137977</v>
       </c>
     </row>
     <row r="432">
@@ -11660,10 +11660,10 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>696095.9112670784</v>
+        <v>696095.9112670782</v>
       </c>
       <c r="C432" t="n">
-        <v>286717.6321274759</v>
+        <v>286717.632127476</v>
       </c>
       <c r="D432" t="n">
         <v>226011.9483363711</v>
@@ -11672,7 +11672,7 @@
         <v>249987.2347634978</v>
       </c>
       <c r="F432" t="n">
-        <v>269852.6973951383</v>
+        <v>269852.6973951384</v>
       </c>
       <c r="G432" t="n">
         <v>285972.041101506</v>
@@ -11695,7 +11695,7 @@
         <v>225657.535436931</v>
       </c>
       <c r="E433" t="n">
-        <v>249838.9697095358</v>
+        <v>249838.9697095359</v>
       </c>
       <c r="F433" t="n">
         <v>269808.3806010333</v>
@@ -11724,7 +11724,7 @@
         <v>249672.6790596694</v>
       </c>
       <c r="F434" t="n">
-        <v>269757.3237918977</v>
+        <v>269757.3237918978</v>
       </c>
       <c r="G434" t="n">
         <v>285951.659958169</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>670806.083954809</v>
+        <v>670806.0839548092</v>
       </c>
       <c r="C435" t="n">
         <v>283389.3560279214</v>
@@ -11753,7 +11753,7 @@
         <v>269698.6270284879</v>
       </c>
       <c r="G435" t="n">
-        <v>285938.5812956993</v>
+        <v>285938.5812956992</v>
       </c>
       <c r="H435" t="n">
         <v>707230.1780710099</v>
@@ -11764,10 +11764,10 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>662155.9438567826</v>
+        <v>662155.9438567827</v>
       </c>
       <c r="C436" t="n">
-        <v>282132.6949443846</v>
+        <v>282132.6949443847</v>
       </c>
       <c r="D436" t="n">
         <v>224382.6555877379</v>
@@ -11779,10 +11779,10 @@
         <v>269631.2907056124</v>
       </c>
       <c r="G436" t="n">
-        <v>285923.1454407788</v>
+        <v>285923.1454407789</v>
       </c>
       <c r="H436" t="n">
-        <v>739545.2829530061</v>
+        <v>739545.282953006</v>
       </c>
     </row>
     <row r="437">
@@ -11808,7 +11808,7 @@
         <v>285904.9691722887</v>
       </c>
       <c r="H437" t="n">
-        <v>772008.8401725702</v>
+        <v>772008.8401725704</v>
       </c>
     </row>
     <row r="438">
@@ -11834,7 +11834,7 @@
         <v>285883.6148795902</v>
       </c>
       <c r="H438" t="n">
-        <v>804624.6293663204</v>
+        <v>804624.6293663203</v>
       </c>
     </row>
     <row r="439">
@@ -11851,13 +11851,13 @@
         <v>222735.8715499072</v>
       </c>
       <c r="E439" t="n">
-        <v>248501.9625471702</v>
+        <v>248501.9625471701</v>
       </c>
       <c r="F439" t="n">
         <v>269365.7859365772</v>
       </c>
       <c r="G439" t="n">
-        <v>285858.5842480724</v>
+        <v>285858.5842480723</v>
       </c>
       <c r="H439" t="n">
         <v>837396.6495724462</v>
@@ -11874,10 +11874,10 @@
         <v>276292.1045712437</v>
       </c>
       <c r="D440" t="n">
-        <v>222091.4119197419</v>
+        <v>222091.4119197418</v>
       </c>
       <c r="E440" t="n">
-        <v>248184.2047002048</v>
+        <v>248184.2047002049</v>
       </c>
       <c r="F440" t="n">
         <v>269251.6217240565</v>
@@ -11886,7 +11886,7 @@
         <v>285829.3114453038</v>
       </c>
       <c r="H440" t="n">
-        <v>870329.106636397</v>
+        <v>870329.1066363968</v>
       </c>
     </row>
     <row r="441">
@@ -11923,7 +11923,7 @@
         <v>608087.123461311</v>
       </c>
       <c r="C442" t="n">
-        <v>272844.944225556</v>
+        <v>272844.9442255561</v>
       </c>
       <c r="D442" t="n">
         <v>220641.7062941987</v>
@@ -11932,13 +11932,13 @@
         <v>247444.429687963</v>
       </c>
       <c r="F442" t="n">
-        <v>268975.2829480383</v>
+        <v>268975.2829480384</v>
       </c>
       <c r="G442" t="n">
         <v>285755.3940217195</v>
       </c>
       <c r="H442" t="n">
-        <v>936693.1002758418</v>
+        <v>936693.100275842</v>
       </c>
     </row>
     <row r="443">
@@ -11946,13 +11946,13 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>598739.9824205636</v>
+        <v>598739.9824205635</v>
       </c>
       <c r="C443" t="n">
-        <v>270980.753091329</v>
+        <v>270980.7530913291</v>
       </c>
       <c r="D443" t="n">
-        <v>219830.4646558002</v>
+        <v>219830.4646558001</v>
       </c>
       <c r="E443" t="n">
         <v>247016.5908440588</v>
@@ -11961,7 +11961,7 @@
         <v>268809.4175484222</v>
       </c>
       <c r="G443" t="n">
-        <v>285709.2118478589</v>
+        <v>285709.2118478587</v>
       </c>
       <c r="H443" t="n">
         <v>970133.9430522267</v>
@@ -11972,10 +11972,10 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>589305.8174221648</v>
+        <v>589305.8174221646</v>
       </c>
       <c r="C444" t="n">
-        <v>269019.7973818708</v>
+        <v>269019.7973818709</v>
       </c>
       <c r="D444" t="n">
         <v>218957.5882762941</v>
@@ -11984,13 +11984,13 @@
         <v>246545.9985056463</v>
       </c>
       <c r="F444" t="n">
-        <v>268622.3602314286</v>
+        <v>268622.3602314287</v>
       </c>
       <c r="G444" t="n">
         <v>285655.6953534831</v>
       </c>
       <c r="H444" t="n">
-        <v>1003753.796291221</v>
+        <v>1003753.796291222</v>
       </c>
     </row>
     <row r="445">
@@ -12013,10 +12013,10 @@
         <v>268411.854105035</v>
       </c>
       <c r="G445" t="n">
-        <v>285593.8217459572</v>
+        <v>285593.8217459571</v>
       </c>
       <c r="H445" t="n">
-        <v>1037557.643791453</v>
+        <v>1037557.643791452</v>
       </c>
     </row>
     <row r="446">
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>570192.3440792761</v>
+        <v>570192.344079276</v>
       </c>
       <c r="C446" t="n">
         <v>264799.5619888465</v>
@@ -12039,7 +12039,7 @@
         <v>268175.4660605988</v>
       </c>
       <c r="G446" t="n">
-        <v>285522.4498176556</v>
+        <v>285522.4498176555</v>
       </c>
       <c r="H446" t="n">
         <v>1071550.5591068</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>560521.6454742184</v>
+        <v>560521.6454742183</v>
       </c>
       <c r="C447" t="n">
         <v>262536.765809349</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>550781.1359528782</v>
+        <v>550781.135952878</v>
       </c>
       <c r="C448" t="n">
         <v>260170.2083894244</v>
@@ -12094,7 +12094,7 @@
         <v>285345.9946110561</v>
       </c>
       <c r="H448" t="n">
-        <v>1140124.170673349</v>
+        <v>1140124.170673348</v>
       </c>
     </row>
     <row r="449">
@@ -12102,19 +12102,19 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>540975.7494080886</v>
+        <v>540975.7494080889</v>
       </c>
       <c r="C449" t="n">
         <v>257698.7111016542</v>
       </c>
       <c r="D449" t="n">
-        <v>213562.8762101415</v>
+        <v>213562.8762101414</v>
       </c>
       <c r="E449" t="n">
         <v>243433.2423327217</v>
       </c>
       <c r="F449" t="n">
-        <v>267283.9332557687</v>
+        <v>267283.9332557688</v>
       </c>
       <c r="G449" t="n">
         <v>285237.9468451652</v>
@@ -12131,7 +12131,7 @@
         <v>531110.6615842076</v>
       </c>
       <c r="C450" t="n">
-        <v>255121.3581257969</v>
+        <v>255121.358125797</v>
       </c>
       <c r="D450" t="n">
         <v>212257.2498348892</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>521191.2828641287</v>
+        <v>521191.2828641286</v>
       </c>
       <c r="C451" t="n">
         <v>252437.5124991911</v>
@@ -12169,7 +12169,7 @@
         <v>266507.2340200208</v>
       </c>
       <c r="G451" t="n">
-        <v>284973.622713746</v>
+        <v>284973.6227137459</v>
       </c>
       <c r="H451" t="n">
         <v>1244531.382523556</v>
@@ -12183,7 +12183,7 @@
         <v>511223.2499002489</v>
       </c>
       <c r="C452" t="n">
-        <v>249646.8312011424</v>
+        <v>249646.8312011425</v>
       </c>
       <c r="D452" t="n">
         <v>209397.152065927</v>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>74029.19861637634</v>
+        <v>74029.19861637631</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>74215.2668311255</v>
+        <v>74215.26683112551</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>74310.3098222133</v>
+        <v>74310.30982221336</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74504.50948619371</v>
+        <v>74504.50948619374</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74704.32510734313</v>
+        <v>74704.32510734315</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74806.38908363419</v>
+        <v>74806.38908363417</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74909.91783195676</v>
+        <v>74909.91783195679</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>75014.93220810103</v>
+        <v>75014.93220810108</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>75121.45336026233</v>
+        <v>75121.45336026237</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>75229.50273302144</v>
+        <v>75229.50273302147</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>75339.10207137618</v>
+        <v>75339.10207137617</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75450.27342482479</v>
+        <v>75450.27342482482</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75563.03915150184</v>
+        <v>75563.03915150189</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75677.4219223673</v>
+        <v>75677.42192236736</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75793.44472544883</v>
+        <v>75793.44472544886</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>76151.58805490988</v>
+        <v>76151.58805490987</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>76274.4073600463</v>
+        <v>76274.40736004627</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>76398.98654588866</v>
+        <v>76398.98654588862</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76653.52483848721</v>
+        <v>76653.52483848724</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76783.53496014551</v>
+        <v>76783.53496014552</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76915.40700176403</v>
+        <v>76915.407001764</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>77049.16736766564</v>
+        <v>77049.16736766569</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>77184.84282963819</v>
+        <v>77184.8428296382</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>77322.46053187196</v>
+        <v>77322.46053187201</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>77462.04799596021</v>
+        <v>77462.04799596022</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77603.63312596195</v>
+        <v>77603.63312596198</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77747.24421352929</v>
+        <v>77747.24421352928</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77892.90994309873</v>
+        <v>77892.90994309871</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>78190.52206152066</v>
+        <v>78190.52206152063</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>78496.70701383021</v>
+        <v>78496.70701383019</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78653.0903391207</v>
+        <v>78653.09033912071</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78811.70896056094</v>
+        <v>78811.70896056092</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78972.59446302516</v>
+        <v>78972.59446302518</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>79135.77886812079</v>
+        <v>79135.77886812082</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>79301.29463999519</v>
+        <v>79301.29463999521</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79812.16155985688</v>
+        <v>79812.1615598568</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79987.33649846174</v>
+        <v>79987.33649846175</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>80165.01197106182</v>
+        <v>80165.0119710618</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>80345.22322311782</v>
+        <v>80345.22322311779</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>80528.00598535954</v>
+        <v>80528.00598535949</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>81092.1480547333</v>
+        <v>81092.14805473333</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>81285.58409648067</v>
+        <v>81285.58409648071</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>81481.77780831119</v>
+        <v>81481.77780831118</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81680.76797003332</v>
+        <v>81680.76797003337</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>82087.29542865838</v>
+        <v>82087.29542865837</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>82294.9129725064</v>
+        <v>82294.91297250635</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>82505.48747437679</v>
+        <v>82505.48747437673</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82719.06044413039</v>
+        <v>82719.06044413036</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82935.67395931082</v>
+        <v>82935.67395931075</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>83155.37067257917</v>
+        <v>83155.37067257908</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>83378.19381924013</v>
+        <v>83378.19381924017</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>83604.18722486273</v>
+        <v>83604.18722486262</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83833.39531299411</v>
+        <v>83833.39531299414</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>84301.63626782996</v>
+        <v>84301.63626782998</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>84540.76104230781</v>
+        <v>84540.76104230786</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84783.28433095498</v>
+        <v>84783.28433095499</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>85029.25366633938</v>
+        <v>85029.25366633946</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>85278.71722735814</v>
+        <v>85278.7172273582</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85531.72384765143</v>
+        <v>85531.72384765153</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>85788.3230241227</v>
+        <v>85788.32302412274</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>86048.56492556594</v>
+        <v>86048.56492556598</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>86312.50040140045</v>
+        <v>86312.5004014005</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>86580.18099051737</v>
+        <v>86580.18099051733</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86851.65893023658</v>
+        <v>86851.65893023649</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>87126.98716537742</v>
+        <v>87126.98716537745</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>87406.2193574453</v>
+        <v>87406.21935744525</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87689.40989393354</v>
+        <v>87689.40989393358</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87976.61389774535</v>
+        <v>87976.61389774528</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>88267.88723673543</v>
+        <v>88267.88723673548</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>88563.28653337486</v>
+        <v>88563.28653337498</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88862.86917453891</v>
+        <v>88862.86917453895</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>89166.69332142266</v>
+        <v>89166.6933214226</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>89474.81791958444</v>
+        <v>89474.81791958456</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>90104.20823496839</v>
+        <v>90104.20823496836</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>90425.59585735586</v>
+        <v>90425.59585735583</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90751.52776237346</v>
+        <v>90751.52776237352</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>91082.0669726972</v>
+        <v>91082.06697269721</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>91417.27735844915</v>
+        <v>91417.2773584492</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91757.2236482044</v>
+        <v>91757.22364820429</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92101.97144014465</v>
+        <v>92101.97144014464</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>92451.58721336299</v>
+        <v>92451.587213363</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92806.13833932164</v>
+        <v>92806.13833932167</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>93165.69309346531</v>
+        <v>93165.69309346529</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93530.32066699481</v>
+        <v>93530.32066699471</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93900.09117880167</v>
+        <v>93900.09117880158</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>94275.07568757005</v>
+        <v>94275.07568757003</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>94655.34620404628</v>
+        <v>94655.34620404626</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>95040.97570348126</v>
+        <v>95040.97570348141</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>95828.60845064827</v>
+        <v>95828.60845064835</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>96638.57750521546</v>
+        <v>96638.57750521541</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>97471.50270206189</v>
+        <v>97471.5027020619</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97896.77210374533</v>
+        <v>97896.7721037454</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>98328.02056560983</v>
+        <v>98328.02056560984</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98765.3303337378</v>
+        <v>98765.33033373785</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>99208.78475349967</v>
+        <v>99208.78475349961</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>99658.46828416492</v>
+        <v>99658.46828416488</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>101045.7551560011</v>
+        <v>101045.7551560012</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>102003.3585377357</v>
+        <v>102003.3585377356</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>105041.4245636786</v>
+        <v>105041.4245636785</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>106658.1742623637</v>
+        <v>106658.1742623638</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>107774.0396136547</v>
+        <v>107774.0396136546</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>110100.8471227412</v>
+        <v>110100.8471227413</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>110702.9931843856</v>
+        <v>110702.9931843857</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>111313.5410554172</v>
+        <v>111313.5410554173</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>119338.8103732941</v>
+        <v>119338.8103732942</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>120810.5636615773</v>
+        <v>120810.5636615774</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>121561.8151691912</v>
+        <v>121561.8151691911</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>122323.503346982</v>
+        <v>122323.5033469819</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>126293.5512973957</v>
+        <v>126293.5512973956</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>127120.92207417</v>
+        <v>127120.9220741701</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>134166.5237078554</v>
+        <v>134166.5237078555</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>136052.5064050793</v>
+        <v>136052.5064050794</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>137015.1355886207</v>
+        <v>137015.1355886208</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>137991.0971432358</v>
+        <v>137991.0971432359</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>146301.3724826613</v>
+        <v>146301.3724826614</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>155578.256145494</v>
+        <v>155578.2561454939</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>156811.3348504399</v>
+        <v>156811.33485044</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>159329.0238593037</v>
+        <v>159329.0238593038</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>163238.0641267566</v>
+        <v>163238.0641267567</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>167312.2146608153</v>
+        <v>167312.2146608154</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>168708.1868074936</v>
+        <v>168708.1868074937</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>171558.6563153349</v>
+        <v>171558.6563153348</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>173013.7173257699</v>
+        <v>173013.7173257697</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>177501.6892810892</v>
+        <v>177501.6892810893</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>180598.9992935046</v>
+        <v>180598.9992935047</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>182180.1820622553</v>
+        <v>182180.1820622551</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>185409.2069368018</v>
+        <v>185409.2069368019</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>187057.7078724894</v>
+        <v>187057.7078724895</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>188729.3169751655</v>
+        <v>188729.3169751656</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>192143.2442558961</v>
+        <v>192143.244255896</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>193886.2707116386</v>
+        <v>193886.2707116387</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>195653.8222131607</v>
+        <v>195653.8222131606</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>197446.2696257677</v>
+        <v>197446.2696257678</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>199263.9908132029</v>
+        <v>199263.990813203</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>201107.3708164067</v>
+        <v>201107.3708164068</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>202976.8020374142</v>
+        <v>202976.8020374143</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>204872.684428501</v>
+        <v>204872.6844285009</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>206795.4256866944</v>
+        <v>206795.4256866945</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>208745.4414537589</v>
+        <v>208745.441453759</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>212729.0000444029</v>
+        <v>212729.000044403</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>214763.4157539865</v>
+        <v>214763.4157539866</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>218919.7679007128</v>
+        <v>218919.7679007129</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>223195.9180191694</v>
+        <v>223195.9180191696</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>225380.1168515736</v>
+        <v>225380.1168515735</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>227595.7243315918</v>
+        <v>227595.7243315919</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>229843.2478299589</v>
+        <v>229843.247829959</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>232123.2052538917</v>
+        <v>232123.2052538918</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>239163.0239933763</v>
+        <v>239163.0239933764</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>246514.4630227515</v>
+        <v>246514.4630227512</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>249036.9035691441</v>
+        <v>249036.9035691443</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>259502.9002436296</v>
+        <v>259502.9002436297</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>262216.690751875</v>
+        <v>262216.6907518751</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>264970.7405938026</v>
+        <v>264970.7405938028</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>270602.4226325781</v>
+        <v>270602.4226325782</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>273481.495771632</v>
+        <v>273481.4957716319</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>276403.7108848073</v>
+        <v>276403.7108848072</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>279369.8289202454</v>
+        <v>279369.8289202455</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>282380.6277184443</v>
+        <v>282380.6277184442</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>285436.9024108879</v>
+        <v>285436.9024108878</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>288539.4658240429</v>
+        <v>288539.4658240431</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>291689.1488884308</v>
+        <v>291689.148888431</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>301429.5055759804</v>
+        <v>301429.5055759805</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>304776.3532056028</v>
+        <v>304776.3532056027</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>308174.7613299994</v>
+        <v>308174.7613299995</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>311625.678334559</v>
+        <v>311625.6783345589</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>315130.0736833267</v>
+        <v>315130.0736833266</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>322303.2852752938</v>
+        <v>322303.2852752941</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>325974.1497607292</v>
+        <v>325974.1497607295</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>329702.5899468837</v>
+        <v>329702.5899468834</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>333489.6872265408</v>
+        <v>333489.6872265406</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>337336.5466811644</v>
+        <v>337336.5466811643</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>345214.093455365</v>
+        <v>345214.0934553651</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>349247.1132223102</v>
+        <v>349247.1132223101</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>353344.5608929003</v>
+        <v>353344.5608929004</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>357507.6663326383</v>
+        <v>357507.6663326382</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>361737.6855886163</v>
+        <v>361737.6855886164</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>366035.9012778487</v>
+        <v>366035.9012778486</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>374842.1875243759</v>
+        <v>374842.1875243761</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>379352.9594958185</v>
+        <v>379352.9594958186</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>383937.3314143648</v>
+        <v>383937.3314143647</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>393332.5871087943</v>
+        <v>393332.5871087942</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>398146.3987048668</v>
+        <v>398146.3987048671</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>408013.9271389831</v>
+        <v>408013.9271389833</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>413070.74731866</v>
+        <v>413070.7473186601</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>418211.723178499</v>
+        <v>418211.7231784987</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>428752.6764240382</v>
+        <v>428752.6764240384</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>434155.9961562233</v>
+        <v>434155.9961562232</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>439650.156373974</v>
+        <v>439650.1563739743</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>445236.9035382263</v>
+        <v>445236.9035382265</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>450918.0141839506</v>
+        <v>450918.0141839504</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>456695.2948279203</v>
+        <v>456695.2948279205</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>462570.5818280168</v>
+        <v>462570.5818280167</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>468545.7411912923</v>
+        <v>468545.7411912926</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>474622.6683279803</v>
+        <v>474622.6683279806</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>487089.5527009715</v>
+        <v>487089.5527009719</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>493483.4447449681</v>
+        <v>493483.4447449683</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>499986.9732606893</v>
+        <v>499986.9732606891</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>506602.1748883422</v>
+        <v>506602.1748883421</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>513331.112896005</v>
+        <v>513331.1128960052</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>520175.876472478</v>
+        <v>520175.8764724781</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>527138.5799421349</v>
+        <v>527138.5799421348</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>534221.3618987396</v>
+        <v>534221.3618987397</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>541426.3842552098</v>
+        <v>541426.3842552097</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>548755.8312063389</v>
+        <v>548755.8312063387</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>556211.9081015581</v>
+        <v>556211.9081015583</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>571512.8714790763</v>
+        <v>571512.8714790764</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>579362.2629718498</v>
+        <v>579362.2629718496</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>595470.2479343851</v>
+        <v>595470.2479343853</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>603733.4354893646</v>
+        <v>603733.4354893647</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>638234.8877246164</v>
+        <v>638234.8877246166</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>665697.3852041133</v>
+        <v>665697.3852041134</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>675166.1631429349</v>
+        <v>675166.1631429347</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>684796.1175350415</v>
+        <v>684796.1175350413</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>694589.5557074111</v>
+        <v>694589.5557074109</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>704548.7709285424</v>
+        <v>704548.7709285426</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>714676.0393133429</v>
+        <v>714676.0393133425</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>724973.6166142049</v>
+        <v>724973.6166142048</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>735443.7349000882</v>
+        <v>735443.7349000883</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>746088.5991258792</v>
+        <v>746088.5991258791</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>756910.3835947817</v>
+        <v>756910.3835947815</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>767911.2283169681</v>
+        <v>767911.2283169682</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>779093.2352682408</v>
+        <v>779093.2352682409</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>790458.4645529642</v>
+        <v>790458.4645529644</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>802008.9304760651</v>
+        <v>802008.9304760653</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>825673.3762986958</v>
+        <v>825673.3762986952</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>837791.1192966127</v>
+        <v>837791.1192966121</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>850101.6167304604</v>
+        <v>850101.6167304601</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>862606.5922106567</v>
+        <v>862606.5922106565</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>875307.6984089906</v>
+        <v>875307.6984089904</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>888206.512675109</v>
+        <v>888206.5126751084</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>914603.171680077</v>
+        <v>914603.1716800769</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>928103.754660879</v>
+        <v>928103.7546608794</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>941807.513290121</v>
+        <v>941807.5132901209</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>955715.5817725606</v>
+        <v>955715.5817725607</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>969828.9923698439</v>
+        <v>969828.9923698432</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>984148.6710137562</v>
+        <v>984148.6710137563</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>998675.4329661143</v>
+        <v>998675.4329661146</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1043504.62187622</v>
+        <v>1043504.621876221</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>1050762.037464072</v>
       </c>
       <c r="C360" t="n">
-        <v>55442.36374271062</v>
+        <v>55442.3637427106</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1045191.354621471</v>
+        <v>1045191.354621472</v>
       </c>
       <c r="C362" t="n">
-        <v>93618.06115128932</v>
+        <v>93618.06115128934</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>1024543.220269148</v>
       </c>
       <c r="C369" t="n">
-        <v>234897.567692178</v>
+        <v>234897.5676921779</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1018288.856811028</v>
+        <v>1018288.856811029</v>
       </c>
       <c r="C371" t="n">
         <v>277441.6617604023</v>
@@ -10103,7 +10103,7 @@
         <v>1015098.212762823</v>
       </c>
       <c r="C372" t="n">
-        <v>299073.0044573632</v>
+        <v>299073.0044573631</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10158,7 +10158,7 @@
         <v>299069.2964828606</v>
       </c>
       <c r="D374" t="n">
-        <v>43979.09392634492</v>
+        <v>43979.09392634491</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>299066.9978697175</v>
       </c>
       <c r="D375" t="n">
-        <v>66322.65982363472</v>
+        <v>66322.65982363471</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>299064.3449390129</v>
       </c>
       <c r="D376" t="n">
-        <v>88900.21417008605</v>
+        <v>88900.21417008604</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>998471.9895566044</v>
+        <v>998471.9895566046</v>
       </c>
       <c r="C377" t="n">
         <v>299061.2870414809</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>995004.9908248376</v>
+        <v>995004.9908248372</v>
       </c>
       <c r="C378" t="n">
         <v>299057.766930907</v>
@@ -10308,10 +10308,10 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>987920.5426690683</v>
+        <v>987920.5426690677</v>
       </c>
       <c r="C380" t="n">
-        <v>299049.0734662284</v>
+        <v>299049.0734662283</v>
       </c>
       <c r="D380" t="n">
         <v>181514.7407579095</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>984300.7843801959</v>
+        <v>984300.7843801961</v>
       </c>
       <c r="C381" t="n">
         <v>299043.7454215143</v>
       </c>
       <c r="D381" t="n">
-        <v>205234.4558491611</v>
+        <v>205234.455849161</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>980627.7460832114</v>
+        <v>980627.7460832112</v>
       </c>
       <c r="C382" t="n">
-        <v>299037.6438757743</v>
+        <v>299037.6438757742</v>
       </c>
       <c r="D382" t="n">
         <v>229176.1845267389</v>
@@ -10386,10 +10386,10 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>976900.1959209525</v>
+        <v>976900.195920952</v>
       </c>
       <c r="C383" t="n">
-        <v>299030.6656540546</v>
+        <v>299030.6656540545</v>
       </c>
       <c r="D383" t="n">
         <v>229175.755297763</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>973116.8705698298</v>
+        <v>973116.8705698295</v>
       </c>
       <c r="C384" t="n">
         <v>299022.6952231982</v>
@@ -10438,10 +10438,10 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>969276.4750748047</v>
+        <v>969276.4750748049</v>
       </c>
       <c r="C385" t="n">
-        <v>299013.6034159759</v>
+        <v>299013.6034159758</v>
       </c>
       <c r="D385" t="n">
         <v>229174.6345190064</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>965377.6827684348</v>
+        <v>965377.6827684343</v>
       </c>
       <c r="C386" t="n">
         <v>299003.2460516347</v>
@@ -10473,7 +10473,7 @@
         <v>229173.9108351997</v>
       </c>
       <c r="E386" t="n">
-        <v>97939.52352627294</v>
+        <v>97939.52352627295</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,10 +10490,10 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>961419.1352836951</v>
+        <v>961419.1352836948</v>
       </c>
       <c r="C387" t="n">
-        <v>298991.4624481785</v>
+        <v>298991.4624481784</v>
       </c>
       <c r="D387" t="n">
         <v>229173.0523877177</v>
@@ -10525,7 +10525,7 @@
         <v>229172.0357873079</v>
       </c>
       <c r="E388" t="n">
-        <v>148174.5401396464</v>
+        <v>148174.5401396465</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,10 +10542,10 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>953317.1836288979</v>
+        <v>953317.1836288983</v>
       </c>
       <c r="C389" t="n">
-        <v>298962.8815707936</v>
+        <v>298962.8815707935</v>
       </c>
       <c r="D389" t="n">
         <v>229170.8339158592</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>949170.9058634834</v>
+        <v>949170.9058634836</v>
       </c>
       <c r="C390" t="n">
-        <v>298945.6654364539</v>
+        <v>298945.6654364538</v>
       </c>
       <c r="D390" t="n">
         <v>229169.4153926195</v>
       </c>
       <c r="E390" t="n">
-        <v>199222.4419900503</v>
+        <v>199222.4419900502</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>229167.7439745347</v>
       </c>
       <c r="E391" t="n">
-        <v>225043.6325377277</v>
+        <v>225043.6325377276</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>940680.333138385</v>
+        <v>940680.3331383849</v>
       </c>
       <c r="C392" t="n">
         <v>298904.1603194614</v>
@@ -10655,7 +10655,7 @@
         <v>229163.4690594222</v>
       </c>
       <c r="E393" t="n">
-        <v>251058.503974962</v>
+        <v>251058.5039749619</v>
       </c>
       <c r="F393" t="n">
         <v>26206.29389542504</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>931915.5089370185</v>
+        <v>931915.5089370181</v>
       </c>
       <c r="C394" t="n">
-        <v>298851.2856554552</v>
+        <v>298851.2856554551</v>
       </c>
       <c r="D394" t="n">
-        <v>229160.7623150667</v>
+        <v>229160.7623150666</v>
       </c>
       <c r="E394" t="n">
-        <v>251058.1286235727</v>
+        <v>251058.1286235728</v>
       </c>
       <c r="F394" t="n">
-        <v>52600.22815305604</v>
+        <v>52600.22815305603</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,13 +10698,13 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>927426.3117782748</v>
+        <v>927426.3117782751</v>
       </c>
       <c r="C395" t="n">
         <v>298819.7440112258</v>
       </c>
       <c r="D395" t="n">
-        <v>229157.5944135763</v>
+        <v>229157.5944135762</v>
       </c>
       <c r="E395" t="n">
         <v>251057.6748753486</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>922863.7701990613</v>
+        <v>922863.7701990609</v>
       </c>
       <c r="C396" t="n">
         <v>298784.2835669072</v>
@@ -10750,13 +10750,13 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>918226.2381006444</v>
+        <v>918226.2381006442</v>
       </c>
       <c r="C397" t="n">
         <v>298744.4705311003</v>
       </c>
       <c r="D397" t="n">
-        <v>229149.5756256322</v>
+        <v>229149.5756256321</v>
       </c>
       <c r="E397" t="n">
         <v>251056.4680876523</v>
@@ -10782,7 +10782,7 @@
         <v>298699.8302648369</v>
       </c>
       <c r="D398" t="n">
-        <v>229144.5481626818</v>
+        <v>229144.5481626817</v>
       </c>
       <c r="E398" t="n">
         <v>251055.6756087005</v>
@@ -10802,16 +10802,16 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>908719.509423956</v>
+        <v>908719.5094239556</v>
       </c>
       <c r="C399" t="n">
-        <v>298649.844344563</v>
+        <v>298649.8443445629</v>
       </c>
       <c r="D399" t="n">
-        <v>229138.7037503571</v>
+        <v>229138.703750357</v>
       </c>
       <c r="E399" t="n">
-        <v>251054.724876914</v>
+        <v>251054.7248769141</v>
       </c>
       <c r="F399" t="n">
         <v>187270.3733552181</v>
@@ -10831,16 +10831,16 @@
         <v>903846.9185471523</v>
       </c>
       <c r="C400" t="n">
-        <v>298593.9475238948</v>
+        <v>298593.9475238947</v>
       </c>
       <c r="D400" t="n">
         <v>229131.9211162903</v>
       </c>
       <c r="E400" t="n">
-        <v>251053.5864619022</v>
+        <v>251053.5864619023</v>
       </c>
       <c r="F400" t="n">
-        <v>214721.5930908234</v>
+        <v>214721.5930908233</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,16 +10854,16 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>898892.553445401</v>
+        <v>898892.5534454009</v>
       </c>
       <c r="C401" t="n">
-        <v>298531.52460455</v>
+        <v>298531.5246045501</v>
       </c>
       <c r="D401" t="n">
-        <v>229124.0629545557</v>
+        <v>229124.0629545556</v>
       </c>
       <c r="E401" t="n">
-        <v>251052.2259099889</v>
+        <v>251052.225909989</v>
       </c>
       <c r="F401" t="n">
         <v>242337.6289901976</v>
@@ -10880,13 +10880,13 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>893854.6806179994</v>
+        <v>893854.6806179995</v>
       </c>
       <c r="C402" t="n">
         <v>298461.9072289846</v>
       </c>
       <c r="D402" t="n">
-        <v>229114.9741232776</v>
+        <v>229114.9741232775</v>
       </c>
       <c r="E402" t="n">
         <v>251050.6029750805</v>
@@ -10906,13 +10906,13 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>888731.5574060589</v>
+        <v>888731.5574060591</v>
       </c>
       <c r="C403" t="n">
-        <v>298384.3706095304</v>
+        <v>298384.3706095305</v>
       </c>
       <c r="D403" t="n">
-        <v>229104.4796877487</v>
+        <v>229104.4796877486</v>
       </c>
       <c r="E403" t="n">
         <v>251048.6707481105</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>883521.4354461017</v>
+        <v>883521.4354461019</v>
       </c>
       <c r="C404" t="n">
         <v>298298.1302112173</v>
@@ -10941,13 +10941,13 @@
         <v>229092.3828028007</v>
       </c>
       <c r="E404" t="n">
-        <v>251046.374674542</v>
+        <v>251046.3746745419</v>
       </c>
       <c r="F404" t="n">
-        <v>270114.7637477088</v>
+        <v>270114.7637477087</v>
       </c>
       <c r="G404" t="n">
-        <v>56028.21092959444</v>
+        <v>56028.21092959445</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>878222.5644364781</v>
+        <v>878222.5644364784</v>
       </c>
       <c r="C405" t="n">
         <v>298202.3384079568</v>
@@ -10967,7 +10967,7 @@
         <v>229078.4624289937</v>
       </c>
       <c r="E405" t="n">
-        <v>251043.651448798</v>
+        <v>251043.6514487981</v>
       </c>
       <c r="F405" t="n">
         <v>270114.4081075541</v>
@@ -10984,16 +10984,16 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>872833.1962257</v>
+        <v>872833.1962256999</v>
       </c>
       <c r="C406" t="n">
-        <v>298096.0811343505</v>
+        <v>298096.0811343504</v>
       </c>
       <c r="D406" t="n">
         <v>229062.4708782056</v>
       </c>
       <c r="E406" t="n">
-        <v>251040.427773929</v>
+        <v>251040.4277739289</v>
       </c>
       <c r="F406" t="n">
         <v>270113.9733543787</v>
@@ -11010,19 +11010,19 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>867351.5892305567</v>
+        <v>867351.589230557</v>
       </c>
       <c r="C407" t="n">
         <v>297978.3745580461</v>
       </c>
       <c r="D407" t="n">
-        <v>229044.1311854461</v>
+        <v>229044.131185446</v>
       </c>
       <c r="E407" t="n">
         <v>251036.6189743243</v>
       </c>
       <c r="F407" t="n">
-        <v>270113.4430078416</v>
+        <v>270113.4430078415</v>
       </c>
       <c r="G407" t="n">
         <v>141206.7440062051</v>
@@ -11036,13 +11036,13 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>861776.0131905151</v>
+        <v>861776.0131905155</v>
       </c>
       <c r="C408" t="n">
         <v>297848.1618002662</v>
       </c>
       <c r="D408" t="n">
-        <v>229023.1343051845</v>
+        <v>229023.1343051846</v>
       </c>
       <c r="E408" t="n">
         <v>251032.1274488752</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>856104.7542633051</v>
+        <v>856104.7542633053</v>
       </c>
       <c r="C409" t="n">
         <v>297704.3097348574</v>
@@ -11088,16 +11088,16 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>850336.1204648737</v>
+        <v>850336.1204648743</v>
       </c>
       <c r="C410" t="n">
-        <v>297545.6058989196</v>
+        <v>297545.6058989195</v>
       </c>
       <c r="D410" t="n">
         <v>228971.7543489596</v>
       </c>
       <c r="E410" t="n">
-        <v>251020.6306873101</v>
+        <v>251020.6306873102</v>
       </c>
       <c r="F410" t="n">
         <v>270111.0625302487</v>
@@ -11126,7 +11126,7 @@
         <v>251013.3492073861</v>
       </c>
       <c r="F411" t="n">
-        <v>270109.9125997514</v>
+        <v>270109.9125997515</v>
       </c>
       <c r="G411" t="n">
         <v>256782.4403487899</v>
@@ -11140,13 +11140,13 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>838500.1046673637</v>
+        <v>838500.1046673639</v>
       </c>
       <c r="C412" t="n">
-        <v>297178.3789133359</v>
+        <v>297178.3789133357</v>
       </c>
       <c r="D412" t="n">
-        <v>228905.0995259569</v>
+        <v>228905.0995259568</v>
       </c>
       <c r="E412" t="n">
         <v>251004.828095958</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>832429.5017819998</v>
+        <v>832429.5017819999</v>
       </c>
       <c r="C413" t="n">
         <v>296967.0086443547</v>
@@ -11175,10 +11175,10 @@
         <v>228864.8400893099</v>
       </c>
       <c r="E413" t="n">
-        <v>250994.87543094</v>
+        <v>250994.8754309401</v>
       </c>
       <c r="F413" t="n">
-        <v>270106.8525633555</v>
+        <v>270106.8525633554</v>
       </c>
       <c r="G413" t="n">
         <v>286017.4670916628</v>
@@ -11192,10 +11192,10 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>826255.0955327987</v>
+        <v>826255.0955327989</v>
       </c>
       <c r="C414" t="n">
-        <v>296735.0875753897</v>
+        <v>296735.0875753895</v>
       </c>
       <c r="D414" t="n">
         <v>228819.2168334299</v>
@@ -11204,10 +11204,10 @@
         <v>250983.273010077</v>
       </c>
       <c r="F414" t="n">
-        <v>270104.8428558203</v>
+        <v>270104.8428558204</v>
       </c>
       <c r="G414" t="n">
-        <v>286017.229282884</v>
+        <v>286017.2292828841</v>
       </c>
       <c r="H414" t="n">
         <v>58865.385379286</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>819975.3968436433</v>
+        <v>819975.396843643</v>
       </c>
       <c r="C415" t="n">
         <v>296480.9667658008</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>813588.9782811934</v>
+        <v>813588.9782811935</v>
       </c>
       <c r="C416" t="n">
         <v>296202.9039179684</v>
@@ -11270,13 +11270,13 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>807094.4818108622</v>
+        <v>807094.4818108625</v>
       </c>
       <c r="C417" t="n">
-        <v>295899.0622023716</v>
+        <v>295899.0622023715</v>
       </c>
       <c r="D417" t="n">
-        <v>228643.595381331</v>
+        <v>228643.5953813309</v>
       </c>
       <c r="E417" t="n">
         <v>250935.9257633344</v>
@@ -11296,13 +11296,13 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>800490.6268390915</v>
+        <v>800490.6268390913</v>
       </c>
       <c r="C418" t="n">
-        <v>295567.509542021</v>
+        <v>295567.5095420209</v>
       </c>
       <c r="D418" t="n">
-        <v>228569.6299537851</v>
+        <v>228569.629953785</v>
       </c>
       <c r="E418" t="n">
         <v>250914.9055608099</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>793776.2185219899</v>
+        <v>793776.2185219905</v>
       </c>
       <c r="C419" t="n">
         <v>295206.2184064728</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>786950.1563171917</v>
+        <v>786950.1563171919</v>
       </c>
       <c r="C420" t="n">
         <v>294813.0661658944</v>
@@ -11360,7 +11360,7 @@
         <v>250862.6673402734</v>
       </c>
       <c r="F420" t="n">
-        <v>270081.310341225</v>
+        <v>270081.3103412251</v>
       </c>
       <c r="G420" t="n">
         <v>286014.06712452</v>
@@ -11400,13 +11400,13 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>772959.1923816907</v>
+        <v>772959.1923816901</v>
       </c>
       <c r="C422" t="n">
         <v>293922.2187987923</v>
       </c>
       <c r="D422" t="n">
-        <v>228172.2678637904</v>
+        <v>228172.2678637903</v>
       </c>
       <c r="E422" t="n">
         <v>250793.5723494874</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>758511.1543430637</v>
+        <v>758511.1543430635</v>
       </c>
       <c r="C424" t="n">
         <v>292876.1379286271</v>
@@ -11461,7 +11461,7 @@
         <v>227897.0578375996</v>
       </c>
       <c r="E424" t="n">
-        <v>250702.8834211279</v>
+        <v>250702.8834211278</v>
       </c>
       <c r="F424" t="n">
         <v>270045.4951753668</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>751114.2384501677</v>
+        <v>751114.238450168</v>
       </c>
       <c r="C425" t="n">
         <v>292288.6179986547</v>
@@ -11493,7 +11493,7 @@
         <v>270032.2688947782</v>
       </c>
       <c r="G425" t="n">
-        <v>286006.3085982173</v>
+        <v>286006.3085982174</v>
       </c>
       <c r="H425" t="n">
         <v>391586.3956550187</v>
@@ -11504,19 +11504,19 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>743601.5479480706</v>
+        <v>743601.5479480707</v>
       </c>
       <c r="C426" t="n">
         <v>291654.606887569</v>
       </c>
       <c r="D426" t="n">
-        <v>227556.7572852643</v>
+        <v>227556.7572852642</v>
       </c>
       <c r="E426" t="n">
         <v>250584.7677370828</v>
       </c>
       <c r="F426" t="n">
-        <v>270016.7697434311</v>
+        <v>270016.769743431</v>
       </c>
       <c r="G426" t="n">
         <v>286003.6527694966</v>
@@ -11530,16 +11530,16 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>735972.8959107952</v>
+        <v>735972.8959107953</v>
       </c>
       <c r="C427" t="n">
-        <v>290971.3834230381</v>
+        <v>290971.3834230382</v>
       </c>
       <c r="D427" t="n">
-        <v>227358.3548890935</v>
+        <v>227358.3548890934</v>
       </c>
       <c r="E427" t="n">
-        <v>250513.2581605803</v>
+        <v>250513.2581605804</v>
       </c>
       <c r="F427" t="n">
         <v>269998.6456483456</v>
@@ -11548,7 +11548,7 @@
         <v>286000.4531682145</v>
       </c>
       <c r="H427" t="n">
-        <v>453679.5985968143</v>
+        <v>453679.5985968144</v>
       </c>
     </row>
     <row r="428">
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>728228.2630260311</v>
+        <v>728228.263026031</v>
       </c>
       <c r="C428" t="n">
         <v>290236.1600124704</v>
@@ -11574,7 +11574,7 @@
         <v>285996.607245197</v>
       </c>
       <c r="H428" t="n">
-        <v>484913.9693809148</v>
+        <v>484913.9693809149</v>
       </c>
     </row>
     <row r="429">
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>720367.8067570416</v>
+        <v>720367.8067570417</v>
       </c>
       <c r="C429" t="n">
         <v>289446.0900583871</v>
@@ -11594,7 +11594,7 @@
         <v>250340.2210046531</v>
       </c>
       <c r="F429" t="n">
-        <v>269952.8714288585</v>
+        <v>269952.8714288584</v>
       </c>
       <c r="G429" t="n">
         <v>285991.9949828598</v>
@@ -11640,10 +11640,10 @@
         <v>287689.7802179841</v>
       </c>
       <c r="D431" t="n">
-        <v>226335.0916685225</v>
+        <v>226335.0916685224</v>
       </c>
       <c r="E431" t="n">
-        <v>250119.1715986638</v>
+        <v>250119.1715986639</v>
       </c>
       <c r="F431" t="n">
         <v>269891.0821300661</v>
@@ -11660,10 +11660,10 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>696095.9112670782</v>
+        <v>696095.9112670784</v>
       </c>
       <c r="C432" t="n">
-        <v>286717.632127476</v>
+        <v>286717.6321274759</v>
       </c>
       <c r="D432" t="n">
         <v>226011.9483363711</v>
@@ -11672,13 +11672,13 @@
         <v>249987.2347634978</v>
       </c>
       <c r="F432" t="n">
-        <v>269852.6973951384</v>
+        <v>269852.6973951383</v>
       </c>
       <c r="G432" t="n">
-        <v>285972.041101506</v>
+        <v>285972.0411015059</v>
       </c>
       <c r="H432" t="n">
-        <v>611141.2884380197</v>
+        <v>611141.2884380196</v>
       </c>
     </row>
     <row r="433">
@@ -11686,16 +11686,16 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>687777.5815006261</v>
+        <v>687777.5815006262</v>
       </c>
       <c r="C433" t="n">
-        <v>285678.8425839511</v>
+        <v>285678.842583951</v>
       </c>
       <c r="D433" t="n">
         <v>225657.535436931</v>
       </c>
       <c r="E433" t="n">
-        <v>249838.9697095359</v>
+        <v>249838.9697095358</v>
       </c>
       <c r="F433" t="n">
         <v>269808.3806010333</v>
@@ -11724,7 +11724,7 @@
         <v>249672.6790596694</v>
       </c>
       <c r="F434" t="n">
-        <v>269757.3237918978</v>
+        <v>269757.3237918977</v>
       </c>
       <c r="G434" t="n">
         <v>285951.659958169</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>670806.0839548092</v>
+        <v>670806.083954809</v>
       </c>
       <c r="C435" t="n">
         <v>283389.3560279214</v>
@@ -11750,13 +11750,13 @@
         <v>249486.5335108709</v>
       </c>
       <c r="F435" t="n">
-        <v>269698.6270284879</v>
+        <v>269698.627028488</v>
       </c>
       <c r="G435" t="n">
-        <v>285938.5812956992</v>
+        <v>285938.5812956993</v>
       </c>
       <c r="H435" t="n">
-        <v>707230.1780710099</v>
+        <v>707230.1780710098</v>
       </c>
     </row>
     <row r="436">
@@ -11779,7 +11779,7 @@
         <v>269631.2907056124</v>
       </c>
       <c r="G436" t="n">
-        <v>285923.1454407789</v>
+        <v>285923.1454407788</v>
       </c>
       <c r="H436" t="n">
         <v>739545.282953006</v>
@@ -11790,13 +11790,13 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>653398.622632673</v>
+        <v>653398.6226326731</v>
       </c>
       <c r="C437" t="n">
         <v>280797.4930158487</v>
       </c>
       <c r="D437" t="n">
-        <v>223878.6547044583</v>
+        <v>223878.6547044582</v>
       </c>
       <c r="E437" t="n">
         <v>249046.6742696842</v>
@@ -11808,7 +11808,7 @@
         <v>285904.9691722887</v>
       </c>
       <c r="H437" t="n">
-        <v>772008.8401725704</v>
+        <v>772008.8401725703</v>
       </c>
     </row>
     <row r="438">
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>644536.2347303812</v>
+        <v>644536.2347303813</v>
       </c>
       <c r="C438" t="n">
         <v>279380.8617835164</v>
@@ -11828,7 +11828,7 @@
         <v>248788.6046274932</v>
       </c>
       <c r="F438" t="n">
-        <v>269466.1549590024</v>
+        <v>269466.1549590023</v>
       </c>
       <c r="G438" t="n">
         <v>285883.6148795902</v>
@@ -11842,22 +11842,22 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>635571.1442605113</v>
+        <v>635571.1442605114</v>
       </c>
       <c r="C439" t="n">
         <v>277879.9788045968</v>
       </c>
       <c r="D439" t="n">
-        <v>222735.8715499072</v>
+        <v>222735.8715499071</v>
       </c>
       <c r="E439" t="n">
         <v>248501.9625471701</v>
       </c>
       <c r="F439" t="n">
-        <v>269365.7859365772</v>
+        <v>269365.7859365773</v>
       </c>
       <c r="G439" t="n">
-        <v>285858.5842480723</v>
+        <v>285858.5842480722</v>
       </c>
       <c r="H439" t="n">
         <v>837396.6495724462</v>
@@ -11900,7 +11900,7 @@
         <v>274614.5999761103</v>
       </c>
       <c r="D441" t="n">
-        <v>221394.3502193772</v>
+        <v>221394.3502193771</v>
       </c>
       <c r="E441" t="n">
         <v>247832.6398590262</v>
@@ -11920,10 +11920,10 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>608087.123461311</v>
+        <v>608087.1234613109</v>
       </c>
       <c r="C442" t="n">
-        <v>272844.9442255561</v>
+        <v>272844.9442255559</v>
       </c>
       <c r="D442" t="n">
         <v>220641.7062941987</v>
@@ -11935,10 +11935,10 @@
         <v>268975.2829480384</v>
       </c>
       <c r="G442" t="n">
-        <v>285755.3940217195</v>
+        <v>285755.3940217194</v>
       </c>
       <c r="H442" t="n">
-        <v>936693.100275842</v>
+        <v>936693.1002758418</v>
       </c>
     </row>
     <row r="443">
@@ -11949,7 +11949,7 @@
         <v>598739.9824205635</v>
       </c>
       <c r="C443" t="n">
-        <v>270980.7530913291</v>
+        <v>270980.753091329</v>
       </c>
       <c r="D443" t="n">
         <v>219830.4646558001</v>
@@ -11961,10 +11961,10 @@
         <v>268809.4175484222</v>
       </c>
       <c r="G443" t="n">
-        <v>285709.2118478587</v>
+        <v>285709.2118478588</v>
       </c>
       <c r="H443" t="n">
-        <v>970133.9430522267</v>
+        <v>970133.9430522268</v>
       </c>
     </row>
     <row r="444">
@@ -11972,13 +11972,13 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>589305.8174221646</v>
+        <v>589305.8174221645</v>
       </c>
       <c r="C444" t="n">
-        <v>269019.7973818709</v>
+        <v>269019.7973818708</v>
       </c>
       <c r="D444" t="n">
-        <v>218957.5882762941</v>
+        <v>218957.588276294</v>
       </c>
       <c r="E444" t="n">
         <v>246545.9985056463</v>
@@ -11990,7 +11990,7 @@
         <v>285655.6953534831</v>
       </c>
       <c r="H444" t="n">
-        <v>1003753.796291222</v>
+        <v>1003753.796291221</v>
       </c>
     </row>
     <row r="445">
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>579788.5457840007</v>
+        <v>579788.5457840009</v>
       </c>
       <c r="C445" t="n">
         <v>266960.0215054074</v>
@@ -12033,10 +12033,10 @@
         <v>217014.7669500854</v>
       </c>
       <c r="E446" t="n">
-        <v>245463.3787238128</v>
+        <v>245463.3787238129</v>
       </c>
       <c r="F446" t="n">
-        <v>268175.4660605988</v>
+        <v>268175.4660605987</v>
       </c>
       <c r="G446" t="n">
         <v>285522.4498176555</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>560521.6454742183</v>
+        <v>560521.6454742184</v>
       </c>
       <c r="C447" t="n">
         <v>262536.765809349</v>
@@ -12062,7 +12062,7 @@
         <v>244844.4481855283</v>
       </c>
       <c r="F447" t="n">
-        <v>267910.581529594</v>
+        <v>267910.5815295941</v>
       </c>
       <c r="G447" t="n">
         <v>285440.3100733088</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>550781.135952878</v>
+        <v>550781.1359528782</v>
       </c>
       <c r="C448" t="n">
         <v>260170.2083894244</v>
@@ -12094,7 +12094,7 @@
         <v>285345.9946110561</v>
       </c>
       <c r="H448" t="n">
-        <v>1140124.170673348</v>
+        <v>1140124.170673349</v>
       </c>
     </row>
     <row r="449">
@@ -12102,10 +12102,10 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>540975.7494080889</v>
+        <v>540975.7494080886</v>
       </c>
       <c r="C449" t="n">
-        <v>257698.7111016542</v>
+        <v>257698.7111016541</v>
       </c>
       <c r="D449" t="n">
         <v>213562.8762101414</v>
@@ -12128,10 +12128,10 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>531110.6615842076</v>
+        <v>531110.6615842074</v>
       </c>
       <c r="C450" t="n">
-        <v>255121.358125797</v>
+        <v>255121.3581257969</v>
       </c>
       <c r="D450" t="n">
         <v>212257.2498348892</v>
@@ -12140,7 +12140,7 @@
         <v>242633.4384935905</v>
       </c>
       <c r="F450" t="n">
-        <v>266916.0011466576</v>
+        <v>266916.0011466577</v>
       </c>
       <c r="G450" t="n">
         <v>285114.4511740814</v>
@@ -12183,10 +12183,10 @@
         <v>511223.2499002489</v>
       </c>
       <c r="C452" t="n">
-        <v>249646.8312011425</v>
+        <v>249646.8312011424</v>
       </c>
       <c r="D452" t="n">
-        <v>209397.152065927</v>
+        <v>209397.1520659269</v>
       </c>
       <c r="E452" t="n">
         <v>240826.0710993244</v>
@@ -12198,7 +12198,7 @@
         <v>284813.3972327278</v>
       </c>
       <c r="H452" t="n">
-        <v>1279766.545527727</v>
+        <v>1279766.545527726</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>73672.61271019116</v>
+        <v>73672.61271019114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73759.86088339567</v>
+        <v>73759.86088339565</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73848.36262488693</v>
+        <v>73848.36262488691</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>74029.19861637631</v>
+        <v>74029.19861637632</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>74215.26683112551</v>
+        <v>74215.2668311255</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>74310.30982221336</v>
+        <v>74310.30982221333</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>74406.71755666431</v>
+        <v>74406.7175566643</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74504.50948619374</v>
+        <v>74504.5094861937</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74704.32510734315</v>
+        <v>74704.32510734316</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74909.91783195679</v>
+        <v>74909.91783195671</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>75014.93220810108</v>
+        <v>75014.93220810102</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>75121.45336026237</v>
+        <v>75121.45336026231</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>75229.50273302147</v>
+        <v>75229.50273302142</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>75339.10207137617</v>
+        <v>75339.10207137615</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75450.27342482482</v>
+        <v>75450.27342482476</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75563.03915150189</v>
+        <v>75563.03915150186</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75677.42192236736</v>
+        <v>75677.42192236731</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75793.44472544886</v>
+        <v>75793.44472544883</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75911.13087013931</v>
+        <v>75911.13087013927</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>76030.50399154831</v>
+        <v>76030.50399154828</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>76274.40736004627</v>
+        <v>76274.4073600463</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76525.35059505506</v>
+        <v>76525.35059505512</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76653.52483848724</v>
+        <v>76653.52483848722</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76783.53496014552</v>
+        <v>76783.53496014549</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76915.407001764</v>
+        <v>76915.40700176405</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>77049.16736766569</v>
+        <v>77049.16736766571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>77184.8428296382</v>
+        <v>77184.84282963823</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>77322.46053187201</v>
+        <v>77322.46053187196</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>77462.04799596022</v>
+        <v>77462.04799596019</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77603.63312596198</v>
+        <v>77603.63312596193</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77892.90994309871</v>
+        <v>77892.90994309868</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>78040.65939714843</v>
+        <v>78040.65939714841</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>78190.52206152063</v>
+        <v>78190.52206152059</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>78342.52783081192</v>
+        <v>78342.52783081189</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>78496.70701383019</v>
+        <v>78496.70701383016</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78653.09033912071</v>
+        <v>78653.09033912068</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78811.70896056092</v>
+        <v>78811.70896056089</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>79135.77886812082</v>
+        <v>79135.77886812076</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>79301.29463999521</v>
+        <v>79301.29463999523</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>79639.45238872273</v>
+        <v>79639.45238872264</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79812.1615598568</v>
+        <v>79812.16155985683</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79987.33649846175</v>
+        <v>79987.33649846169</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>80165.0119710618</v>
+        <v>80165.01197106177</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>80345.22322311779</v>
+        <v>80345.22322311781</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>80528.00598535949</v>
+        <v>80528.00598535954</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80713.39648019716</v>
+        <v>80713.3964801971</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80901.43142821309</v>
+        <v>80901.43142821311</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>81092.14805473333</v>
+        <v>81092.1480547333</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>81285.58409648071</v>
+        <v>81285.58409648067</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>81481.77780831118</v>
+        <v>81481.77780831125</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81680.76797003337</v>
+        <v>81680.76797003335</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>82087.29542865837</v>
+        <v>82087.29542865836</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>82294.91297250635</v>
+        <v>82294.91297250634</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>82505.48747437673</v>
+        <v>82505.48747437671</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82719.06044413036</v>
+        <v>82719.06044413033</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82935.67395931075</v>
+        <v>82935.67395931076</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>83378.19381924017</v>
+        <v>83378.19381924014</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>83604.18722486262</v>
+        <v>83604.18722486269</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83833.39531299414</v>
+        <v>83833.39531299412</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>84065.86311297174</v>
+        <v>84065.86311297162</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>84540.76104230786</v>
+        <v>84540.76104230784</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84783.28433095499</v>
+        <v>84783.28433095495</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>85029.25366633946</v>
+        <v>85029.25366633944</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>85278.7172273582</v>
+        <v>85278.71722735824</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85531.72384765153</v>
+        <v>85531.72384765142</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>86048.56492556598</v>
+        <v>86048.56492556588</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>86312.5004014005</v>
+        <v>86312.50040140045</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>86580.18099051733</v>
+        <v>86580.18099051736</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86851.65893023649</v>
+        <v>86851.65893023652</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>87126.98716537745</v>
+        <v>87126.98716537732</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>87406.21935744525</v>
+        <v>87406.21935744531</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87689.40989393358</v>
+        <v>87689.40989393357</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>88267.88723673548</v>
+        <v>88267.88723673543</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>88563.28653337498</v>
+        <v>88563.28653337488</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88862.86917453895</v>
+        <v>88862.86917453888</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>89166.6933214226</v>
+        <v>89166.69332142275</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>89474.81791958456</v>
+        <v>89474.81791958454</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89787.3027091198</v>
+        <v>89787.30270911982</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>90425.59585735583</v>
+        <v>90425.5958573558</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90751.52776237352</v>
+        <v>90751.52776237349</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>91082.06697269721</v>
+        <v>91082.06697269714</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>91417.2773584492</v>
+        <v>91417.27735844921</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91757.22364820429</v>
+        <v>91757.22364820441</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92101.97144014464</v>
+        <v>92101.97144014467</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>92451.587213363</v>
+        <v>92451.58721336297</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92806.13833932167</v>
+        <v>92806.13833932165</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93530.32066699471</v>
+        <v>93530.32066699468</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93900.09117880158</v>
+        <v>93900.09117880161</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>94655.34620404626</v>
+        <v>94655.34620404628</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>95040.97570348141</v>
+        <v>95040.97570348134</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>95432.0381382498</v>
+        <v>95432.03813824986</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>96230.76258587818</v>
+        <v>96230.76258587815</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>96638.57750521541</v>
+        <v>96638.57750521549</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>97052.13119937359</v>
+        <v>97052.13119937356</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>97471.5027020619</v>
+        <v>97471.50270206183</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97896.7721037454</v>
+        <v>97896.77210374534</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>98328.02056560984</v>
+        <v>98328.02056560991</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98765.33033373785</v>
+        <v>98765.3303337378</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>99208.78475349961</v>
+        <v>99208.7847534997</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>99658.46828416488</v>
+        <v>99658.46828416483</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>100576.8661740432</v>
+        <v>100576.8661740433</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>103490.6991919083</v>
+        <v>103490.6991919084</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>105041.4245636785</v>
+        <v>105041.4245636786</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>106111.7543460291</v>
+        <v>106111.754346029</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>106658.1742623638</v>
+        <v>106658.1742623637</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>109506.9896804166</v>
+        <v>109506.9896804167</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>110702.9931843857</v>
+        <v>110702.9931843856</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>113196.7504569381</v>
+        <v>113196.750456938</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>113842.0683318742</v>
+        <v>113842.0683318741</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>117206.0032772003</v>
+        <v>117206.0032772004</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>120810.5636615774</v>
+        <v>120810.5636615773</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>123095.7706871196</v>
+        <v>123095.7706871195</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>123878.7616561928</v>
+        <v>123878.7616561929</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>125477.5024125855</v>
+        <v>125477.5024125856</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>127120.9220741701</v>
+        <v>127120.92207417</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>131433.100609247</v>
+        <v>131433.1006092469</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>134166.5237078555</v>
+        <v>134166.5237078554</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>143077.4137855176</v>
+        <v>143077.4137855177</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>145211.9074550983</v>
+        <v>145211.9074550982</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>154362.0367321587</v>
+        <v>154362.0367321586</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>155578.2561454939</v>
+        <v>155578.256145494</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>156811.33485044</v>
+        <v>156811.3348504399</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>163238.0641267567</v>
+        <v>163238.0641267566</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>164577.4213927749</v>
+        <v>164577.4213927748</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>168708.1868074937</v>
+        <v>168708.1868074936</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>170123.5742081687</v>
+        <v>170123.5742081686</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>171558.6563153348</v>
+        <v>171558.656315335</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>173013.7173257697</v>
+        <v>173013.7173257698</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>182180.1820622551</v>
+        <v>182180.1820622552</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>187057.7078724895</v>
+        <v>187057.7078724894</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>188729.3169751656</v>
+        <v>188729.3169751655</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>190424.3788053221</v>
+        <v>190424.378805322</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>192143.244255896</v>
+        <v>192143.2442558961</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>193886.2707116387</v>
+        <v>193886.2707116386</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>201107.3708164068</v>
+        <v>201107.3708164067</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>202976.8020374143</v>
+        <v>202976.8020374142</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>204872.6844285009</v>
+        <v>204872.6844285011</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>208745.441453759</v>
+        <v>208745.4414537589</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>214763.4157539866</v>
+        <v>214763.4157539865</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>216826.8521845278</v>
+        <v>216826.8521845277</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>223195.9180191696</v>
+        <v>223195.9180191695</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>225380.1168515735</v>
+        <v>225380.1168515736</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>229843.247829959</v>
+        <v>229843.2478299588</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>234436.1253208035</v>
+        <v>234436.1253208034</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>244028.4006153758</v>
+        <v>244028.4006153759</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>246514.4630227512</v>
+        <v>246514.4630227513</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>249036.9035691443</v>
+        <v>249036.9035691442</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>251596.3348753515</v>
+        <v>251596.3348753516</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>254193.3828065133</v>
+        <v>254193.3828065134</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>256828.6868072517</v>
+        <v>256828.6868072516</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>259502.9002436297</v>
+        <v>259502.9002436295</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>270602.4226325782</v>
+        <v>270602.4226325781</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>276403.7108848072</v>
+        <v>276403.710884807</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>291689.148888431</v>
+        <v>291689.1488884308</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>301429.5055759805</v>
+        <v>301429.5055759803</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>311625.6783345589</v>
+        <v>311625.678334559</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>315130.0736833266</v>
+        <v>315130.0736833269</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>318688.9383542506</v>
+        <v>318688.9383542504</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>322303.2852752941</v>
+        <v>322303.285275294</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>329702.5899468834</v>
+        <v>329702.5899468836</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>337336.5466811643</v>
+        <v>337336.5466811645</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>341244.2975100382</v>
+        <v>341244.2975100381</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>345214.0934553651</v>
+        <v>345214.093455365</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>349247.1132223101</v>
+        <v>349247.1132223102</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>353344.5608929004</v>
+        <v>353344.5608929005</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>357507.6663326382</v>
+        <v>357507.6663326384</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>361737.6855886164</v>
+        <v>361737.6855886163</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>370403.6229644693</v>
+        <v>370403.6229644694</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>374842.1875243761</v>
+        <v>374842.187524376</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>379352.9594958186</v>
+        <v>379352.9594958184</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>383937.3314143647</v>
+        <v>383937.3314143645</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>388596.7241305936</v>
+        <v>388596.7241305935</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>398146.3987048671</v>
+        <v>398146.3987048669</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>403039.6664215456</v>
+        <v>403039.6664215458</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>408013.9271389833</v>
+        <v>408013.9271389832</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>413070.7473186601</v>
+        <v>413070.7473186602</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>418211.7231784987</v>
+        <v>418211.7231784989</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>423438.4808369878</v>
+        <v>423438.4808369876</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>428752.6764240384</v>
+        <v>428752.6764240381</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>434155.9961562232</v>
+        <v>434155.9961562231</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>439650.1563739743</v>
+        <v>439650.1563739741</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>445236.9035382265</v>
+        <v>445236.9035382263</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>450918.0141839504</v>
+        <v>450918.0141839506</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>456695.2948279205</v>
+        <v>456695.2948279204</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>468545.7411912926</v>
+        <v>468545.7411912925</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>474622.6683279806</v>
+        <v>474622.6683279805</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>480803.2877485627</v>
+        <v>480803.2877485628</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>487089.5527009719</v>
+        <v>487089.5527009718</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>493483.4447449683</v>
+        <v>493483.4447449682</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>506602.1748883421</v>
+        <v>506602.1748883419</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>513331.1128960052</v>
+        <v>513331.1128960051</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>520175.8764724781</v>
+        <v>520175.876472478</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>527138.5799421348</v>
+        <v>527138.5799421349</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>534221.3618987397</v>
+        <v>534221.3618987396</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>548755.8312063387</v>
+        <v>548755.8312063388</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>563796.8402248585</v>
+        <v>563796.8402248584</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>571512.8714790764</v>
+        <v>571512.8714790767</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>579362.2629718496</v>
+        <v>579362.2629718499</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>595470.2479343853</v>
+        <v>595470.2479343849</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>603733.4354893647</v>
+        <v>603733.4354893644</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>612139.167897273</v>
+        <v>612139.1678972731</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>620689.7674633517</v>
+        <v>620689.7674633519</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>638234.8877246166</v>
+        <v>638234.8877246163</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>647234.0768492818</v>
+        <v>647234.0768492816</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>656387.4653130269</v>
+        <v>656387.4653130267</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>665697.3852041134</v>
+        <v>665697.3852041136</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>675166.1631429347</v>
+        <v>675166.1631429349</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>694589.5557074109</v>
+        <v>694589.5557074113</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>704548.7709285426</v>
+        <v>704548.7709285422</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>714676.0393133425</v>
+        <v>714676.039313343</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>735443.7349000883</v>
+        <v>735443.7349000885</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>746088.5991258791</v>
+        <v>746088.5991258792</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>756910.3835947815</v>
+        <v>756910.3835947819</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>779093.2352682409</v>
+        <v>779093.2352682415</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>790458.4645529644</v>
+        <v>790458.464552964</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>825673.3762986952</v>
+        <v>825673.3762986956</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>837791.1192966121</v>
+        <v>837791.1192966126</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>850101.6167304601</v>
+        <v>850101.61673046</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>862606.5922106565</v>
+        <v>862606.5922106567</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>888206.5126751084</v>
+        <v>888206.5126751087</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>901304.5326205383</v>
+        <v>901304.5326205385</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>914603.1716800769</v>
+        <v>914603.171680077</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>928103.7546608794</v>
+        <v>928103.7546608796</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>941807.5132901209</v>
+        <v>941807.5132901208</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>984148.6710137563</v>
+        <v>984148.6710137562</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>998675.4329661146</v>
+        <v>998675.432966114</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1028352.888883518</v>
+        <v>1028352.888883519</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>1050762.037464072</v>
       </c>
       <c r="C360" t="n">
-        <v>55442.3637427106</v>
+        <v>55442.36374271061</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1045191.354621472</v>
+        <v>1045191.354621471</v>
       </c>
       <c r="C362" t="n">
-        <v>93618.06115128934</v>
+        <v>93618.06115128931</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1039479.554866057</v>
+        <v>1039479.554866058</v>
       </c>
       <c r="C364" t="n">
         <v>132767.7417240925</v>
@@ -9973,7 +9973,7 @@
         <v>1030634.306601172</v>
       </c>
       <c r="C367" t="n">
-        <v>193317.8124874951</v>
+        <v>193317.812487495</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>1024543.220269148</v>
       </c>
       <c r="C369" t="n">
-        <v>234897.5676921779</v>
+        <v>234897.567692178</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1018288.856811029</v>
+        <v>1018288.856811028</v>
       </c>
       <c r="C371" t="n">
         <v>277441.6617604023</v>
@@ -10103,7 +10103,7 @@
         <v>1015098.212762823</v>
       </c>
       <c r="C372" t="n">
-        <v>299073.0044573631</v>
+        <v>299073.0044573632</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1011864.017408258</v>
+        <v>1011864.017408257</v>
       </c>
       <c r="C373" t="n">
         <v>299071.2855227672</v>
       </c>
       <c r="D373" t="n">
-        <v>21871.06790918903</v>
+        <v>21871.06790918904</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1008585.304899231</v>
+        <v>1008585.30489923</v>
       </c>
       <c r="C374" t="n">
         <v>299069.2964828606</v>
       </c>
       <c r="D374" t="n">
-        <v>43979.09392634491</v>
+        <v>43979.09392634492</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1005261.081855184</v>
+        <v>1005261.081855185</v>
       </c>
       <c r="C375" t="n">
         <v>299066.9978697175</v>
       </c>
       <c r="D375" t="n">
-        <v>66322.65982363471</v>
+        <v>66322.65982363472</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>299064.3449390129</v>
       </c>
       <c r="D376" t="n">
-        <v>88900.21417008604</v>
+        <v>88900.21417008605</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>998471.9895566046</v>
+        <v>998471.9895566045</v>
       </c>
       <c r="C377" t="n">
         <v>299061.2870414809</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>995004.9908248372</v>
+        <v>995004.9908248377</v>
       </c>
       <c r="C378" t="n">
         <v>299057.766930907</v>
       </c>
       <c r="D378" t="n">
-        <v>134750.4280998641</v>
+        <v>134750.4280998642</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>991488.2215804912</v>
+        <v>991488.2215804915</v>
       </c>
       <c r="C379" t="n">
         <v>299053.7200038602</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>987920.5426690677</v>
+        <v>987920.5426690681</v>
       </c>
       <c r="C380" t="n">
-        <v>299049.0734662283</v>
+        <v>299049.0734662284</v>
       </c>
       <c r="D380" t="n">
-        <v>181514.7407579095</v>
+        <v>181514.7407579096</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>984300.7843801961</v>
+        <v>984300.7843801959</v>
       </c>
       <c r="C381" t="n">
         <v>299043.7454215143</v>
       </c>
       <c r="D381" t="n">
-        <v>205234.455849161</v>
+        <v>205234.4558491611</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>980627.7460832112</v>
+        <v>980627.7460832117</v>
       </c>
       <c r="C382" t="n">
-        <v>299037.6438757742</v>
+        <v>299037.6438757743</v>
       </c>
       <c r="D382" t="n">
-        <v>229176.1845267389</v>
+        <v>229176.184526739</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10389,7 +10389,7 @@
         <v>976900.195920952</v>
       </c>
       <c r="C383" t="n">
-        <v>299030.6656540545</v>
+        <v>299030.6656540546</v>
       </c>
       <c r="D383" t="n">
         <v>229175.755297763</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>973116.8705698295</v>
+        <v>973116.8705698301</v>
       </c>
       <c r="C384" t="n">
         <v>299022.6952231982</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>969276.4750748049</v>
+        <v>969276.4750748053</v>
       </c>
       <c r="C385" t="n">
         <v>299013.6034159758</v>
@@ -10473,7 +10473,7 @@
         <v>229173.9108351997</v>
       </c>
       <c r="E386" t="n">
-        <v>97939.52352627295</v>
+        <v>97939.52352627294</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>961419.1352836948</v>
+        <v>961419.1352836953</v>
       </c>
       <c r="C387" t="n">
         <v>298991.4624481784</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>957399.4426708196</v>
+        <v>957399.4426708197</v>
       </c>
       <c r="C388" t="n">
         <v>298978.0738219896</v>
@@ -10545,7 +10545,7 @@
         <v>953317.1836288983</v>
       </c>
       <c r="C389" t="n">
-        <v>298962.8815707935</v>
+        <v>298962.8815707936</v>
       </c>
       <c r="D389" t="n">
         <v>229170.8339158592</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>949170.9058634836</v>
+        <v>949170.9058634837</v>
       </c>
       <c r="C390" t="n">
         <v>298945.6654364538</v>
       </c>
       <c r="D390" t="n">
-        <v>229169.4153926195</v>
+        <v>229169.4153926196</v>
       </c>
       <c r="E390" t="n">
-        <v>199222.4419900502</v>
+        <v>199222.4419900503</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>944959.1265819009</v>
+        <v>944959.1265819011</v>
       </c>
       <c r="C391" t="n">
         <v>298926.1815446825</v>
@@ -10603,7 +10603,7 @@
         <v>229167.7439745347</v>
       </c>
       <c r="E391" t="n">
-        <v>225043.6325377276</v>
+        <v>225043.6325377277</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,10 +10620,10 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>940680.3331383849</v>
+        <v>940680.3331383846</v>
       </c>
       <c r="C392" t="n">
-        <v>298904.1603194614</v>
+        <v>298904.1603194613</v>
       </c>
       <c r="D392" t="n">
         <v>229165.7778843072</v>
@@ -10655,7 +10655,7 @@
         <v>229163.4690594222</v>
       </c>
       <c r="E393" t="n">
-        <v>251058.5039749619</v>
+        <v>251058.503974962</v>
       </c>
       <c r="F393" t="n">
         <v>26206.29389542504</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>931915.5089370181</v>
+        <v>931915.5089370185</v>
       </c>
       <c r="C394" t="n">
         <v>298851.2856554551</v>
       </c>
       <c r="D394" t="n">
-        <v>229160.7623150666</v>
+        <v>229160.7623150667</v>
       </c>
       <c r="E394" t="n">
-        <v>251058.1286235728</v>
+        <v>251058.1286235727</v>
       </c>
       <c r="F394" t="n">
-        <v>52600.22815305603</v>
+        <v>52600.22815305604</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>927426.3117782751</v>
+        <v>927426.3117782752</v>
       </c>
       <c r="C395" t="n">
         <v>298819.7440112258</v>
       </c>
       <c r="D395" t="n">
-        <v>229157.5944135762</v>
+        <v>229157.5944135763</v>
       </c>
       <c r="E395" t="n">
         <v>251057.6748753486</v>
       </c>
       <c r="F395" t="n">
-        <v>79178.55674494569</v>
+        <v>79178.55674494567</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>922863.7701990609</v>
+        <v>922863.770199061</v>
       </c>
       <c r="C396" t="n">
         <v>298784.2835669072</v>
@@ -10750,13 +10750,13 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>918226.2381006442</v>
+        <v>918226.2381006447</v>
       </c>
       <c r="C397" t="n">
         <v>298744.4705311003</v>
       </c>
       <c r="D397" t="n">
-        <v>229149.5756256321</v>
+        <v>229149.5756256322</v>
       </c>
       <c r="E397" t="n">
         <v>251056.4680876523</v>
@@ -10776,13 +10776,13 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>913512.0472673939</v>
+        <v>913512.0472673937</v>
       </c>
       <c r="C398" t="n">
         <v>298699.8302648369</v>
       </c>
       <c r="D398" t="n">
-        <v>229144.5481626817</v>
+        <v>229144.5481626818</v>
       </c>
       <c r="E398" t="n">
         <v>251055.6756087005</v>
@@ -10802,10 +10802,10 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>908719.5094239556</v>
+        <v>908719.5094239562</v>
       </c>
       <c r="C399" t="n">
-        <v>298649.8443445629</v>
+        <v>298649.844344563</v>
       </c>
       <c r="D399" t="n">
         <v>229138.703750357</v>
@@ -10814,7 +10814,7 @@
         <v>251054.7248769141</v>
       </c>
       <c r="F399" t="n">
-        <v>187270.3733552181</v>
+        <v>187270.373355218</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>903846.9185471523</v>
+        <v>903846.9185471528</v>
       </c>
       <c r="C400" t="n">
-        <v>298593.9475238947</v>
+        <v>298593.9475238948</v>
       </c>
       <c r="D400" t="n">
         <v>229131.9211162903</v>
@@ -10854,16 +10854,16 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>898892.5534454009</v>
+        <v>898892.5534454008</v>
       </c>
       <c r="C401" t="n">
         <v>298531.5246045501</v>
       </c>
       <c r="D401" t="n">
-        <v>229124.0629545556</v>
+        <v>229124.0629545557</v>
       </c>
       <c r="E401" t="n">
-        <v>251052.225909989</v>
+        <v>251052.2259099889</v>
       </c>
       <c r="F401" t="n">
         <v>242337.6289901976</v>
@@ -10880,13 +10880,13 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>893854.6806179995</v>
+        <v>893854.6806179992</v>
       </c>
       <c r="C402" t="n">
         <v>298461.9072289846</v>
       </c>
       <c r="D402" t="n">
-        <v>229114.9741232775</v>
+        <v>229114.9741232776</v>
       </c>
       <c r="E402" t="n">
         <v>251050.6029750805</v>
@@ -10906,10 +10906,10 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>888731.5574060591</v>
+        <v>888731.5574060587</v>
       </c>
       <c r="C403" t="n">
-        <v>298384.3706095305</v>
+        <v>298384.3706095304</v>
       </c>
       <c r="D403" t="n">
         <v>229104.4796877486</v>
@@ -10932,16 +10932,16 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>883521.4354461019</v>
+        <v>883521.4354461016</v>
       </c>
       <c r="C404" t="n">
-        <v>298298.1302112173</v>
+        <v>298298.1302112174</v>
       </c>
       <c r="D404" t="n">
-        <v>229092.3828028007</v>
+        <v>229092.3828028008</v>
       </c>
       <c r="E404" t="n">
-        <v>251046.3746745419</v>
+        <v>251046.374674542</v>
       </c>
       <c r="F404" t="n">
         <v>270114.7637477087</v>
@@ -10973,7 +10973,7 @@
         <v>270114.4081075541</v>
       </c>
       <c r="G405" t="n">
-        <v>84272.48467194098</v>
+        <v>84272.484671941</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>298096.0811343504</v>
       </c>
       <c r="D406" t="n">
-        <v>229062.4708782056</v>
+        <v>229062.4708782057</v>
       </c>
       <c r="E406" t="n">
-        <v>251040.4277739289</v>
+        <v>251040.427773929</v>
       </c>
       <c r="F406" t="n">
         <v>270113.9733543787</v>
@@ -11010,16 +11010,16 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>867351.589230557</v>
+        <v>867351.5892305567</v>
       </c>
       <c r="C407" t="n">
         <v>297978.3745580461</v>
       </c>
       <c r="D407" t="n">
-        <v>229044.131185446</v>
+        <v>229044.1311854461</v>
       </c>
       <c r="E407" t="n">
-        <v>251036.6189743243</v>
+        <v>251036.6189743244</v>
       </c>
       <c r="F407" t="n">
         <v>270113.4430078415</v>
@@ -11051,7 +11051,7 @@
         <v>270112.797410974</v>
       </c>
       <c r="G408" t="n">
-        <v>169891.1574496161</v>
+        <v>169891.1574496162</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>850336.1204648743</v>
+        <v>850336.1204648741</v>
       </c>
       <c r="C410" t="n">
         <v>297545.6058989195</v>
       </c>
       <c r="D410" t="n">
-        <v>228971.7543489596</v>
+        <v>228971.7543489597</v>
       </c>
       <c r="E410" t="n">
-        <v>251020.6306873102</v>
+        <v>251020.6306873101</v>
       </c>
       <c r="F410" t="n">
         <v>270111.0625302487</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>844468.4474549495</v>
+        <v>844468.4474549496</v>
       </c>
       <c r="C411" t="n">
         <v>297370.7555507404</v>
@@ -11140,13 +11140,13 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>838500.1046673639</v>
+        <v>838500.1046673637</v>
       </c>
       <c r="C412" t="n">
-        <v>297178.3789133357</v>
+        <v>297178.3789133359</v>
       </c>
       <c r="D412" t="n">
-        <v>228905.0995259568</v>
+        <v>228905.0995259569</v>
       </c>
       <c r="E412" t="n">
         <v>251004.828095958</v>
@@ -11166,13 +11166,13 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>832429.5017819999</v>
+        <v>832429.5017819998</v>
       </c>
       <c r="C413" t="n">
         <v>296967.0086443547</v>
       </c>
       <c r="D413" t="n">
-        <v>228864.8400893099</v>
+        <v>228864.84008931</v>
       </c>
       <c r="E413" t="n">
         <v>250994.8754309401</v>
@@ -11192,22 +11192,22 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>826255.0955327989</v>
+        <v>826255.0955327993</v>
       </c>
       <c r="C414" t="n">
-        <v>296735.0875753895</v>
+        <v>296735.0875753897</v>
       </c>
       <c r="D414" t="n">
-        <v>228819.2168334299</v>
+        <v>228819.21683343</v>
       </c>
       <c r="E414" t="n">
         <v>250983.273010077</v>
       </c>
       <c r="F414" t="n">
-        <v>270104.8428558204</v>
+        <v>270104.8428558203</v>
       </c>
       <c r="G414" t="n">
-        <v>286017.2292828841</v>
+        <v>286017.229282884</v>
       </c>
       <c r="H414" t="n">
         <v>58865.385379286</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>819975.396843643</v>
+        <v>819975.3968436434</v>
       </c>
       <c r="C415" t="n">
         <v>296480.9667658008</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>813588.9782811935</v>
+        <v>813588.9782811936</v>
       </c>
       <c r="C416" t="n">
         <v>296202.9039179684</v>
@@ -11253,10 +11253,10 @@
         <v>228709.3133351216</v>
       </c>
       <c r="E416" t="n">
-        <v>250954.0963134251</v>
+        <v>250954.0963134252</v>
       </c>
       <c r="F416" t="n">
-        <v>270099.5470205268</v>
+        <v>270099.5470205267</v>
       </c>
       <c r="G416" t="n">
         <v>286016.5711083111</v>
@@ -11270,16 +11270,16 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>807094.4818108625</v>
+        <v>807094.4818108627</v>
       </c>
       <c r="C417" t="n">
         <v>295899.0622023715</v>
       </c>
       <c r="D417" t="n">
-        <v>228643.5953813309</v>
+        <v>228643.595381331</v>
       </c>
       <c r="E417" t="n">
-        <v>250935.9257633344</v>
+        <v>250935.9257633345</v>
       </c>
       <c r="F417" t="n">
         <v>270096.1008527883</v>
@@ -11296,13 +11296,13 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>800490.6268390913</v>
+        <v>800490.6268390915</v>
       </c>
       <c r="C418" t="n">
         <v>295567.5095420209</v>
       </c>
       <c r="D418" t="n">
-        <v>228569.629953785</v>
+        <v>228569.6299537851</v>
       </c>
       <c r="E418" t="n">
         <v>250914.9055608099</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>793776.2185219905</v>
+        <v>793776.2185219903</v>
       </c>
       <c r="C419" t="n">
         <v>295206.2184064728</v>
@@ -11334,10 +11334,10 @@
         <v>250890.6355809831</v>
       </c>
       <c r="F419" t="n">
-        <v>270087.108273154</v>
+        <v>270087.1082731539</v>
       </c>
       <c r="G419" t="n">
-        <v>286014.8951153009</v>
+        <v>286014.895115301</v>
       </c>
       <c r="H419" t="n">
         <v>208254.6709881476</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>786950.1563171919</v>
+        <v>786950.1563171917</v>
       </c>
       <c r="C420" t="n">
         <v>294813.0661658944</v>
@@ -11360,7 +11360,7 @@
         <v>250862.6673402734</v>
       </c>
       <c r="F420" t="n">
-        <v>270081.3103412251</v>
+        <v>270081.310341225</v>
       </c>
       <c r="G420" t="n">
         <v>286014.06712452</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>780011.442752509</v>
+        <v>780011.4427525091</v>
       </c>
       <c r="C421" t="n">
         <v>294385.8360553698</v>
@@ -11386,7 +11386,7 @@
         <v>250830.4993736259</v>
       </c>
       <c r="F421" t="n">
-        <v>270074.4436638309</v>
+        <v>270074.4436638308</v>
       </c>
       <c r="G421" t="n">
         <v>286013.0558641696</v>
@@ -11400,16 +11400,16 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>772959.1923816901</v>
+        <v>772959.1923816907</v>
       </c>
       <c r="C422" t="n">
         <v>293922.2187987923</v>
       </c>
       <c r="D422" t="n">
-        <v>228172.2678637903</v>
+        <v>228172.2678637904</v>
       </c>
       <c r="E422" t="n">
-        <v>250793.5723494874</v>
+        <v>250793.5723494873</v>
       </c>
       <c r="F422" t="n">
         <v>270066.328445028</v>
@@ -11418,7 +11418,7 @@
         <v>286011.8235804013</v>
       </c>
       <c r="H422" t="n">
-        <v>299370.8173409898</v>
+        <v>299370.8173409899</v>
       </c>
     </row>
     <row r="423">
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>765792.6408942505</v>
+        <v>765792.6408942507</v>
       </c>
       <c r="C423" t="n">
         <v>293419.8149402396</v>
@@ -11444,7 +11444,7 @@
         <v>286010.325384754</v>
       </c>
       <c r="H423" t="n">
-        <v>329986.9828556537</v>
+        <v>329986.9828556538</v>
       </c>
     </row>
     <row r="424">
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>758511.1543430635</v>
+        <v>758511.1543430636</v>
       </c>
       <c r="C424" t="n">
         <v>292876.1379286271</v>
@@ -11470,7 +11470,7 @@
         <v>286008.5080448193</v>
       </c>
       <c r="H424" t="n">
-        <v>360725.3553727781</v>
+        <v>360725.3553727782</v>
       </c>
     </row>
     <row r="425">
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>751114.238450168</v>
+        <v>751114.2384501677</v>
       </c>
       <c r="C425" t="n">
         <v>292288.6179986547</v>
@@ -11504,13 +11504,13 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>743601.5479480707</v>
+        <v>743601.5479480708</v>
       </c>
       <c r="C426" t="n">
         <v>291654.606887569</v>
       </c>
       <c r="D426" t="n">
-        <v>227556.7572852642</v>
+        <v>227556.7572852643</v>
       </c>
       <c r="E426" t="n">
         <v>250584.7677370828</v>
@@ -11519,7 +11519,7 @@
         <v>270016.769743431</v>
       </c>
       <c r="G426" t="n">
-        <v>286003.6527694966</v>
+        <v>286003.6527694967</v>
       </c>
       <c r="H426" t="n">
         <v>422570.8189114596</v>
@@ -11530,22 +11530,22 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>735972.8959107953</v>
+        <v>735972.8959107952</v>
       </c>
       <c r="C427" t="n">
-        <v>290971.3834230382</v>
+        <v>290971.3834230381</v>
       </c>
       <c r="D427" t="n">
-        <v>227358.3548890934</v>
+        <v>227358.3548890935</v>
       </c>
       <c r="E427" t="n">
-        <v>250513.2581605804</v>
+        <v>250513.2581605803</v>
       </c>
       <c r="F427" t="n">
         <v>269998.6456483456</v>
       </c>
       <c r="G427" t="n">
-        <v>286000.4531682145</v>
+        <v>286000.4531682146</v>
       </c>
       <c r="H427" t="n">
         <v>453679.5985968144</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>728228.263026031</v>
+        <v>728228.2630260313</v>
       </c>
       <c r="C428" t="n">
         <v>290236.1600124704</v>
@@ -11571,10 +11571,10 @@
         <v>269977.4970010211</v>
       </c>
       <c r="G428" t="n">
-        <v>285996.607245197</v>
+        <v>285996.6072451971</v>
       </c>
       <c r="H428" t="n">
-        <v>484913.9693809149</v>
+        <v>484913.9693809148</v>
       </c>
     </row>
     <row r="429">
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>720367.8067570417</v>
+        <v>720367.8067570415</v>
       </c>
       <c r="C429" t="n">
         <v>289446.0900583871</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>712391.8703405079</v>
+        <v>712391.8703405078</v>
       </c>
       <c r="C430" t="n">
         <v>288598.2763180027</v>
@@ -11634,13 +11634,13 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>704300.9915642797</v>
+        <v>704300.9915642794</v>
       </c>
       <c r="C431" t="n">
         <v>287689.7802179841</v>
       </c>
       <c r="D431" t="n">
-        <v>226335.0916685224</v>
+        <v>226335.0916685225</v>
       </c>
       <c r="E431" t="n">
         <v>250119.1715986639</v>
@@ -11649,10 +11649,10 @@
         <v>269891.0821300661</v>
       </c>
       <c r="G431" t="n">
-        <v>285979.8881072557</v>
+        <v>285979.8881072558</v>
       </c>
       <c r="H431" t="n">
-        <v>579386.9301137977</v>
+        <v>579386.9301137978</v>
       </c>
     </row>
     <row r="432">
@@ -11675,10 +11675,10 @@
         <v>269852.6973951383</v>
       </c>
       <c r="G432" t="n">
-        <v>285972.0411015059</v>
+        <v>285972.041101506</v>
       </c>
       <c r="H432" t="n">
-        <v>611141.2884380196</v>
+        <v>611141.2884380197</v>
       </c>
     </row>
     <row r="433">
@@ -11686,10 +11686,10 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>687777.5815006262</v>
+        <v>687777.5815006261</v>
       </c>
       <c r="C433" t="n">
-        <v>285678.842583951</v>
+        <v>285678.8425839511</v>
       </c>
       <c r="D433" t="n">
         <v>225657.535436931</v>
@@ -11750,13 +11750,13 @@
         <v>249486.5335108709</v>
       </c>
       <c r="F435" t="n">
-        <v>269698.627028488</v>
+        <v>269698.6270284879</v>
       </c>
       <c r="G435" t="n">
         <v>285938.5812956993</v>
       </c>
       <c r="H435" t="n">
-        <v>707230.1780710098</v>
+        <v>707230.1780710099</v>
       </c>
     </row>
     <row r="436">
@@ -11764,10 +11764,10 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>662155.9438567827</v>
+        <v>662155.9438567826</v>
       </c>
       <c r="C436" t="n">
-        <v>282132.6949443847</v>
+        <v>282132.6949443846</v>
       </c>
       <c r="D436" t="n">
         <v>224382.6555877379</v>
@@ -11782,7 +11782,7 @@
         <v>285923.1454407788</v>
       </c>
       <c r="H436" t="n">
-        <v>739545.282953006</v>
+        <v>739545.2829530061</v>
       </c>
     </row>
     <row r="437">
@@ -11790,13 +11790,13 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>653398.6226326731</v>
+        <v>653398.622632673</v>
       </c>
       <c r="C437" t="n">
         <v>280797.4930158487</v>
       </c>
       <c r="D437" t="n">
-        <v>223878.6547044582</v>
+        <v>223878.6547044583</v>
       </c>
       <c r="E437" t="n">
         <v>249046.6742696842</v>
@@ -11808,7 +11808,7 @@
         <v>285904.9691722887</v>
       </c>
       <c r="H437" t="n">
-        <v>772008.8401725703</v>
+        <v>772008.8401725702</v>
       </c>
     </row>
     <row r="438">
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>644536.2347303813</v>
+        <v>644536.2347303812</v>
       </c>
       <c r="C438" t="n">
         <v>279380.8617835164</v>
@@ -11828,13 +11828,13 @@
         <v>248788.6046274932</v>
       </c>
       <c r="F438" t="n">
-        <v>269466.1549590023</v>
+        <v>269466.1549590024</v>
       </c>
       <c r="G438" t="n">
         <v>285883.6148795902</v>
       </c>
       <c r="H438" t="n">
-        <v>804624.6293663203</v>
+        <v>804624.6293663204</v>
       </c>
     </row>
     <row r="439">
@@ -11842,22 +11842,22 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>635571.1442605114</v>
+        <v>635571.1442605113</v>
       </c>
       <c r="C439" t="n">
         <v>277879.9788045968</v>
       </c>
       <c r="D439" t="n">
-        <v>222735.8715499071</v>
+        <v>222735.8715499072</v>
       </c>
       <c r="E439" t="n">
-        <v>248501.9625471701</v>
+        <v>248501.9625471702</v>
       </c>
       <c r="F439" t="n">
-        <v>269365.7859365773</v>
+        <v>269365.7859365772</v>
       </c>
       <c r="G439" t="n">
-        <v>285858.5842480722</v>
+        <v>285858.5842480724</v>
       </c>
       <c r="H439" t="n">
         <v>837396.6495724462</v>
@@ -11874,10 +11874,10 @@
         <v>276292.1045712437</v>
       </c>
       <c r="D440" t="n">
-        <v>222091.4119197418</v>
+        <v>222091.4119197419</v>
       </c>
       <c r="E440" t="n">
-        <v>248184.2047002049</v>
+        <v>248184.2047002048</v>
       </c>
       <c r="F440" t="n">
         <v>269251.6217240565</v>
@@ -11886,7 +11886,7 @@
         <v>285829.3114453038</v>
       </c>
       <c r="H440" t="n">
-        <v>870329.1066363968</v>
+        <v>870329.106636397</v>
       </c>
     </row>
     <row r="441">
@@ -11900,7 +11900,7 @@
         <v>274614.5999761103</v>
       </c>
       <c r="D441" t="n">
-        <v>221394.3502193771</v>
+        <v>221394.3502193772</v>
       </c>
       <c r="E441" t="n">
         <v>247832.6398590262</v>
@@ -11920,10 +11920,10 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>608087.1234613109</v>
+        <v>608087.123461311</v>
       </c>
       <c r="C442" t="n">
-        <v>272844.9442255559</v>
+        <v>272844.944225556</v>
       </c>
       <c r="D442" t="n">
         <v>220641.7062941987</v>
@@ -11932,10 +11932,10 @@
         <v>247444.429687963</v>
       </c>
       <c r="F442" t="n">
-        <v>268975.2829480384</v>
+        <v>268975.2829480383</v>
       </c>
       <c r="G442" t="n">
-        <v>285755.3940217194</v>
+        <v>285755.3940217195</v>
       </c>
       <c r="H442" t="n">
         <v>936693.1002758418</v>
@@ -11946,13 +11946,13 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>598739.9824205635</v>
+        <v>598739.9824205636</v>
       </c>
       <c r="C443" t="n">
         <v>270980.753091329</v>
       </c>
       <c r="D443" t="n">
-        <v>219830.4646558001</v>
+        <v>219830.4646558002</v>
       </c>
       <c r="E443" t="n">
         <v>247016.5908440588</v>
@@ -11961,10 +11961,10 @@
         <v>268809.4175484222</v>
       </c>
       <c r="G443" t="n">
-        <v>285709.2118478588</v>
+        <v>285709.2118478589</v>
       </c>
       <c r="H443" t="n">
-        <v>970133.9430522268</v>
+        <v>970133.9430522267</v>
       </c>
     </row>
     <row r="444">
@@ -11972,19 +11972,19 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>589305.8174221645</v>
+        <v>589305.8174221648</v>
       </c>
       <c r="C444" t="n">
         <v>269019.7973818708</v>
       </c>
       <c r="D444" t="n">
-        <v>218957.588276294</v>
+        <v>218957.5882762941</v>
       </c>
       <c r="E444" t="n">
         <v>246545.9985056463</v>
       </c>
       <c r="F444" t="n">
-        <v>268622.3602314287</v>
+        <v>268622.3602314286</v>
       </c>
       <c r="G444" t="n">
         <v>285655.6953534831</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>579788.5457840009</v>
+        <v>579788.5457840007</v>
       </c>
       <c r="C445" t="n">
         <v>266960.0215054074</v>
@@ -12013,10 +12013,10 @@
         <v>268411.854105035</v>
       </c>
       <c r="G445" t="n">
-        <v>285593.8217459571</v>
+        <v>285593.8217459572</v>
       </c>
       <c r="H445" t="n">
-        <v>1037557.643791452</v>
+        <v>1037557.643791453</v>
       </c>
     </row>
     <row r="446">
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>570192.344079276</v>
+        <v>570192.3440792761</v>
       </c>
       <c r="C446" t="n">
         <v>264799.5619888465</v>
@@ -12033,13 +12033,13 @@
         <v>217014.7669500854</v>
       </c>
       <c r="E446" t="n">
-        <v>245463.3787238129</v>
+        <v>245463.3787238128</v>
       </c>
       <c r="F446" t="n">
-        <v>268175.4660605987</v>
+        <v>268175.4660605988</v>
       </c>
       <c r="G446" t="n">
-        <v>285522.4498176555</v>
+        <v>285522.4498176556</v>
       </c>
       <c r="H446" t="n">
         <v>1071550.5591068</v>
@@ -12062,7 +12062,7 @@
         <v>244844.4481855283</v>
       </c>
       <c r="F447" t="n">
-        <v>267910.5815295941</v>
+        <v>267910.581529594</v>
       </c>
       <c r="G447" t="n">
         <v>285440.3100733088</v>
@@ -12105,16 +12105,16 @@
         <v>540975.7494080886</v>
       </c>
       <c r="C449" t="n">
-        <v>257698.7111016541</v>
+        <v>257698.7111016542</v>
       </c>
       <c r="D449" t="n">
-        <v>213562.8762101414</v>
+        <v>213562.8762101415</v>
       </c>
       <c r="E449" t="n">
         <v>243433.2423327217</v>
       </c>
       <c r="F449" t="n">
-        <v>267283.9332557688</v>
+        <v>267283.9332557687</v>
       </c>
       <c r="G449" t="n">
         <v>285237.9468451652</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>531110.6615842074</v>
+        <v>531110.6615842076</v>
       </c>
       <c r="C450" t="n">
         <v>255121.3581257969</v>
@@ -12140,7 +12140,7 @@
         <v>242633.4384935905</v>
       </c>
       <c r="F450" t="n">
-        <v>266916.0011466577</v>
+        <v>266916.0011466576</v>
       </c>
       <c r="G450" t="n">
         <v>285114.4511740814</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>521191.2828641286</v>
+        <v>521191.2828641287</v>
       </c>
       <c r="C451" t="n">
         <v>252437.5124991911</v>
@@ -12169,7 +12169,7 @@
         <v>266507.2340200208</v>
       </c>
       <c r="G451" t="n">
-        <v>284973.6227137459</v>
+        <v>284973.622713746</v>
       </c>
       <c r="H451" t="n">
         <v>1244531.382523556</v>
@@ -12186,7 +12186,7 @@
         <v>249646.8312011424</v>
       </c>
       <c r="D452" t="n">
-        <v>209397.1520659269</v>
+        <v>209397.152065927</v>
       </c>
       <c r="E452" t="n">
         <v>240826.0710993244</v>
@@ -12198,7 +12198,7 @@
         <v>284813.3972327278</v>
       </c>
       <c r="H452" t="n">
-        <v>1279766.545527726</v>
+        <v>1279766.545527727</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>73672.61271019114</v>
+        <v>73672.61271019116</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73759.86088339565</v>
+        <v>73759.86088339567</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73848.36262488691</v>
+        <v>73848.36262488693</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>74029.19861637632</v>
+        <v>74029.19861637631</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>74215.2668311255</v>
+        <v>74215.26683112551</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>74310.30982221333</v>
+        <v>74310.30982221336</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>74406.7175566643</v>
+        <v>74406.71755666431</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74504.5094861937</v>
+        <v>74504.50948619374</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74704.32510734316</v>
+        <v>74704.32510734315</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74909.91783195671</v>
+        <v>74909.91783195679</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>75014.93220810102</v>
+        <v>75014.93220810108</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>75121.45336026231</v>
+        <v>75121.45336026237</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>75229.50273302142</v>
+        <v>75229.50273302147</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>75339.10207137615</v>
+        <v>75339.10207137617</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75450.27342482476</v>
+        <v>75450.27342482482</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75563.03915150186</v>
+        <v>75563.03915150189</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75677.42192236731</v>
+        <v>75677.42192236736</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75793.44472544883</v>
+        <v>75793.44472544886</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75911.13087013927</v>
+        <v>75911.13087013931</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>76030.50399154828</v>
+        <v>76030.50399154831</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>76274.4073600463</v>
+        <v>76274.40736004627</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76525.35059505512</v>
+        <v>76525.35059505506</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76653.52483848722</v>
+        <v>76653.52483848724</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76783.53496014549</v>
+        <v>76783.53496014552</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76915.40700176405</v>
+        <v>76915.407001764</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>77049.16736766571</v>
+        <v>77049.16736766569</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>77184.84282963823</v>
+        <v>77184.8428296382</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>77322.46053187196</v>
+        <v>77322.46053187201</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>77462.04799596019</v>
+        <v>77462.04799596022</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77603.63312596193</v>
+        <v>77603.63312596198</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77892.90994309868</v>
+        <v>77892.90994309871</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>78040.65939714841</v>
+        <v>78040.65939714843</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>78190.52206152059</v>
+        <v>78190.52206152063</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>78342.52783081189</v>
+        <v>78342.52783081192</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>78496.70701383016</v>
+        <v>78496.70701383019</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78653.09033912068</v>
+        <v>78653.09033912071</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78811.70896056089</v>
+        <v>78811.70896056092</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>79135.77886812076</v>
+        <v>79135.77886812082</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>79301.29463999523</v>
+        <v>79301.29463999521</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>79639.45238872264</v>
+        <v>79639.45238872273</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79812.16155985683</v>
+        <v>79812.1615598568</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79987.33649846169</v>
+        <v>79987.33649846175</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>80165.01197106177</v>
+        <v>80165.0119710618</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>80345.22322311781</v>
+        <v>80345.22322311779</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>80528.00598535954</v>
+        <v>80528.00598535949</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80713.3964801971</v>
+        <v>80713.39648019716</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80901.43142821311</v>
+        <v>80901.43142821309</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>81092.1480547333</v>
+        <v>81092.14805473333</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>81285.58409648067</v>
+        <v>81285.58409648071</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>81481.77780831125</v>
+        <v>81481.77780831118</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81680.76797003335</v>
+        <v>81680.76797003337</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>82087.29542865836</v>
+        <v>82087.29542865837</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>82294.91297250634</v>
+        <v>82294.91297250635</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>82505.48747437671</v>
+        <v>82505.48747437673</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82719.06044413033</v>
+        <v>82719.06044413036</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82935.67395931076</v>
+        <v>82935.67395931075</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>83378.19381924014</v>
+        <v>83378.19381924017</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>83604.18722486269</v>
+        <v>83604.18722486262</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83833.39531299412</v>
+        <v>83833.39531299414</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>84065.86311297162</v>
+        <v>84065.86311297174</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>84540.76104230784</v>
+        <v>84540.76104230786</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84783.28433095495</v>
+        <v>84783.28433095499</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>85029.25366633944</v>
+        <v>85029.25366633946</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>85278.71722735824</v>
+        <v>85278.7172273582</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85531.72384765142</v>
+        <v>85531.72384765153</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>86048.56492556588</v>
+        <v>86048.56492556598</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>86312.50040140045</v>
+        <v>86312.5004014005</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>86580.18099051736</v>
+        <v>86580.18099051733</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86851.65893023652</v>
+        <v>86851.65893023649</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>87126.98716537732</v>
+        <v>87126.98716537745</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>87406.21935744531</v>
+        <v>87406.21935744525</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87689.40989393357</v>
+        <v>87689.40989393358</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>88267.88723673543</v>
+        <v>88267.88723673548</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>88563.28653337488</v>
+        <v>88563.28653337498</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88862.86917453888</v>
+        <v>88862.86917453895</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>89166.69332142275</v>
+        <v>89166.6933214226</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>89474.81791958454</v>
+        <v>89474.81791958456</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89787.30270911982</v>
+        <v>89787.3027091198</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>90425.5958573558</v>
+        <v>90425.59585735583</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90751.52776237349</v>
+        <v>90751.52776237352</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>91082.06697269714</v>
+        <v>91082.06697269721</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>91417.27735844921</v>
+        <v>91417.2773584492</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91757.22364820441</v>
+        <v>91757.22364820429</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92101.97144014467</v>
+        <v>92101.97144014464</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>92451.58721336297</v>
+        <v>92451.587213363</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92806.13833932165</v>
+        <v>92806.13833932167</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93530.32066699468</v>
+        <v>93530.32066699471</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93900.09117880161</v>
+        <v>93900.09117880158</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>94655.34620404628</v>
+        <v>94655.34620404626</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>95040.97570348134</v>
+        <v>95040.97570348141</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>95432.03813824986</v>
+        <v>95432.0381382498</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>96230.76258587815</v>
+        <v>96230.76258587818</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>96638.57750521549</v>
+        <v>96638.57750521541</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>97052.13119937356</v>
+        <v>97052.13119937359</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>97471.50270206183</v>
+        <v>97471.5027020619</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97896.77210374534</v>
+        <v>97896.7721037454</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>98328.02056560991</v>
+        <v>98328.02056560984</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98765.3303337378</v>
+        <v>98765.33033373785</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>99208.7847534997</v>
+        <v>99208.78475349961</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>99658.46828416483</v>
+        <v>99658.46828416488</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>100576.8661740433</v>
+        <v>100576.8661740432</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>103490.6991919084</v>
+        <v>103490.6991919083</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>105041.4245636786</v>
+        <v>105041.4245636785</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>106111.754346029</v>
+        <v>106111.7543460291</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>106658.1742623637</v>
+        <v>106658.1742623638</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>109506.9896804167</v>
+        <v>109506.9896804166</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>110702.9931843856</v>
+        <v>110702.9931843857</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>113196.750456938</v>
+        <v>113196.7504569381</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>113842.0683318741</v>
+        <v>113842.0683318742</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>117206.0032772004</v>
+        <v>117206.0032772003</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>120810.5636615773</v>
+        <v>120810.5636615774</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>123095.7706871195</v>
+        <v>123095.7706871196</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>123878.7616561929</v>
+        <v>123878.7616561928</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>125477.5024125856</v>
+        <v>125477.5024125855</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>127120.92207417</v>
+        <v>127120.9220741701</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>131433.1006092469</v>
+        <v>131433.100609247</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>134166.5237078554</v>
+        <v>134166.5237078555</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>143077.4137855177</v>
+        <v>143077.4137855176</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>145211.9074550982</v>
+        <v>145211.9074550983</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>154362.0367321586</v>
+        <v>154362.0367321587</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>155578.256145494</v>
+        <v>155578.2561454939</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>156811.3348504399</v>
+        <v>156811.33485044</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>163238.0641267566</v>
+        <v>163238.0641267567</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>164577.4213927748</v>
+        <v>164577.4213927749</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>168708.1868074936</v>
+        <v>168708.1868074937</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>170123.5742081686</v>
+        <v>170123.5742081687</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>171558.656315335</v>
+        <v>171558.6563153348</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>173013.7173257698</v>
+        <v>173013.7173257697</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>182180.1820622552</v>
+        <v>182180.1820622551</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>187057.7078724894</v>
+        <v>187057.7078724895</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>188729.3169751655</v>
+        <v>188729.3169751656</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>190424.378805322</v>
+        <v>190424.3788053221</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>192143.2442558961</v>
+        <v>192143.244255896</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>193886.2707116386</v>
+        <v>193886.2707116387</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>201107.3708164067</v>
+        <v>201107.3708164068</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>202976.8020374142</v>
+        <v>202976.8020374143</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>204872.6844285011</v>
+        <v>204872.6844285009</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>208745.4414537589</v>
+        <v>208745.441453759</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>214763.4157539865</v>
+        <v>214763.4157539866</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>216826.8521845277</v>
+        <v>216826.8521845278</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>223195.9180191695</v>
+        <v>223195.9180191696</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>225380.1168515736</v>
+        <v>225380.1168515735</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>229843.2478299588</v>
+        <v>229843.247829959</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>234436.1253208034</v>
+        <v>234436.1253208035</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>244028.4006153759</v>
+        <v>244028.4006153758</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>246514.4630227513</v>
+        <v>246514.4630227512</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>249036.9035691442</v>
+        <v>249036.9035691443</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>251596.3348753516</v>
+        <v>251596.3348753515</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>254193.3828065134</v>
+        <v>254193.3828065133</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>256828.6868072516</v>
+        <v>256828.6868072517</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>259502.9002436295</v>
+        <v>259502.9002436297</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>270602.4226325781</v>
+        <v>270602.4226325782</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>276403.710884807</v>
+        <v>276403.7108848072</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>291689.1488884308</v>
+        <v>291689.148888431</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>301429.5055759803</v>
+        <v>301429.5055759805</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>311625.678334559</v>
+        <v>311625.6783345589</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>315130.0736833269</v>
+        <v>315130.0736833266</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>318688.9383542504</v>
+        <v>318688.9383542506</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>322303.285275294</v>
+        <v>322303.2852752941</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>329702.5899468836</v>
+        <v>329702.5899468834</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>337336.5466811645</v>
+        <v>337336.5466811643</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>341244.2975100381</v>
+        <v>341244.2975100382</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>345214.093455365</v>
+        <v>345214.0934553651</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>349247.1132223102</v>
+        <v>349247.1132223101</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>353344.5608929005</v>
+        <v>353344.5608929004</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>357507.6663326384</v>
+        <v>357507.6663326382</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>361737.6855886163</v>
+        <v>361737.6855886164</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>370403.6229644694</v>
+        <v>370403.6229644693</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>374842.187524376</v>
+        <v>374842.1875243761</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>379352.9594958184</v>
+        <v>379352.9594958186</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>383937.3314143645</v>
+        <v>383937.3314143647</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>388596.7241305935</v>
+        <v>388596.7241305936</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>398146.3987048669</v>
+        <v>398146.3987048671</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>403039.6664215458</v>
+        <v>403039.6664215456</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>408013.9271389832</v>
+        <v>408013.9271389833</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>413070.7473186602</v>
+        <v>413070.7473186601</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>418211.7231784989</v>
+        <v>418211.7231784987</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>423438.4808369876</v>
+        <v>423438.4808369878</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>428752.6764240381</v>
+        <v>428752.6764240384</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>434155.9961562231</v>
+        <v>434155.9961562232</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>439650.1563739741</v>
+        <v>439650.1563739743</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>445236.9035382263</v>
+        <v>445236.9035382265</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>450918.0141839506</v>
+        <v>450918.0141839504</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>456695.2948279204</v>
+        <v>456695.2948279205</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>468545.7411912925</v>
+        <v>468545.7411912926</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>474622.6683279805</v>
+        <v>474622.6683279806</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>480803.2877485628</v>
+        <v>480803.2877485627</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>487089.5527009718</v>
+        <v>487089.5527009719</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>493483.4447449682</v>
+        <v>493483.4447449683</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>506602.1748883419</v>
+        <v>506602.1748883421</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>513331.1128960051</v>
+        <v>513331.1128960052</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>520175.876472478</v>
+        <v>520175.8764724781</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>527138.5799421349</v>
+        <v>527138.5799421348</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>534221.3618987396</v>
+        <v>534221.3618987397</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>548755.8312063388</v>
+        <v>548755.8312063387</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>563796.8402248584</v>
+        <v>563796.8402248585</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>571512.8714790767</v>
+        <v>571512.8714790764</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>579362.2629718499</v>
+        <v>579362.2629718496</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>595470.2479343849</v>
+        <v>595470.2479343853</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>603733.4354893644</v>
+        <v>603733.4354893647</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>612139.1678972731</v>
+        <v>612139.167897273</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>620689.7674633519</v>
+        <v>620689.7674633517</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>638234.8877246163</v>
+        <v>638234.8877246166</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>647234.0768492816</v>
+        <v>647234.0768492818</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>656387.4653130267</v>
+        <v>656387.4653130269</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>665697.3852041136</v>
+        <v>665697.3852041134</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>675166.1631429349</v>
+        <v>675166.1631429347</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>694589.5557074113</v>
+        <v>694589.5557074109</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>704548.7709285422</v>
+        <v>704548.7709285426</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>714676.039313343</v>
+        <v>714676.0393133425</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>735443.7349000885</v>
+        <v>735443.7349000883</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>746088.5991258792</v>
+        <v>746088.5991258791</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>756910.3835947819</v>
+        <v>756910.3835947815</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>779093.2352682415</v>
+        <v>779093.2352682409</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>790458.464552964</v>
+        <v>790458.4645529644</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>825673.3762986956</v>
+        <v>825673.3762986952</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>837791.1192966126</v>
+        <v>837791.1192966121</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>850101.61673046</v>
+        <v>850101.6167304601</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>862606.5922106567</v>
+        <v>862606.5922106565</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>888206.5126751087</v>
+        <v>888206.5126751084</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>901304.5326205385</v>
+        <v>901304.5326205383</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>914603.171680077</v>
+        <v>914603.1716800769</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>928103.7546608796</v>
+        <v>928103.7546608794</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>941807.5132901208</v>
+        <v>941807.5132901209</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>984148.6710137562</v>
+        <v>984148.6710137563</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>998675.432966114</v>
+        <v>998675.4329661146</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1028352.888883519</v>
+        <v>1028352.888883518</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>1050762.037464072</v>
       </c>
       <c r="C360" t="n">
-        <v>55442.36374271061</v>
+        <v>55442.3637427106</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1045191.354621471</v>
+        <v>1045191.354621472</v>
       </c>
       <c r="C362" t="n">
-        <v>93618.06115128931</v>
+        <v>93618.06115128934</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1039479.554866058</v>
+        <v>1039479.554866057</v>
       </c>
       <c r="C364" t="n">
         <v>132767.7417240925</v>
@@ -9973,7 +9973,7 @@
         <v>1030634.306601172</v>
       </c>
       <c r="C367" t="n">
-        <v>193317.812487495</v>
+        <v>193317.8124874951</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>1024543.220269148</v>
       </c>
       <c r="C369" t="n">
-        <v>234897.567692178</v>
+        <v>234897.5676921779</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1018288.856811028</v>
+        <v>1018288.856811029</v>
       </c>
       <c r="C371" t="n">
         <v>277441.6617604023</v>
@@ -10103,7 +10103,7 @@
         <v>1015098.212762823</v>
       </c>
       <c r="C372" t="n">
-        <v>299073.0044573632</v>
+        <v>299073.0044573631</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1011864.017408257</v>
+        <v>1011864.017408258</v>
       </c>
       <c r="C373" t="n">
         <v>299071.2855227672</v>
       </c>
       <c r="D373" t="n">
-        <v>21871.06790918904</v>
+        <v>21871.06790918903</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1008585.30489923</v>
+        <v>1008585.304899231</v>
       </c>
       <c r="C374" t="n">
         <v>299069.2964828606</v>
       </c>
       <c r="D374" t="n">
-        <v>43979.09392634492</v>
+        <v>43979.09392634491</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1005261.081855185</v>
+        <v>1005261.081855184</v>
       </c>
       <c r="C375" t="n">
         <v>299066.9978697175</v>
       </c>
       <c r="D375" t="n">
-        <v>66322.65982363472</v>
+        <v>66322.65982363471</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>299064.3449390129</v>
       </c>
       <c r="D376" t="n">
-        <v>88900.21417008605</v>
+        <v>88900.21417008604</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>998471.9895566045</v>
+        <v>998471.9895566046</v>
       </c>
       <c r="C377" t="n">
         <v>299061.2870414809</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>995004.9908248377</v>
+        <v>995004.9908248372</v>
       </c>
       <c r="C378" t="n">
         <v>299057.766930907</v>
       </c>
       <c r="D378" t="n">
-        <v>134750.4280998642</v>
+        <v>134750.4280998641</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>991488.2215804915</v>
+        <v>991488.2215804912</v>
       </c>
       <c r="C379" t="n">
         <v>299053.7200038602</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>987920.5426690681</v>
+        <v>987920.5426690677</v>
       </c>
       <c r="C380" t="n">
-        <v>299049.0734662284</v>
+        <v>299049.0734662283</v>
       </c>
       <c r="D380" t="n">
-        <v>181514.7407579096</v>
+        <v>181514.7407579095</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>984300.7843801959</v>
+        <v>984300.7843801961</v>
       </c>
       <c r="C381" t="n">
         <v>299043.7454215143</v>
       </c>
       <c r="D381" t="n">
-        <v>205234.4558491611</v>
+        <v>205234.455849161</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>980627.7460832117</v>
+        <v>980627.7460832112</v>
       </c>
       <c r="C382" t="n">
-        <v>299037.6438757743</v>
+        <v>299037.6438757742</v>
       </c>
       <c r="D382" t="n">
-        <v>229176.184526739</v>
+        <v>229176.1845267389</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10389,7 +10389,7 @@
         <v>976900.195920952</v>
       </c>
       <c r="C383" t="n">
-        <v>299030.6656540546</v>
+        <v>299030.6656540545</v>
       </c>
       <c r="D383" t="n">
         <v>229175.755297763</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>973116.8705698301</v>
+        <v>973116.8705698295</v>
       </c>
       <c r="C384" t="n">
         <v>299022.6952231982</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>969276.4750748053</v>
+        <v>969276.4750748049</v>
       </c>
       <c r="C385" t="n">
         <v>299013.6034159758</v>
@@ -10473,7 +10473,7 @@
         <v>229173.9108351997</v>
       </c>
       <c r="E386" t="n">
-        <v>97939.52352627294</v>
+        <v>97939.52352627295</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>961419.1352836953</v>
+        <v>961419.1352836948</v>
       </c>
       <c r="C387" t="n">
         <v>298991.4624481784</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>957399.4426708197</v>
+        <v>957399.4426708196</v>
       </c>
       <c r="C388" t="n">
         <v>298978.0738219896</v>
@@ -10545,7 +10545,7 @@
         <v>953317.1836288983</v>
       </c>
       <c r="C389" t="n">
-        <v>298962.8815707936</v>
+        <v>298962.8815707935</v>
       </c>
       <c r="D389" t="n">
         <v>229170.8339158592</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>949170.9058634837</v>
+        <v>949170.9058634836</v>
       </c>
       <c r="C390" t="n">
         <v>298945.6654364538</v>
       </c>
       <c r="D390" t="n">
-        <v>229169.4153926196</v>
+        <v>229169.4153926195</v>
       </c>
       <c r="E390" t="n">
-        <v>199222.4419900503</v>
+        <v>199222.4419900502</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>944959.1265819011</v>
+        <v>944959.1265819009</v>
       </c>
       <c r="C391" t="n">
         <v>298926.1815446825</v>
@@ -10603,7 +10603,7 @@
         <v>229167.7439745347</v>
       </c>
       <c r="E391" t="n">
-        <v>225043.6325377277</v>
+        <v>225043.6325377276</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,10 +10620,10 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>940680.3331383846</v>
+        <v>940680.3331383849</v>
       </c>
       <c r="C392" t="n">
-        <v>298904.1603194613</v>
+        <v>298904.1603194614</v>
       </c>
       <c r="D392" t="n">
         <v>229165.7778843072</v>
@@ -10655,7 +10655,7 @@
         <v>229163.4690594222</v>
       </c>
       <c r="E393" t="n">
-        <v>251058.503974962</v>
+        <v>251058.5039749619</v>
       </c>
       <c r="F393" t="n">
         <v>26206.29389542504</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>931915.5089370185</v>
+        <v>931915.5089370181</v>
       </c>
       <c r="C394" t="n">
         <v>298851.2856554551</v>
       </c>
       <c r="D394" t="n">
-        <v>229160.7623150667</v>
+        <v>229160.7623150666</v>
       </c>
       <c r="E394" t="n">
-        <v>251058.1286235727</v>
+        <v>251058.1286235728</v>
       </c>
       <c r="F394" t="n">
-        <v>52600.22815305604</v>
+        <v>52600.22815305603</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>927426.3117782752</v>
+        <v>927426.3117782751</v>
       </c>
       <c r="C395" t="n">
         <v>298819.7440112258</v>
       </c>
       <c r="D395" t="n">
-        <v>229157.5944135763</v>
+        <v>229157.5944135762</v>
       </c>
       <c r="E395" t="n">
         <v>251057.6748753486</v>
       </c>
       <c r="F395" t="n">
-        <v>79178.55674494567</v>
+        <v>79178.55674494569</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>922863.770199061</v>
+        <v>922863.7701990609</v>
       </c>
       <c r="C396" t="n">
         <v>298784.2835669072</v>
@@ -10750,13 +10750,13 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>918226.2381006447</v>
+        <v>918226.2381006442</v>
       </c>
       <c r="C397" t="n">
         <v>298744.4705311003</v>
       </c>
       <c r="D397" t="n">
-        <v>229149.5756256322</v>
+        <v>229149.5756256321</v>
       </c>
       <c r="E397" t="n">
         <v>251056.4680876523</v>
@@ -10776,13 +10776,13 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>913512.0472673937</v>
+        <v>913512.0472673939</v>
       </c>
       <c r="C398" t="n">
         <v>298699.8302648369</v>
       </c>
       <c r="D398" t="n">
-        <v>229144.5481626818</v>
+        <v>229144.5481626817</v>
       </c>
       <c r="E398" t="n">
         <v>251055.6756087005</v>
@@ -10802,10 +10802,10 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>908719.5094239562</v>
+        <v>908719.5094239556</v>
       </c>
       <c r="C399" t="n">
-        <v>298649.844344563</v>
+        <v>298649.8443445629</v>
       </c>
       <c r="D399" t="n">
         <v>229138.703750357</v>
@@ -10814,7 +10814,7 @@
         <v>251054.7248769141</v>
       </c>
       <c r="F399" t="n">
-        <v>187270.373355218</v>
+        <v>187270.3733552181</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>903846.9185471528</v>
+        <v>903846.9185471523</v>
       </c>
       <c r="C400" t="n">
-        <v>298593.9475238948</v>
+        <v>298593.9475238947</v>
       </c>
       <c r="D400" t="n">
         <v>229131.9211162903</v>
@@ -10854,16 +10854,16 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>898892.5534454008</v>
+        <v>898892.5534454009</v>
       </c>
       <c r="C401" t="n">
         <v>298531.5246045501</v>
       </c>
       <c r="D401" t="n">
-        <v>229124.0629545557</v>
+        <v>229124.0629545556</v>
       </c>
       <c r="E401" t="n">
-        <v>251052.2259099889</v>
+        <v>251052.225909989</v>
       </c>
       <c r="F401" t="n">
         <v>242337.6289901976</v>
@@ -10880,13 +10880,13 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>893854.6806179992</v>
+        <v>893854.6806179995</v>
       </c>
       <c r="C402" t="n">
         <v>298461.9072289846</v>
       </c>
       <c r="D402" t="n">
-        <v>229114.9741232776</v>
+        <v>229114.9741232775</v>
       </c>
       <c r="E402" t="n">
         <v>251050.6029750805</v>
@@ -10906,10 +10906,10 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>888731.5574060587</v>
+        <v>888731.5574060591</v>
       </c>
       <c r="C403" t="n">
-        <v>298384.3706095304</v>
+        <v>298384.3706095305</v>
       </c>
       <c r="D403" t="n">
         <v>229104.4796877486</v>
@@ -10932,16 +10932,16 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>883521.4354461016</v>
+        <v>883521.4354461019</v>
       </c>
       <c r="C404" t="n">
-        <v>298298.1302112174</v>
+        <v>298298.1302112173</v>
       </c>
       <c r="D404" t="n">
-        <v>229092.3828028008</v>
+        <v>229092.3828028007</v>
       </c>
       <c r="E404" t="n">
-        <v>251046.374674542</v>
+        <v>251046.3746745419</v>
       </c>
       <c r="F404" t="n">
         <v>270114.7637477087</v>
@@ -10973,7 +10973,7 @@
         <v>270114.4081075541</v>
       </c>
       <c r="G405" t="n">
-        <v>84272.484671941</v>
+        <v>84272.48467194098</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>298096.0811343504</v>
       </c>
       <c r="D406" t="n">
-        <v>229062.4708782057</v>
+        <v>229062.4708782056</v>
       </c>
       <c r="E406" t="n">
-        <v>251040.427773929</v>
+        <v>251040.4277739289</v>
       </c>
       <c r="F406" t="n">
         <v>270113.9733543787</v>
@@ -11010,16 +11010,16 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>867351.5892305567</v>
+        <v>867351.589230557</v>
       </c>
       <c r="C407" t="n">
         <v>297978.3745580461</v>
       </c>
       <c r="D407" t="n">
-        <v>229044.1311854461</v>
+        <v>229044.131185446</v>
       </c>
       <c r="E407" t="n">
-        <v>251036.6189743244</v>
+        <v>251036.6189743243</v>
       </c>
       <c r="F407" t="n">
         <v>270113.4430078415</v>
@@ -11051,7 +11051,7 @@
         <v>270112.797410974</v>
       </c>
       <c r="G408" t="n">
-        <v>169891.1574496162</v>
+        <v>169891.1574496161</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11088,16 +11088,16 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>850336.1204648741</v>
+        <v>850336.1204648743</v>
       </c>
       <c r="C410" t="n">
         <v>297545.6058989195</v>
       </c>
       <c r="D410" t="n">
-        <v>228971.7543489597</v>
+        <v>228971.7543489596</v>
       </c>
       <c r="E410" t="n">
-        <v>251020.6306873101</v>
+        <v>251020.6306873102</v>
       </c>
       <c r="F410" t="n">
         <v>270111.0625302487</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>844468.4474549496</v>
+        <v>844468.4474549495</v>
       </c>
       <c r="C411" t="n">
         <v>297370.7555507404</v>
@@ -11140,13 +11140,13 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>838500.1046673637</v>
+        <v>838500.1046673639</v>
       </c>
       <c r="C412" t="n">
-        <v>297178.3789133359</v>
+        <v>297178.3789133357</v>
       </c>
       <c r="D412" t="n">
-        <v>228905.0995259569</v>
+        <v>228905.0995259568</v>
       </c>
       <c r="E412" t="n">
         <v>251004.828095958</v>
@@ -11166,13 +11166,13 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>832429.5017819998</v>
+        <v>832429.5017819999</v>
       </c>
       <c r="C413" t="n">
         <v>296967.0086443547</v>
       </c>
       <c r="D413" t="n">
-        <v>228864.84008931</v>
+        <v>228864.8400893099</v>
       </c>
       <c r="E413" t="n">
         <v>250994.8754309401</v>
@@ -11192,22 +11192,22 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>826255.0955327993</v>
+        <v>826255.0955327989</v>
       </c>
       <c r="C414" t="n">
-        <v>296735.0875753897</v>
+        <v>296735.0875753895</v>
       </c>
       <c r="D414" t="n">
-        <v>228819.21683343</v>
+        <v>228819.2168334299</v>
       </c>
       <c r="E414" t="n">
         <v>250983.273010077</v>
       </c>
       <c r="F414" t="n">
-        <v>270104.8428558203</v>
+        <v>270104.8428558204</v>
       </c>
       <c r="G414" t="n">
-        <v>286017.229282884</v>
+        <v>286017.2292828841</v>
       </c>
       <c r="H414" t="n">
         <v>58865.385379286</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>819975.3968436434</v>
+        <v>819975.396843643</v>
       </c>
       <c r="C415" t="n">
         <v>296480.9667658008</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>813588.9782811936</v>
+        <v>813588.9782811935</v>
       </c>
       <c r="C416" t="n">
         <v>296202.9039179684</v>
@@ -11253,10 +11253,10 @@
         <v>228709.3133351216</v>
       </c>
       <c r="E416" t="n">
-        <v>250954.0963134252</v>
+        <v>250954.0963134251</v>
       </c>
       <c r="F416" t="n">
-        <v>270099.5470205267</v>
+        <v>270099.5470205268</v>
       </c>
       <c r="G416" t="n">
         <v>286016.5711083111</v>
@@ -11270,16 +11270,16 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>807094.4818108627</v>
+        <v>807094.4818108625</v>
       </c>
       <c r="C417" t="n">
         <v>295899.0622023715</v>
       </c>
       <c r="D417" t="n">
-        <v>228643.595381331</v>
+        <v>228643.5953813309</v>
       </c>
       <c r="E417" t="n">
-        <v>250935.9257633345</v>
+        <v>250935.9257633344</v>
       </c>
       <c r="F417" t="n">
         <v>270096.1008527883</v>
@@ -11296,13 +11296,13 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>800490.6268390915</v>
+        <v>800490.6268390913</v>
       </c>
       <c r="C418" t="n">
         <v>295567.5095420209</v>
       </c>
       <c r="D418" t="n">
-        <v>228569.6299537851</v>
+        <v>228569.629953785</v>
       </c>
       <c r="E418" t="n">
         <v>250914.9055608099</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>793776.2185219903</v>
+        <v>793776.2185219905</v>
       </c>
       <c r="C419" t="n">
         <v>295206.2184064728</v>
@@ -11334,10 +11334,10 @@
         <v>250890.6355809831</v>
       </c>
       <c r="F419" t="n">
-        <v>270087.1082731539</v>
+        <v>270087.108273154</v>
       </c>
       <c r="G419" t="n">
-        <v>286014.895115301</v>
+        <v>286014.8951153009</v>
       </c>
       <c r="H419" t="n">
         <v>208254.6709881476</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>786950.1563171917</v>
+        <v>786950.1563171919</v>
       </c>
       <c r="C420" t="n">
         <v>294813.0661658944</v>
@@ -11360,7 +11360,7 @@
         <v>250862.6673402734</v>
       </c>
       <c r="F420" t="n">
-        <v>270081.310341225</v>
+        <v>270081.3103412251</v>
       </c>
       <c r="G420" t="n">
         <v>286014.06712452</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>780011.4427525091</v>
+        <v>780011.442752509</v>
       </c>
       <c r="C421" t="n">
         <v>294385.8360553698</v>
@@ -11386,7 +11386,7 @@
         <v>250830.4993736259</v>
       </c>
       <c r="F421" t="n">
-        <v>270074.4436638308</v>
+        <v>270074.4436638309</v>
       </c>
       <c r="G421" t="n">
         <v>286013.0558641696</v>
@@ -11400,16 +11400,16 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>772959.1923816907</v>
+        <v>772959.1923816901</v>
       </c>
       <c r="C422" t="n">
         <v>293922.2187987923</v>
       </c>
       <c r="D422" t="n">
-        <v>228172.2678637904</v>
+        <v>228172.2678637903</v>
       </c>
       <c r="E422" t="n">
-        <v>250793.5723494873</v>
+        <v>250793.5723494874</v>
       </c>
       <c r="F422" t="n">
         <v>270066.328445028</v>
@@ -11418,7 +11418,7 @@
         <v>286011.8235804013</v>
       </c>
       <c r="H422" t="n">
-        <v>299370.8173409899</v>
+        <v>299370.8173409898</v>
       </c>
     </row>
     <row r="423">
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>765792.6408942507</v>
+        <v>765792.6408942505</v>
       </c>
       <c r="C423" t="n">
         <v>293419.8149402396</v>
@@ -11444,7 +11444,7 @@
         <v>286010.325384754</v>
       </c>
       <c r="H423" t="n">
-        <v>329986.9828556538</v>
+        <v>329986.9828556537</v>
       </c>
     </row>
     <row r="424">
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>758511.1543430636</v>
+        <v>758511.1543430635</v>
       </c>
       <c r="C424" t="n">
         <v>292876.1379286271</v>
@@ -11470,7 +11470,7 @@
         <v>286008.5080448193</v>
       </c>
       <c r="H424" t="n">
-        <v>360725.3553727782</v>
+        <v>360725.3553727781</v>
       </c>
     </row>
     <row r="425">
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>751114.2384501677</v>
+        <v>751114.238450168</v>
       </c>
       <c r="C425" t="n">
         <v>292288.6179986547</v>
@@ -11504,13 +11504,13 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>743601.5479480708</v>
+        <v>743601.5479480707</v>
       </c>
       <c r="C426" t="n">
         <v>291654.606887569</v>
       </c>
       <c r="D426" t="n">
-        <v>227556.7572852643</v>
+        <v>227556.7572852642</v>
       </c>
       <c r="E426" t="n">
         <v>250584.7677370828</v>
@@ -11519,7 +11519,7 @@
         <v>270016.769743431</v>
       </c>
       <c r="G426" t="n">
-        <v>286003.6527694967</v>
+        <v>286003.6527694966</v>
       </c>
       <c r="H426" t="n">
         <v>422570.8189114596</v>
@@ -11530,22 +11530,22 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>735972.8959107952</v>
+        <v>735972.8959107953</v>
       </c>
       <c r="C427" t="n">
-        <v>290971.3834230381</v>
+        <v>290971.3834230382</v>
       </c>
       <c r="D427" t="n">
-        <v>227358.3548890935</v>
+        <v>227358.3548890934</v>
       </c>
       <c r="E427" t="n">
-        <v>250513.2581605803</v>
+        <v>250513.2581605804</v>
       </c>
       <c r="F427" t="n">
         <v>269998.6456483456</v>
       </c>
       <c r="G427" t="n">
-        <v>286000.4531682146</v>
+        <v>286000.4531682145</v>
       </c>
       <c r="H427" t="n">
         <v>453679.5985968144</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>728228.2630260313</v>
+        <v>728228.263026031</v>
       </c>
       <c r="C428" t="n">
         <v>290236.1600124704</v>
@@ -11571,10 +11571,10 @@
         <v>269977.4970010211</v>
       </c>
       <c r="G428" t="n">
-        <v>285996.6072451971</v>
+        <v>285996.607245197</v>
       </c>
       <c r="H428" t="n">
-        <v>484913.9693809148</v>
+        <v>484913.9693809149</v>
       </c>
     </row>
     <row r="429">
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>720367.8067570415</v>
+        <v>720367.8067570417</v>
       </c>
       <c r="C429" t="n">
         <v>289446.0900583871</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>712391.8703405078</v>
+        <v>712391.8703405079</v>
       </c>
       <c r="C430" t="n">
         <v>288598.2763180027</v>
@@ -11634,13 +11634,13 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>704300.9915642794</v>
+        <v>704300.9915642797</v>
       </c>
       <c r="C431" t="n">
         <v>287689.7802179841</v>
       </c>
       <c r="D431" t="n">
-        <v>226335.0916685225</v>
+        <v>226335.0916685224</v>
       </c>
       <c r="E431" t="n">
         <v>250119.1715986639</v>
@@ -11649,10 +11649,10 @@
         <v>269891.0821300661</v>
       </c>
       <c r="G431" t="n">
-        <v>285979.8881072558</v>
+        <v>285979.8881072557</v>
       </c>
       <c r="H431" t="n">
-        <v>579386.9301137978</v>
+        <v>579386.9301137977</v>
       </c>
     </row>
     <row r="432">
@@ -11675,10 +11675,10 @@
         <v>269852.6973951383</v>
       </c>
       <c r="G432" t="n">
-        <v>285972.041101506</v>
+        <v>285972.0411015059</v>
       </c>
       <c r="H432" t="n">
-        <v>611141.2884380197</v>
+        <v>611141.2884380196</v>
       </c>
     </row>
     <row r="433">
@@ -11686,10 +11686,10 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>687777.5815006261</v>
+        <v>687777.5815006262</v>
       </c>
       <c r="C433" t="n">
-        <v>285678.8425839511</v>
+        <v>285678.842583951</v>
       </c>
       <c r="D433" t="n">
         <v>225657.535436931</v>
@@ -11750,13 +11750,13 @@
         <v>249486.5335108709</v>
       </c>
       <c r="F435" t="n">
-        <v>269698.6270284879</v>
+        <v>269698.627028488</v>
       </c>
       <c r="G435" t="n">
         <v>285938.5812956993</v>
       </c>
       <c r="H435" t="n">
-        <v>707230.1780710099</v>
+        <v>707230.1780710098</v>
       </c>
     </row>
     <row r="436">
@@ -11764,10 +11764,10 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>662155.9438567826</v>
+        <v>662155.9438567827</v>
       </c>
       <c r="C436" t="n">
-        <v>282132.6949443846</v>
+        <v>282132.6949443847</v>
       </c>
       <c r="D436" t="n">
         <v>224382.6555877379</v>
@@ -11782,7 +11782,7 @@
         <v>285923.1454407788</v>
       </c>
       <c r="H436" t="n">
-        <v>739545.2829530061</v>
+        <v>739545.282953006</v>
       </c>
     </row>
     <row r="437">
@@ -11790,13 +11790,13 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>653398.622632673</v>
+        <v>653398.6226326731</v>
       </c>
       <c r="C437" t="n">
         <v>280797.4930158487</v>
       </c>
       <c r="D437" t="n">
-        <v>223878.6547044583</v>
+        <v>223878.6547044582</v>
       </c>
       <c r="E437" t="n">
         <v>249046.6742696842</v>
@@ -11808,7 +11808,7 @@
         <v>285904.9691722887</v>
       </c>
       <c r="H437" t="n">
-        <v>772008.8401725702</v>
+        <v>772008.8401725703</v>
       </c>
     </row>
     <row r="438">
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>644536.2347303812</v>
+        <v>644536.2347303813</v>
       </c>
       <c r="C438" t="n">
         <v>279380.8617835164</v>
@@ -11828,13 +11828,13 @@
         <v>248788.6046274932</v>
       </c>
       <c r="F438" t="n">
-        <v>269466.1549590024</v>
+        <v>269466.1549590023</v>
       </c>
       <c r="G438" t="n">
         <v>285883.6148795902</v>
       </c>
       <c r="H438" t="n">
-        <v>804624.6293663204</v>
+        <v>804624.6293663203</v>
       </c>
     </row>
     <row r="439">
@@ -11842,22 +11842,22 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>635571.1442605113</v>
+        <v>635571.1442605114</v>
       </c>
       <c r="C439" t="n">
         <v>277879.9788045968</v>
       </c>
       <c r="D439" t="n">
-        <v>222735.8715499072</v>
+        <v>222735.8715499071</v>
       </c>
       <c r="E439" t="n">
-        <v>248501.9625471702</v>
+        <v>248501.9625471701</v>
       </c>
       <c r="F439" t="n">
-        <v>269365.7859365772</v>
+        <v>269365.7859365773</v>
       </c>
       <c r="G439" t="n">
-        <v>285858.5842480724</v>
+        <v>285858.5842480722</v>
       </c>
       <c r="H439" t="n">
         <v>837396.6495724462</v>
@@ -11874,10 +11874,10 @@
         <v>276292.1045712437</v>
       </c>
       <c r="D440" t="n">
-        <v>222091.4119197419</v>
+        <v>222091.4119197418</v>
       </c>
       <c r="E440" t="n">
-        <v>248184.2047002048</v>
+        <v>248184.2047002049</v>
       </c>
       <c r="F440" t="n">
         <v>269251.6217240565</v>
@@ -11886,7 +11886,7 @@
         <v>285829.3114453038</v>
       </c>
       <c r="H440" t="n">
-        <v>870329.106636397</v>
+        <v>870329.1066363968</v>
       </c>
     </row>
     <row r="441">
@@ -11900,7 +11900,7 @@
         <v>274614.5999761103</v>
       </c>
       <c r="D441" t="n">
-        <v>221394.3502193772</v>
+        <v>221394.3502193771</v>
       </c>
       <c r="E441" t="n">
         <v>247832.6398590262</v>
@@ -11920,10 +11920,10 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>608087.123461311</v>
+        <v>608087.1234613109</v>
       </c>
       <c r="C442" t="n">
-        <v>272844.944225556</v>
+        <v>272844.9442255559</v>
       </c>
       <c r="D442" t="n">
         <v>220641.7062941987</v>
@@ -11932,10 +11932,10 @@
         <v>247444.429687963</v>
       </c>
       <c r="F442" t="n">
-        <v>268975.2829480383</v>
+        <v>268975.2829480384</v>
       </c>
       <c r="G442" t="n">
-        <v>285755.3940217195</v>
+        <v>285755.3940217194</v>
       </c>
       <c r="H442" t="n">
         <v>936693.1002758418</v>
@@ -11946,13 +11946,13 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>598739.9824205636</v>
+        <v>598739.9824205635</v>
       </c>
       <c r="C443" t="n">
         <v>270980.753091329</v>
       </c>
       <c r="D443" t="n">
-        <v>219830.4646558002</v>
+        <v>219830.4646558001</v>
       </c>
       <c r="E443" t="n">
         <v>247016.5908440588</v>
@@ -11961,10 +11961,10 @@
         <v>268809.4175484222</v>
       </c>
       <c r="G443" t="n">
-        <v>285709.2118478589</v>
+        <v>285709.2118478588</v>
       </c>
       <c r="H443" t="n">
-        <v>970133.9430522267</v>
+        <v>970133.9430522268</v>
       </c>
     </row>
     <row r="444">
@@ -11972,19 +11972,19 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>589305.8174221648</v>
+        <v>589305.8174221645</v>
       </c>
       <c r="C444" t="n">
         <v>269019.7973818708</v>
       </c>
       <c r="D444" t="n">
-        <v>218957.5882762941</v>
+        <v>218957.588276294</v>
       </c>
       <c r="E444" t="n">
         <v>246545.9985056463</v>
       </c>
       <c r="F444" t="n">
-        <v>268622.3602314286</v>
+        <v>268622.3602314287</v>
       </c>
       <c r="G444" t="n">
         <v>285655.6953534831</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>579788.5457840007</v>
+        <v>579788.5457840009</v>
       </c>
       <c r="C445" t="n">
         <v>266960.0215054074</v>
@@ -12013,10 +12013,10 @@
         <v>268411.854105035</v>
       </c>
       <c r="G445" t="n">
-        <v>285593.8217459572</v>
+        <v>285593.8217459571</v>
       </c>
       <c r="H445" t="n">
-        <v>1037557.643791453</v>
+        <v>1037557.643791452</v>
       </c>
     </row>
     <row r="446">
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>570192.3440792761</v>
+        <v>570192.344079276</v>
       </c>
       <c r="C446" t="n">
         <v>264799.5619888465</v>
@@ -12033,13 +12033,13 @@
         <v>217014.7669500854</v>
       </c>
       <c r="E446" t="n">
-        <v>245463.3787238128</v>
+        <v>245463.3787238129</v>
       </c>
       <c r="F446" t="n">
-        <v>268175.4660605988</v>
+        <v>268175.4660605987</v>
       </c>
       <c r="G446" t="n">
-        <v>285522.4498176556</v>
+        <v>285522.4498176555</v>
       </c>
       <c r="H446" t="n">
         <v>1071550.5591068</v>
@@ -12062,7 +12062,7 @@
         <v>244844.4481855283</v>
       </c>
       <c r="F447" t="n">
-        <v>267910.581529594</v>
+        <v>267910.5815295941</v>
       </c>
       <c r="G447" t="n">
         <v>285440.3100733088</v>
@@ -12105,16 +12105,16 @@
         <v>540975.7494080886</v>
       </c>
       <c r="C449" t="n">
-        <v>257698.7111016542</v>
+        <v>257698.7111016541</v>
       </c>
       <c r="D449" t="n">
-        <v>213562.8762101415</v>
+        <v>213562.8762101414</v>
       </c>
       <c r="E449" t="n">
         <v>243433.2423327217</v>
       </c>
       <c r="F449" t="n">
-        <v>267283.9332557687</v>
+        <v>267283.9332557688</v>
       </c>
       <c r="G449" t="n">
         <v>285237.9468451652</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>531110.6615842076</v>
+        <v>531110.6615842074</v>
       </c>
       <c r="C450" t="n">
         <v>255121.3581257969</v>
@@ -12140,7 +12140,7 @@
         <v>242633.4384935905</v>
       </c>
       <c r="F450" t="n">
-        <v>266916.0011466576</v>
+        <v>266916.0011466577</v>
       </c>
       <c r="G450" t="n">
         <v>285114.4511740814</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>521191.2828641287</v>
+        <v>521191.2828641286</v>
       </c>
       <c r="C451" t="n">
         <v>252437.5124991911</v>
@@ -12169,7 +12169,7 @@
         <v>266507.2340200208</v>
       </c>
       <c r="G451" t="n">
-        <v>284973.622713746</v>
+        <v>284973.6227137459</v>
       </c>
       <c r="H451" t="n">
         <v>1244531.382523556</v>
@@ -12186,7 +12186,7 @@
         <v>249646.8312011424</v>
       </c>
       <c r="D452" t="n">
-        <v>209397.152065927</v>
+        <v>209397.1520659269</v>
       </c>
       <c r="E452" t="n">
         <v>240826.0710993244</v>
@@ -12198,7 +12198,7 @@
         <v>284813.3972327278</v>
       </c>
       <c r="H452" t="n">
-        <v>1279766.545527727</v>
+        <v>1279766.545527726</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_total.xlsx
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73938.1358226165</v>
+        <v>73938.13582261653</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>74029.19861637631</v>
+        <v>74029.19861637632</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>74121.56940125269</v>
+        <v>74121.56940125267</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>74215.26683112551</v>
+        <v>74215.2668311255</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>74310.30982221336</v>
+        <v>74310.30982221337</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>74406.71755666431</v>
+        <v>74406.7175566643</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>74603.70533576921</v>
+        <v>74603.70533576919</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74704.32510734315</v>
+        <v>74704.32510734317</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74806.38908363417</v>
+        <v>74806.38908363416</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74909.91783195679</v>
+        <v>74909.91783195677</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>75014.93220810108</v>
+        <v>75014.93220810105</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>75121.45336026237</v>
+        <v>75121.45336026239</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>75339.10207137617</v>
+        <v>75339.10207137621</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>75450.27342482482</v>
+        <v>75450.27342482477</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75677.42192236736</v>
+        <v>75677.42192236731</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75793.44472544886</v>
+        <v>75793.44472544885</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75911.13087013931</v>
+        <v>75911.1308701393</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>76030.50399154831</v>
+        <v>76030.50399154828</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>76274.40736004627</v>
+        <v>76274.40736004629</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>76398.98654588862</v>
+        <v>76398.98654588863</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76525.35059505506</v>
+        <v>76525.35059505509</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76915.407001764</v>
+        <v>76915.40700176402</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>77184.8428296382</v>
+        <v>77184.84282963822</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>77322.46053187201</v>
+        <v>77322.46053187197</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>77462.04799596022</v>
+        <v>77462.04799596014</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77603.63312596198</v>
+        <v>77603.63312596196</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77747.24421352928</v>
+        <v>77747.24421352929</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77892.90994309871</v>
+        <v>77892.90994309878</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>78040.65939714843</v>
+        <v>78040.65939714845</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>78342.52783081192</v>
+        <v>78342.5278308119</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78653.09033912071</v>
+        <v>78653.09033912072</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78811.70896056092</v>
+        <v>78811.70896056095</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78972.59446302518</v>
+        <v>78972.59446302521</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>79135.77886812082</v>
+        <v>79135.7788681208</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>79301.29463999521</v>
+        <v>79301.29463999525</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>79469.17469121571</v>
+        <v>79469.17469121575</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>79639.45238872273</v>
+        <v>79639.45238872268</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79812.1615598568</v>
+        <v>79812.16155985682</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79987.33649846175</v>
+        <v>79987.33649846172</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>80165.0119710618</v>
+        <v>80165.01197106185</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>80345.22322311779</v>
+        <v>80345.22322311786</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80713.39648019716</v>
+        <v>80713.39648019723</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80901.43142821309</v>
+        <v>80901.43142821314</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>81285.58409648071</v>
+        <v>81285.58409648073</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>81481.77780831118</v>
+        <v>81481.77780831122</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81680.76797003337</v>
+        <v>81680.76797003331</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81882.59389331195</v>
+        <v>81882.59389331199</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>82294.91297250635</v>
+        <v>82294.9129725063</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>82505.48747437673</v>
+        <v>82505.48747437682</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82719.06044413036</v>
+        <v>82719.06044413033</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82935.67395931075</v>
+        <v>82935.67395931084</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>83155.37067257908</v>
+        <v>83155.37067257907</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>83378.19381924017</v>
+        <v>83378.19381924019</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>83604.18722486262</v>
+        <v>83604.18722486266</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83833.39531299414</v>
+        <v>83833.39531299411</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>84065.86311297174</v>
+        <v>84065.86311297173</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>84540.76104230786</v>
+        <v>84540.76104230792</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84783.28433095499</v>
+        <v>84783.28433095498</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>85029.25366633946</v>
+        <v>85029.2536663395</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>85278.7172273582</v>
+        <v>85278.71722735824</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85531.72384765153</v>
+        <v>85531.72384765149</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>85788.32302412274</v>
+        <v>85788.32302412282</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>86048.56492556598</v>
+        <v>86048.56492556594</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>86312.5004014005</v>
+        <v>86312.50040140042</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>86580.18099051733</v>
+        <v>86580.1809905173</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86851.65893023649</v>
+        <v>86851.65893023647</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>87406.21935744525</v>
+        <v>87406.21935744521</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87689.40989393358</v>
+        <v>87689.40989393355</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87976.61389774528</v>
+        <v>87976.61389774526</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>88267.88723673548</v>
+        <v>88267.88723673555</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>88563.28653337498</v>
+        <v>88563.28653337486</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88862.86917453895</v>
+        <v>88862.86917453892</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>89166.6933214226</v>
+        <v>89166.69332142272</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>89474.81791958456</v>
+        <v>89474.81791958447</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89787.3027091198</v>
+        <v>89787.30270911987</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>90104.20823496836</v>
+        <v>90104.20823496844</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>90425.59585735583</v>
+        <v>90425.59585735592</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90751.52776237352</v>
+        <v>90751.52776237344</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>91082.06697269721</v>
+        <v>91082.0669726972</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>91417.2773584492</v>
+        <v>91417.27735844918</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91757.22364820429</v>
+        <v>91757.22364820441</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92101.97144014464</v>
+        <v>92101.97144014463</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>92451.587213363</v>
+        <v>92451.58721336297</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92806.13833932167</v>
+        <v>92806.13833932168</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>93165.69309346529</v>
+        <v>93165.69309346528</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>93530.32066699471</v>
+        <v>93530.32066699464</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93900.09117880158</v>
+        <v>93900.09117880162</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>94275.07568757003</v>
+        <v>94275.07568757006</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>95432.0381382498</v>
+        <v>95432.03813824983</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>95828.60845064835</v>
+        <v>95828.60845064833</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>96230.76258587818</v>
+        <v>96230.76258587817</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>96638.57750521541</v>
+        <v>96638.57750521539</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>97052.13119937359</v>
+        <v>97052.13119937356</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>97471.5027020619</v>
+        <v>97471.50270206181</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97896.7721037454</v>
+        <v>97896.77210374533</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>98328.02056560984</v>
+        <v>98328.02056560986</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98765.33033373785</v>
+        <v>98765.3303337379</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>99658.46828416488</v>
+        <v>99658.46828416482</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>102003.3585377356</v>
+        <v>102003.3585377357</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>102492.2546561639</v>
+        <v>102492.254656164</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>102988.0035659305</v>
+        <v>102988.0035659306</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>104517.3125906831</v>
+        <v>104517.3125906832</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>106111.7543460291</v>
+        <v>106111.754346029</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>106658.1742623638</v>
+        <v>106658.1742623637</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>107212.2345273364</v>
+        <v>107212.2345273363</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>107774.0396136546</v>
+        <v>107774.0396136547</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>110100.8471227413</v>
+        <v>110100.8471227412</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>110702.9931843857</v>
+        <v>110702.9931843856</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>111932.6054524439</v>
+        <v>111932.6054524438</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>113196.7504569381</v>
+        <v>113196.750456938</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>115832.4610304374</v>
+        <v>115832.4610304375</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>117907.1418621114</v>
+        <v>117907.1418621113</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>125477.5024125855</v>
+        <v>125477.5024125856</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>130546.7537082425</v>
+        <v>130546.7537082426</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>134166.5237078555</v>
+        <v>134166.5237078554</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>139983.754679491</v>
+        <v>139983.7546794909</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>143077.4137855176</v>
+        <v>143077.4137855177</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>144137.3224349646</v>
+        <v>144137.3224349647</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>149661.1305904883</v>
+        <v>149661.1305904884</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>150812.2146085689</v>
+        <v>150812.2146085688</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>155578.2561454939</v>
+        <v>155578.256145494</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>156811.33485044</v>
+        <v>156811.3348504399</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>160614.1205873762</v>
+        <v>160614.1205873763</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>167312.2146608154</v>
+        <v>167312.2146608153</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>168708.1868074937</v>
+        <v>168708.1868074938</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>170123.5742081687</v>
+        <v>170123.5742081686</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>171558.6563153348</v>
+        <v>171558.6563153349</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>173013.7173257697</v>
+        <v>173013.7173257699</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>174489.0462923708</v>
+        <v>174489.0462923707</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>179039.6067441411</v>
+        <v>179039.606744141</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>182180.1820622551</v>
+        <v>182180.1820622553</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>183783.4757852487</v>
+        <v>183783.4757852486</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>188729.3169751656</v>
+        <v>188729.3169751654</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>192143.244255896</v>
+        <v>192143.2442558961</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>193886.2707116387</v>
+        <v>193886.2707116386</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>197446.2696257678</v>
+        <v>197446.2696257677</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>201107.3708164068</v>
+        <v>201107.3708164067</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>202976.8020374143</v>
+        <v>202976.8020374142</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>204872.6844285009</v>
+        <v>204872.684428501</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>206795.4256866945</v>
+        <v>206795.4256866944</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>208745.441453759</v>
+        <v>208745.4414537589</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>214763.4157539866</v>
+        <v>214763.4157539865</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>216826.8521845278</v>
+        <v>216826.8521845279</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>218919.7679007129</v>
+        <v>218919.7679007128</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>223195.9180191696</v>
+        <v>223195.9180191694</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>225380.1168515735</v>
+        <v>225380.1168515736</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>227595.7243315919</v>
+        <v>227595.7243315917</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>229843.247829959</v>
+        <v>229843.2478299589</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>239163.0239933764</v>
+        <v>239163.0239933765</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>246514.4630227512</v>
+        <v>246514.4630227513</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>249036.9035691443</v>
+        <v>249036.9035691442</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>251596.3348753515</v>
+        <v>251596.3348753516</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>259502.9002436297</v>
+        <v>259502.9002436296</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>262216.6907518751</v>
+        <v>262216.690751875</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>264970.7405938028</v>
+        <v>264970.7405938027</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>270602.4226325782</v>
+        <v>270602.4226325781</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>273481.4957716319</v>
+        <v>273481.4957716321</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>276403.7108848072</v>
+        <v>276403.7108848071</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>285436.9024108878</v>
+        <v>285436.9024108879</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>291689.148888431</v>
+        <v>291689.1488884309</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>294886.8010524593</v>
+        <v>294886.8010524591</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>298133.2907006647</v>
+        <v>298133.2907006648</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>301429.5055759805</v>
+        <v>301429.5055759804</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>304776.3532056027</v>
+        <v>304776.3532056028</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>308174.7613299995</v>
+        <v>308174.7613299997</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>311625.6783345589</v>
+        <v>311625.678334559</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>315130.0736833266</v>
+        <v>315130.0736833265</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>318688.9383542506</v>
+        <v>318688.9383542505</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>322303.2852752941</v>
+        <v>322303.2852752939</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>329702.5899468834</v>
+        <v>329702.5899468836</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>333489.6872265406</v>
+        <v>333489.6872265408</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>341244.2975100382</v>
+        <v>341244.2975100381</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>345214.0934553651</v>
+        <v>345214.0934553652</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>349247.1132223101</v>
+        <v>349247.11322231</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>353344.5608929004</v>
+        <v>353344.5608929005</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>357507.6663326382</v>
+        <v>357507.6663326383</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>361737.6855886164</v>
+        <v>361737.6855886165</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>366035.9012778486</v>
+        <v>366035.9012778485</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>374842.1875243761</v>
+        <v>374842.1875243759</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>379352.9594958186</v>
+        <v>379352.9594958185</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>388596.7241305936</v>
+        <v>388596.7241305934</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>393332.5871087942</v>
+        <v>393332.5871087939</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>398146.3987048671</v>
+        <v>398146.3987048667</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>403039.6664215456</v>
+        <v>403039.6664215454</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>408013.9271389833</v>
+        <v>408013.9271389834</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>428752.6764240384</v>
+        <v>428752.676424038</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>434155.9961562232</v>
+        <v>434155.9961562234</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>439650.1563739743</v>
+        <v>439650.1563739738</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>445236.9035382265</v>
+        <v>445236.9035382264</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>450918.0141839504</v>
+        <v>450918.0141839507</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>468545.7411912926</v>
+        <v>468545.7411912923</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>474622.6683279806</v>
+        <v>474622.6683279802</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>480803.2877485627</v>
+        <v>480803.287748563</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>499986.9732606891</v>
+        <v>499986.9732606894</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>506602.1748883421</v>
+        <v>506602.1748883423</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>520175.8764724781</v>
+        <v>520175.8764724779</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>527138.5799421348</v>
+        <v>527138.579942135</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>548755.8312063387</v>
+        <v>548755.8312063391</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>563796.8402248585</v>
+        <v>563796.8402248586</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>571512.8714790764</v>
+        <v>571512.8714790761</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>579362.2629718496</v>
+        <v>579362.2629718498</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>587347.2915006446</v>
+        <v>587347.2915006445</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>595470.2479343853</v>
+        <v>595470.2479343851</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>612139.167897273</v>
+        <v>612139.1678972729</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>620689.7674633517</v>
+        <v>620689.7674633518</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>638234.8877246166</v>
+        <v>638234.8877246163</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>647234.0768492818</v>
+        <v>647234.0768492814</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>656387.4653130269</v>
+        <v>656387.4653130271</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>665697.3852041134</v>
+        <v>665697.3852041133</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>675166.1631429347</v>
+        <v>675166.163142935</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>684796.1175350413</v>
+        <v>684796.1175350415</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>694589.5557074109</v>
+        <v>694589.5557074114</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>714676.0393133425</v>
+        <v>714676.0393133429</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>746088.5991258791</v>
+        <v>746088.5991258796</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>756910.3835947815</v>
+        <v>756910.3835947817</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>779093.2352682409</v>
+        <v>779093.235268241</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>790458.4645529644</v>
+        <v>790458.4645529641</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>802008.9304760653</v>
+        <v>802008.930476065</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>825673.3762986952</v>
+        <v>825673.3762986951</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>837791.1192966121</v>
+        <v>837791.1192966125</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>850101.6167304601</v>
+        <v>850101.6167304603</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>862606.5922106565</v>
+        <v>862606.5922106566</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>888206.5126751084</v>
+        <v>888206.5126751089</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>901304.5326205383</v>
+        <v>901304.5326205385</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>914603.1716800769</v>
+        <v>914603.171680077</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>928103.7546608794</v>
+        <v>928103.7546608796</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>941807.5132901209</v>
+        <v>941807.5132901203</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>955715.5817725607</v>
+        <v>955715.5817725606</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>969828.9923698432</v>
+        <v>969828.9923698434</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>984148.6710137563</v>
+        <v>984148.6710137567</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>998675.4329661146</v>
+        <v>998675.4329661144</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1028352.888883518</v>
+        <v>1028352.888883519</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1043504.621876221</v>
+        <v>1043504.62187622</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1058865.508091111</v>
+        <v>1058865.508091112</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1056197.147375021</v>
+        <v>1056197.147375154</v>
       </c>
       <c r="C358" t="n">
-        <v>18238.59952215175</v>
+        <v>18238.59952201927</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1053496.205088309</v>
+        <v>1053496.205088579</v>
       </c>
       <c r="C359" t="n">
-        <v>36719.19759167101</v>
+        <v>36719.19759140111</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1050762.037464072</v>
+        <v>1050762.037464484</v>
       </c>
       <c r="C360" t="n">
-        <v>55442.3637427106</v>
+        <v>55442.36374229836</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1047993.981542713</v>
+        <v>1047993.981543273</v>
       </c>
       <c r="C361" t="n">
-        <v>74408.54460578723</v>
+        <v>74408.54460522765</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1045191.354621472</v>
+        <v>1045191.354622185</v>
       </c>
       <c r="C362" t="n">
-        <v>93618.06115128934</v>
+        <v>93618.06115057677</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1042353.453691914</v>
+        <v>1042353.453692785</v>
       </c>
       <c r="C363" t="n">
-        <v>113071.1061300477</v>
+        <v>113071.106129177</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1039479.554866057</v>
+        <v>1039479.554867092</v>
       </c>
       <c r="C364" t="n">
-        <v>132767.7417240925</v>
+        <v>132767.7417230586</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1036568.912792007</v>
+        <v>1036568.91279321</v>
       </c>
       <c r="C365" t="n">
-        <v>152707.8974202321</v>
+        <v>152707.8974190291</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1033620.76006015</v>
+        <v>1033620.760061527</v>
       </c>
       <c r="C366" t="n">
-        <v>172891.3681185735</v>
+        <v>172891.3681171964</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1030634.306601172</v>
+        <v>1030634.306602728</v>
       </c>
       <c r="C367" t="n">
-        <v>193317.8124874951</v>
+        <v>193317.8124859388</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1027608.73907739</v>
+        <v>1027608.739079131</v>
       </c>
       <c r="C368" t="n">
-        <v>213986.7515758196</v>
+        <v>213986.7515740787</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1024543.220269148</v>
+        <v>1024543.220271079</v>
       </c>
       <c r="C369" t="n">
-        <v>234897.5676921779</v>
+        <v>234897.5676902473</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>1021436.88845829</v>
+        <v>1021436.888460416</v>
       </c>
       <c r="C370" t="n">
-        <v>256049.5035605995</v>
+        <v>256049.5035584731</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1018288.856811029</v>
+        <v>1018288.856813355</v>
       </c>
       <c r="C371" t="n">
-        <v>277441.6617604023</v>
+        <v>277441.661758075</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1015098.212762823</v>
+        <v>1015098.212765356</v>
       </c>
       <c r="C372" t="n">
-        <v>299073.0044573631</v>
+        <v>299073.0044548303</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1011864.017408258</v>
+        <v>1011864.017411002</v>
       </c>
       <c r="C373" t="n">
-        <v>299071.2855227672</v>
+        <v>299071.2855202323</v>
       </c>
       <c r="D373" t="n">
-        <v>21871.06790918903</v>
+        <v>21871.06790897948</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1008585.304899231</v>
+        <v>1008585.304902191</v>
       </c>
       <c r="C374" t="n">
-        <v>299069.2964828606</v>
+        <v>299069.2964803232</v>
       </c>
       <c r="D374" t="n">
-        <v>43979.09392634491</v>
+        <v>43979.09392592159</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1005261.081855184</v>
+        <v>1005261.081858366</v>
       </c>
       <c r="C375" t="n">
-        <v>299066.9978697175</v>
+        <v>299066.9978671774</v>
       </c>
       <c r="D375" t="n">
-        <v>66322.65982363471</v>
+        <v>66322.65982299289</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1001890.326789498</v>
+        <v>1001890.326792907</v>
       </c>
       <c r="C376" t="n">
-        <v>299064.3449390129</v>
+        <v>299064.3449364696</v>
       </c>
       <c r="D376" t="n">
-        <v>88900.21417008604</v>
+        <v>88900.21416922033</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>998471.9895566046</v>
+        <v>998471.9895602455</v>
       </c>
       <c r="C377" t="n">
-        <v>299061.2870414809</v>
+        <v>299061.287038934</v>
       </c>
       <c r="D377" t="n">
-        <v>111710.0742082413</v>
+        <v>111710.0742071477</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>995004.9908248372</v>
+        <v>995004.9908287149</v>
       </c>
       <c r="C378" t="n">
-        <v>299057.766930907</v>
+        <v>299057.766928356</v>
       </c>
       <c r="D378" t="n">
-        <v>134750.4280998641</v>
+        <v>134750.4280985374</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>991488.2215804912</v>
+        <v>991488.2215846096</v>
       </c>
       <c r="C379" t="n">
-        <v>299053.7200038602</v>
+        <v>299053.7200013045</v>
       </c>
       <c r="D379" t="n">
-        <v>158019.3375425939</v>
+        <v>158019.3375410307</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>987920.5426690677</v>
+        <v>987920.542673433</v>
       </c>
       <c r="C380" t="n">
-        <v>299049.0734662283</v>
+        <v>299049.0734636675</v>
       </c>
       <c r="D380" t="n">
-        <v>181514.7407579095</v>
+        <v>181514.7407561059</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>984300.7843801961</v>
+        <v>984300.7843848113</v>
       </c>
       <c r="C381" t="n">
-        <v>299043.7454215143</v>
+        <v>299043.7454189474</v>
       </c>
       <c r="D381" t="n">
-        <v>205234.455849161</v>
+        <v>205234.4558471123</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>980627.7460832112</v>
+        <v>980627.7460880817</v>
       </c>
       <c r="C382" t="n">
-        <v>299037.6438757742</v>
+        <v>299037.6438732008</v>
       </c>
       <c r="D382" t="n">
-        <v>229176.1845267389</v>
+        <v>229176.1845244421</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>976900.195920952</v>
+        <v>976900.1959260819</v>
       </c>
       <c r="C383" t="n">
-        <v>299030.6656540545</v>
+        <v>299030.6656514734</v>
       </c>
       <c r="D383" t="n">
-        <v>229175.755297763</v>
+        <v>229175.7552954653</v>
       </c>
       <c r="E383" t="n">
-        <v>24161.76089796028</v>
+        <v>24161.76089770929</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>973116.8705698295</v>
+        <v>973116.8705752227</v>
       </c>
       <c r="C384" t="n">
-        <v>299022.6952231982</v>
+        <v>299022.6952206087</v>
       </c>
       <c r="D384" t="n">
-        <v>229175.2435734709</v>
+        <v>229175.2435711721</v>
       </c>
       <c r="E384" t="n">
-        <v>48540.68882603449</v>
+        <v>48540.68882552991</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>969276.4750748049</v>
+        <v>969276.4750804653</v>
       </c>
       <c r="C385" t="n">
-        <v>299013.6034159758</v>
+        <v>299013.6034133769</v>
       </c>
       <c r="D385" t="n">
-        <v>229174.6345190064</v>
+        <v>229174.6345167065</v>
       </c>
       <c r="E385" t="n">
-        <v>73134.17709204103</v>
+        <v>73134.17709127959</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>965377.6827684343</v>
+        <v>965377.682774366</v>
       </c>
       <c r="C386" t="n">
-        <v>299003.2460516347</v>
+        <v>299003.246049025</v>
       </c>
       <c r="D386" t="n">
-        <v>229173.9108351997</v>
+        <v>229173.9108328985</v>
       </c>
       <c r="E386" t="n">
-        <v>97939.52352627295</v>
+        <v>97939.52352525273</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>961419.1352836948</v>
+        <v>961419.1352899005</v>
       </c>
       <c r="C387" t="n">
-        <v>298991.4624481784</v>
+        <v>298991.4624455569</v>
       </c>
       <c r="D387" t="n">
-        <v>229173.0523877177</v>
+        <v>229173.052385415</v>
       </c>
       <c r="E387" t="n">
-        <v>122953.9363060029</v>
+        <v>122953.936304722</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>957399.4426708196</v>
+        <v>957399.4426773028</v>
       </c>
       <c r="C388" t="n">
-        <v>298978.0738219896</v>
+        <v>298978.0738193547</v>
       </c>
       <c r="D388" t="n">
-        <v>229172.0357873079</v>
+        <v>229172.0357850033</v>
       </c>
       <c r="E388" t="n">
-        <v>148174.5401396465</v>
+        <v>148174.5401381027</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>953317.1836288983</v>
+        <v>953317.1836356618</v>
       </c>
       <c r="C389" t="n">
-        <v>298962.8815707935</v>
+        <v>298962.8815681437</v>
       </c>
       <c r="D389" t="n">
-        <v>229170.8339158592</v>
+        <v>229170.8339135525</v>
       </c>
       <c r="E389" t="n">
-        <v>173598.3827994765</v>
+        <v>173598.3827976694</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>949170.9058634836</v>
+        <v>949170.9058705302</v>
       </c>
       <c r="C390" t="n">
-        <v>298945.6654364538</v>
+        <v>298945.6654337874</v>
       </c>
       <c r="D390" t="n">
-        <v>229169.4153926195</v>
+        <v>229169.4153903103</v>
       </c>
       <c r="E390" t="n">
-        <v>199222.4419900502</v>
+        <v>199222.4419879788</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>944959.1265819009</v>
+        <v>944959.1265892331</v>
       </c>
       <c r="C391" t="n">
-        <v>298926.1815446825</v>
+        <v>298926.1815419976</v>
       </c>
       <c r="D391" t="n">
-        <v>229167.7439745347</v>
+        <v>229167.7439722226</v>
       </c>
       <c r="E391" t="n">
-        <v>225043.6325377276</v>
+        <v>225043.6325353925</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>940680.3331383849</v>
+        <v>940680.3331460052</v>
       </c>
       <c r="C392" t="n">
-        <v>298904.1603194614</v>
+        <v>298904.160316756</v>
       </c>
       <c r="D392" t="n">
-        <v>229165.7778843072</v>
+        <v>229165.7778819918</v>
       </c>
       <c r="E392" t="n">
-        <v>251058.8138848639</v>
+        <v>251058.8138822646</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>936332.9838415511</v>
+        <v>936332.9838494607</v>
       </c>
       <c r="C393" t="n">
-        <v>298879.304270804</v>
+        <v>298879.3042680758</v>
       </c>
       <c r="D393" t="n">
-        <v>229163.4690594222</v>
+        <v>229163.4690571031</v>
       </c>
       <c r="E393" t="n">
-        <v>251058.5039749619</v>
+        <v>251058.5039723621</v>
       </c>
       <c r="F393" t="n">
-        <v>26206.29389542504</v>
+        <v>26206.29389516311</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>931915.5089370181</v>
+        <v>931915.5089452186</v>
       </c>
       <c r="C394" t="n">
-        <v>298851.2856554551</v>
+        <v>298851.2856527017</v>
       </c>
       <c r="D394" t="n">
-        <v>229160.7623150666</v>
+        <v>229160.7623127431</v>
       </c>
       <c r="E394" t="n">
-        <v>251058.1286235728</v>
+        <v>251058.1286209722</v>
       </c>
       <c r="F394" t="n">
-        <v>52600.22815305603</v>
+        <v>52600.22815253331</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>927426.3117782751</v>
+        <v>927426.3117867676</v>
       </c>
       <c r="C395" t="n">
-        <v>298819.7440112258</v>
+        <v>298819.7440084445</v>
       </c>
       <c r="D395" t="n">
-        <v>229157.5944135762</v>
+        <v>229157.5944112476</v>
       </c>
       <c r="E395" t="n">
-        <v>251057.6748753486</v>
+        <v>251057.6748727472</v>
       </c>
       <c r="F395" t="n">
-        <v>79178.55674494569</v>
+        <v>79178.5567441645</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>922863.7701990609</v>
+        <v>922863.7702078467</v>
       </c>
       <c r="C396" t="n">
-        <v>298784.2835669072</v>
+        <v>298784.2835640952</v>
       </c>
       <c r="D396" t="n">
-        <v>229153.8930328061</v>
+        <v>229153.8930304716</v>
       </c>
       <c r="E396" t="n">
-        <v>251057.1273984571</v>
+        <v>251057.1273958546</v>
       </c>
       <c r="F396" t="n">
-        <v>105938.0132650794</v>
+        <v>105938.0132640429</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>918226.2381006442</v>
+        <v>918226.2381097228</v>
       </c>
       <c r="C397" t="n">
-        <v>298744.4705311003</v>
+        <v>298744.4705282543</v>
       </c>
       <c r="D397" t="n">
-        <v>229149.5756256321</v>
+        <v>229149.575623291</v>
       </c>
       <c r="E397" t="n">
-        <v>251056.4680876523</v>
+        <v>251056.4680850486</v>
       </c>
       <c r="F397" t="n">
-        <v>132875.3200314055</v>
+        <v>132875.3200301175</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>913512.0472673939</v>
+        <v>913512.0472767659</v>
       </c>
       <c r="C398" t="n">
-        <v>298699.8302648369</v>
+        <v>298699.8302619535</v>
       </c>
       <c r="D398" t="n">
-        <v>229144.5481626817</v>
+        <v>229144.5481603331</v>
       </c>
       <c r="E398" t="n">
-        <v>251055.6756087005</v>
+        <v>251055.6756060953</v>
       </c>
       <c r="F398" t="n">
-        <v>159987.1974124034</v>
+        <v>159987.1974108687</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>908719.5094239556</v>
+        <v>908719.5094336207</v>
       </c>
       <c r="C399" t="n">
-        <v>298649.8443445629</v>
+        <v>298649.8443416384</v>
       </c>
       <c r="D399" t="n">
-        <v>229138.703750357</v>
+        <v>229138.7037479996</v>
       </c>
       <c r="E399" t="n">
-        <v>251054.7248769141</v>
+        <v>251054.7248743072</v>
       </c>
       <c r="F399" t="n">
-        <v>187270.3733552181</v>
+        <v>187270.373353442</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>903846.9185471523</v>
+        <v>903846.9185571095</v>
       </c>
       <c r="C400" t="n">
-        <v>298593.9475238947</v>
+        <v>298593.9475209251</v>
       </c>
       <c r="D400" t="n">
-        <v>229131.9211162903</v>
+        <v>229131.9211139231</v>
       </c>
       <c r="E400" t="n">
-        <v>251053.5864619023</v>
+        <v>251053.5864592934</v>
       </c>
       <c r="F400" t="n">
-        <v>214721.5930908233</v>
+        <v>214721.5930888121</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>898892.5534454009</v>
+        <v>898892.5534556484</v>
       </c>
       <c r="C401" t="n">
-        <v>298531.5246045501</v>
+        <v>298531.524601531</v>
       </c>
       <c r="D401" t="n">
-        <v>229124.0629545556</v>
+        <v>229124.0629521772</v>
       </c>
       <c r="E401" t="n">
-        <v>251052.225909989</v>
+        <v>251052.2259073777</v>
       </c>
       <c r="F401" t="n">
-        <v>242337.6289901976</v>
+        <v>242337.6289879585</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>893854.6806179995</v>
+        <v>893854.680628536</v>
       </c>
       <c r="C402" t="n">
-        <v>298461.9072289846</v>
+        <v>298461.9072259115</v>
       </c>
       <c r="D402" t="n">
-        <v>229114.9741232775</v>
+        <v>229114.9741208863</v>
       </c>
       <c r="E402" t="n">
-        <v>251050.6029750805</v>
+        <v>251050.6029724666</v>
       </c>
       <c r="F402" t="n">
-        <v>270115.2905438152</v>
+        <v>270115.2905413567</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>888731.5574060591</v>
+        <v>888731.5574168829</v>
       </c>
       <c r="C403" t="n">
-        <v>298384.3706095305</v>
+        <v>298384.3706063983</v>
       </c>
       <c r="D403" t="n">
-        <v>229104.4796877486</v>
+        <v>229104.479685343</v>
       </c>
       <c r="E403" t="n">
-        <v>251048.6707481105</v>
+        <v>251048.6707454933</v>
       </c>
       <c r="F403" t="n">
-        <v>270115.0540591257</v>
+        <v>270115.0540566667</v>
       </c>
       <c r="G403" t="n">
-        <v>27936.38037604373</v>
+        <v>27936.38037583348</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>883521.4354461019</v>
+        <v>883521.4354572099</v>
       </c>
       <c r="C404" t="n">
-        <v>298298.1302112173</v>
+        <v>298298.1302080208</v>
       </c>
       <c r="D404" t="n">
-        <v>229092.3828028007</v>
+        <v>229092.3828003787</v>
       </c>
       <c r="E404" t="n">
-        <v>251046.3746745419</v>
+        <v>251046.374671921</v>
       </c>
       <c r="F404" t="n">
-        <v>270114.7637477087</v>
+        <v>270114.7637452492</v>
       </c>
       <c r="G404" t="n">
-        <v>56028.21092959445</v>
+        <v>56028.21092918488</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>878222.5644364784</v>
+        <v>878222.5644478688</v>
       </c>
       <c r="C405" t="n">
-        <v>298202.3384079568</v>
+        <v>298202.3384046903</v>
       </c>
       <c r="D405" t="n">
-        <v>229078.4624289937</v>
+        <v>229078.4624265533</v>
       </c>
       <c r="E405" t="n">
-        <v>251043.6514487981</v>
+        <v>251043.6514461727</v>
       </c>
       <c r="F405" t="n">
-        <v>270114.4081075541</v>
+        <v>270114.408105094</v>
       </c>
       <c r="G405" t="n">
-        <v>84272.48467194098</v>
+        <v>84272.48467134303</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>872833.1962256999</v>
+        <v>872833.1962373683</v>
       </c>
       <c r="C406" t="n">
-        <v>298096.0811343504</v>
+        <v>298096.0811310078</v>
       </c>
       <c r="D406" t="n">
-        <v>229062.4708782056</v>
+        <v>229062.4708757445</v>
       </c>
       <c r="E406" t="n">
-        <v>251040.4277739289</v>
+        <v>251040.4277712985</v>
       </c>
       <c r="F406" t="n">
-        <v>270113.9733543787</v>
+        <v>270113.9733519179</v>
       </c>
       <c r="G406" t="n">
-        <v>112666.2745550352</v>
+        <v>112666.2745542617</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>867351.589230557</v>
+        <v>867351.5892424989</v>
       </c>
       <c r="C407" t="n">
-        <v>297978.3745580461</v>
+        <v>297978.3745546208</v>
       </c>
       <c r="D407" t="n">
-        <v>229044.131185446</v>
+        <v>229044.1311829616</v>
       </c>
       <c r="E407" t="n">
-        <v>251036.6189743243</v>
+        <v>251036.618971688</v>
       </c>
       <c r="F407" t="n">
-        <v>270113.4430078415</v>
+        <v>270113.44300538</v>
       </c>
       <c r="G407" t="n">
-        <v>141206.7440062051</v>
+        <v>141206.7440052706</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>861776.0131905155</v>
+        <v>861776.0132027272</v>
       </c>
       <c r="C408" t="n">
-        <v>297848.1618002662</v>
+        <v>297848.1617967515</v>
       </c>
       <c r="D408" t="n">
-        <v>229023.1343051846</v>
+        <v>229023.134302674</v>
       </c>
       <c r="E408" t="n">
-        <v>251032.1274488752</v>
+        <v>251032.127446232</v>
       </c>
       <c r="F408" t="n">
-        <v>270112.797410974</v>
+        <v>270112.7974085114</v>
       </c>
       <c r="G408" t="n">
-        <v>169891.1574496161</v>
+        <v>169891.1574485351</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>856104.7542633053</v>
+        <v>856104.7542757825</v>
       </c>
       <c r="C409" t="n">
-        <v>297704.3097348574</v>
+        <v>297704.3097312459</v>
       </c>
       <c r="D409" t="n">
-        <v>228999.1361322034</v>
+        <v>228999.1361296636</v>
       </c>
       <c r="E409" t="n">
-        <v>251026.8409516897</v>
+        <v>251026.8409490386</v>
       </c>
       <c r="F409" t="n">
-        <v>270112.013173683</v>
+        <v>270112.0131712192</v>
       </c>
       <c r="G409" t="n">
-        <v>198716.890782677</v>
+        <v>198716.8907814661</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>850336.1204648743</v>
+        <v>850336.1204776107</v>
       </c>
       <c r="C410" t="n">
-        <v>297545.6058989195</v>
+        <v>297545.6058952037</v>
       </c>
       <c r="D410" t="n">
-        <v>228971.7543489596</v>
+        <v>228971.7543463872</v>
       </c>
       <c r="E410" t="n">
-        <v>251020.6306873102</v>
+        <v>251020.63068465</v>
       </c>
       <c r="F410" t="n">
-        <v>270111.0625302487</v>
+        <v>270111.0625277834</v>
       </c>
       <c r="G410" t="n">
-        <v>227681.4417740775</v>
+        <v>227681.4417727544</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>844468.4474549495</v>
+        <v>844468.4474679404</v>
       </c>
       <c r="C411" t="n">
-        <v>297370.7555507404</v>
+        <v>297370.755546912</v>
       </c>
       <c r="D411" t="n">
-        <v>228940.5651036833</v>
+        <v>228940.5651010744</v>
       </c>
       <c r="E411" t="n">
-        <v>251013.3492073861</v>
+        <v>251013.3492047154</v>
       </c>
       <c r="F411" t="n">
-        <v>270109.9125997515</v>
+        <v>270109.9125972845</v>
       </c>
       <c r="G411" t="n">
-        <v>256782.4403487899</v>
+        <v>256782.4403473735</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>838500.1046673639</v>
+        <v>838500.1046806017</v>
       </c>
       <c r="C412" t="n">
-        <v>297178.3789133357</v>
+        <v>297178.3789093865</v>
       </c>
       <c r="D412" t="n">
-        <v>228905.0995259568</v>
+        <v>228905.0995233075</v>
       </c>
       <c r="E412" t="n">
-        <v>251004.828095958</v>
+        <v>251004.8280932755</v>
       </c>
       <c r="F412" t="n">
-        <v>270108.5245373571</v>
+        <v>270108.5245348882</v>
       </c>
       <c r="G412" t="n">
-        <v>286017.6587236514</v>
+        <v>286017.6587221631</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>832429.5017819999</v>
+        <v>832429.5017954787</v>
       </c>
       <c r="C413" t="n">
-        <v>296967.0086443547</v>
+        <v>296967.0086402755</v>
       </c>
       <c r="D413" t="n">
-        <v>228864.8400893099</v>
+        <v>228864.8400866155</v>
       </c>
       <c r="E413" t="n">
-        <v>250994.8754309401</v>
+        <v>250994.8754282438</v>
       </c>
       <c r="F413" t="n">
-        <v>270106.8525633554</v>
+        <v>270106.8525608841</v>
       </c>
       <c r="G413" t="n">
-        <v>286017.4670916628</v>
+        <v>286017.4670901742</v>
       </c>
       <c r="H413" t="n">
-        <v>29367.55426386883</v>
+        <v>29367.55426381994</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>826255.0955327989</v>
+        <v>826255.0955465119</v>
       </c>
       <c r="C414" t="n">
-        <v>296735.0875753895</v>
+        <v>296735.0875711711</v>
       </c>
       <c r="D414" t="n">
-        <v>228819.2168334299</v>
+        <v>228819.2168306856</v>
       </c>
       <c r="E414" t="n">
-        <v>250983.273010077</v>
+        <v>250983.2730073651</v>
       </c>
       <c r="F414" t="n">
-        <v>270104.8428558204</v>
+        <v>270104.8428533463</v>
       </c>
       <c r="G414" t="n">
-        <v>286017.2292828841</v>
+        <v>286017.2292813953</v>
       </c>
       <c r="H414" t="n">
-        <v>58865.385379286</v>
+        <v>58865.38537921148</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>819975.396843643</v>
+        <v>819975.3968575818</v>
       </c>
       <c r="C415" t="n">
-        <v>296480.9667658008</v>
+        <v>296480.9667614333</v>
       </c>
       <c r="D415" t="n">
-        <v>228767.6034619203</v>
+        <v>228767.6034591208</v>
       </c>
       <c r="E415" t="n">
-        <v>250969.7733306386</v>
+        <v>250969.7733279088</v>
       </c>
       <c r="F415" t="n">
-        <v>270102.4322917445</v>
+        <v>270102.432289267</v>
       </c>
       <c r="G415" t="n">
-        <v>286016.934841107</v>
+        <v>286016.9348396178</v>
       </c>
       <c r="H415" t="n">
-        <v>88491.76163271151</v>
+        <v>88491.76163263606</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>813588.9782811935</v>
+        <v>813588.9782953504</v>
       </c>
       <c r="C416" t="n">
-        <v>296202.9039179684</v>
+        <v>296202.9039134417</v>
       </c>
       <c r="D416" t="n">
-        <v>228709.3133351216</v>
+        <v>228709.3133322611</v>
       </c>
       <c r="E416" t="n">
-        <v>250954.0963134251</v>
+        <v>250954.0963106751</v>
       </c>
       <c r="F416" t="n">
-        <v>270099.5470205268</v>
+        <v>270099.5470180454</v>
       </c>
       <c r="G416" t="n">
-        <v>286016.5711083111</v>
+        <v>286016.5711068214</v>
       </c>
       <c r="H416" t="n">
-        <v>118245.1340633458</v>
+        <v>118245.1340632964</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>807094.4818108625</v>
+        <v>807094.4818252285</v>
       </c>
       <c r="C417" t="n">
-        <v>295899.0622023715</v>
+        <v>295899.0621976752</v>
       </c>
       <c r="D417" t="n">
-        <v>228643.5953813309</v>
+        <v>228643.5953784034</v>
       </c>
       <c r="E417" t="n">
-        <v>250935.9257633344</v>
+        <v>250935.9257605614</v>
       </c>
       <c r="F417" t="n">
-        <v>270096.1008527883</v>
+        <v>270096.1008503024</v>
       </c>
       <c r="G417" t="n">
-        <v>286016.1228000086</v>
+        <v>286016.1227985186</v>
       </c>
       <c r="H417" t="n">
-        <v>148124.1456666364</v>
+        <v>148124.1456666428</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>800490.6268390913</v>
+        <v>800490.626853658</v>
       </c>
       <c r="C418" t="n">
-        <v>295567.5095420209</v>
+        <v>295567.509537144</v>
       </c>
       <c r="D418" t="n">
-        <v>228569.629953785</v>
+        <v>228569.6299507837</v>
       </c>
       <c r="E418" t="n">
-        <v>250914.9055608099</v>
+        <v>250914.9055580107</v>
       </c>
       <c r="F418" t="n">
-        <v>270091.9934466777</v>
+        <v>270091.9934441865</v>
       </c>
       <c r="G418" t="n">
-        <v>286015.5715073661</v>
+        <v>286015.5715058755</v>
       </c>
       <c r="H418" t="n">
-        <v>178127.6402625848</v>
+        <v>178127.6402626769</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>793776.2185219905</v>
+        <v>793776.2185367481</v>
       </c>
       <c r="C419" t="n">
-        <v>295206.2184064728</v>
+        <v>295206.218401404</v>
       </c>
       <c r="D419" t="n">
-        <v>228486.5246649771</v>
+        <v>228486.5246618948</v>
       </c>
       <c r="E419" t="n">
-        <v>250890.6355809831</v>
+        <v>250890.6355781546</v>
       </c>
       <c r="F419" t="n">
-        <v>270087.108273154</v>
+        <v>270087.1082706566</v>
       </c>
       <c r="G419" t="n">
-        <v>286014.8951153009</v>
+        <v>286014.8951138095</v>
       </c>
       <c r="H419" t="n">
-        <v>208254.6709881476</v>
+        <v>208254.6709883575</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>786950.1563171919</v>
+        <v>786950.1563321317</v>
       </c>
       <c r="C420" t="n">
-        <v>294813.0661658944</v>
+        <v>294813.0661606223</v>
       </c>
       <c r="D420" t="n">
-        <v>228393.3102342267</v>
+        <v>228393.3102310557</v>
       </c>
       <c r="E420" t="n">
-        <v>250862.6673402734</v>
+        <v>250862.6673374117</v>
       </c>
       <c r="F420" t="n">
-        <v>270081.3103412251</v>
+        <v>270081.3103387204</v>
       </c>
       <c r="G420" t="n">
-        <v>286014.06712452</v>
+        <v>286014.0671230276</v>
       </c>
       <c r="H420" t="n">
-        <v>238504.5083713763</v>
+        <v>238504.5083717384</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>780011.442752509</v>
+        <v>780011.4427676208</v>
       </c>
       <c r="C421" t="n">
-        <v>294385.8360553698</v>
+        <v>294385.8360498825</v>
       </c>
       <c r="D421" t="n">
-        <v>228288.9363888544</v>
+        <v>228288.9363855866</v>
       </c>
       <c r="E421" t="n">
-        <v>250830.4993736259</v>
+        <v>250830.4993707269</v>
       </c>
       <c r="F421" t="n">
-        <v>270074.4436638309</v>
+        <v>270074.4436613179</v>
       </c>
       <c r="G421" t="n">
-        <v>286013.0558641696</v>
+        <v>286013.0558626762</v>
       </c>
       <c r="H421" t="n">
-        <v>268876.6479432171</v>
+        <v>268876.6479437663</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>772959.1923816901</v>
+        <v>772959.1923969634</v>
       </c>
       <c r="C422" t="n">
-        <v>293922.2187987923</v>
+        <v>293922.2187930777</v>
       </c>
       <c r="D422" t="n">
-        <v>228172.2678637903</v>
+        <v>228172.2678604169</v>
       </c>
       <c r="E422" t="n">
-        <v>250793.5723494874</v>
+        <v>250793.5723465465</v>
       </c>
       <c r="F422" t="n">
-        <v>270066.328445028</v>
+        <v>270066.3284425054</v>
       </c>
       <c r="G422" t="n">
-        <v>286011.8235804013</v>
+        <v>286011.8235789067</v>
       </c>
       <c r="H422" t="n">
-        <v>299370.8173409898</v>
+        <v>299370.8173417629</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>765792.6408942505</v>
+        <v>765792.6409096742</v>
       </c>
       <c r="C423" t="n">
-        <v>293419.8149402396</v>
+        <v>293419.8149342854</v>
       </c>
       <c r="D423" t="n">
-        <v>228042.0805488917</v>
+        <v>228042.0805454033</v>
       </c>
       <c r="E423" t="n">
-        <v>250751.2639340386</v>
+        <v>250751.2639310508</v>
       </c>
       <c r="F423" t="n">
-        <v>270056.7579694126</v>
+        <v>270056.7579668789</v>
       </c>
       <c r="G423" t="n">
-        <v>286010.325384754</v>
+        <v>286010.3253832578</v>
       </c>
       <c r="H423" t="n">
-        <v>329986.9828556537</v>
+        <v>329986.9828566904</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>758511.1543430635</v>
+        <v>758511.1543586268</v>
       </c>
       <c r="C424" t="n">
-        <v>292876.1379286271</v>
+        <v>292876.1379224207</v>
       </c>
       <c r="D424" t="n">
-        <v>227897.0578375996</v>
+        <v>227897.0578339864</v>
       </c>
       <c r="E424" t="n">
-        <v>250702.8834211278</v>
+        <v>250702.8834180878</v>
       </c>
       <c r="F424" t="n">
-        <v>270045.4951753668</v>
+        <v>270045.4951728202</v>
       </c>
       <c r="G424" t="n">
-        <v>286008.5080448193</v>
+        <v>286008.5080433213</v>
       </c>
       <c r="H424" t="n">
-        <v>360725.3553727781</v>
+        <v>360725.3553741191</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>751114.238450168</v>
+        <v>751114.2384658593</v>
       </c>
       <c r="C425" t="n">
-        <v>292288.6179986547</v>
+        <v>292288.6179921837</v>
       </c>
       <c r="D425" t="n">
-        <v>227735.7872347477</v>
+        <v>227735.7872309994</v>
       </c>
       <c r="E425" t="n">
-        <v>250647.6661497816</v>
+        <v>250647.6661466832</v>
       </c>
       <c r="F425" t="n">
-        <v>270032.2688947782</v>
+        <v>270032.2688922168</v>
       </c>
       <c r="G425" t="n">
-        <v>286006.3085982174</v>
+        <v>286006.3085967173</v>
       </c>
       <c r="H425" t="n">
-        <v>391586.3956550187</v>
+        <v>391586.3956567065</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>743601.5479480707</v>
+        <v>743601.5479638793</v>
       </c>
       <c r="C426" t="n">
-        <v>291654.606887569</v>
+        <v>291654.6068808205</v>
       </c>
       <c r="D426" t="n">
-        <v>227556.7572852642</v>
+        <v>227556.7572813698</v>
       </c>
       <c r="E426" t="n">
-        <v>250584.7677370828</v>
+        <v>250584.7677339195</v>
       </c>
       <c r="F426" t="n">
-        <v>270016.769743431</v>
+        <v>270016.7697408528</v>
       </c>
       <c r="G426" t="n">
-        <v>286003.6527694966</v>
+        <v>286003.6527679941</v>
       </c>
       <c r="H426" t="n">
-        <v>422570.8189114596</v>
+        <v>422570.8189135378</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>735972.8959107953</v>
+        <v>735972.8959267092</v>
       </c>
       <c r="C427" t="n">
-        <v>290971.3834230382</v>
+        <v>290971.3834159995</v>
       </c>
       <c r="D427" t="n">
-        <v>227358.3548890934</v>
+        <v>227358.3548850414</v>
       </c>
       <c r="E427" t="n">
-        <v>250513.2581605804</v>
+        <v>250513.2581573451</v>
       </c>
       <c r="F427" t="n">
-        <v>269998.6456483456</v>
+        <v>269998.645645748</v>
       </c>
       <c r="G427" t="n">
-        <v>286000.4531682145</v>
+        <v>286000.453166709</v>
       </c>
       <c r="H427" t="n">
-        <v>453679.5985968144</v>
+        <v>453679.5985993296</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>728228.263026031</v>
+        <v>728228.2630420383</v>
       </c>
       <c r="C428" t="n">
-        <v>290236.1600124704</v>
+        <v>290236.1600051291</v>
       </c>
       <c r="D428" t="n">
-        <v>227138.8630708134</v>
+        <v>227138.8630665917</v>
       </c>
       <c r="E428" t="n">
-        <v>250432.1157311839</v>
+        <v>250432.1157278689</v>
       </c>
       <c r="F428" t="n">
-        <v>269977.4970010211</v>
+        <v>269977.4969984014</v>
       </c>
       <c r="G428" t="n">
-        <v>285996.607245197</v>
+        <v>285996.607243688</v>
       </c>
       <c r="H428" t="n">
-        <v>484913.9693809149</v>
+        <v>484913.9693839145</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>720367.8067570417</v>
+        <v>720367.8067731301</v>
       </c>
       <c r="C429" t="n">
-        <v>289446.0900583871</v>
+        <v>289446.0900507304</v>
       </c>
       <c r="D429" t="n">
-        <v>226896.4592750423</v>
+        <v>226896.4592706384</v>
       </c>
       <c r="E429" t="n">
-        <v>250340.2210046531</v>
+        <v>250340.22100125</v>
       </c>
       <c r="F429" t="n">
-        <v>269952.8714288584</v>
+        <v>269952.8714262136</v>
       </c>
       <c r="G429" t="n">
-        <v>285991.9949828598</v>
+        <v>285991.9949813466</v>
       </c>
       <c r="H429" t="n">
-        <v>516275.4292262549</v>
+        <v>516275.4292297874</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>712391.8703405079</v>
+        <v>712391.8703566658</v>
       </c>
       <c r="C430" t="n">
-        <v>288598.2763180027</v>
+        <v>288598.2763100184</v>
       </c>
       <c r="D430" t="n">
-        <v>226629.2142607099</v>
+        <v>226629.2142561107</v>
       </c>
       <c r="E430" t="n">
-        <v>250236.3506872351</v>
+        <v>250236.3506837351</v>
       </c>
       <c r="F430" t="n">
-        <v>269924.2581810597</v>
+        <v>269924.2581783864</v>
       </c>
       <c r="G430" t="n">
-        <v>285986.4762945565</v>
+        <v>285986.4762930385</v>
       </c>
       <c r="H430" t="n">
-        <v>547765.7405087121</v>
+        <v>547765.7405128296</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>704300.9915642797</v>
+        <v>704300.9915804949</v>
       </c>
       <c r="C431" t="n">
-        <v>287689.7802179841</v>
+        <v>287689.78020966</v>
       </c>
       <c r="D431" t="n">
-        <v>226335.0916685224</v>
+        <v>226335.0916637145</v>
       </c>
       <c r="E431" t="n">
-        <v>250119.1715986639</v>
+        <v>250119.1715950572</v>
       </c>
       <c r="F431" t="n">
-        <v>269891.0821300661</v>
+        <v>269891.0821273604</v>
       </c>
       <c r="G431" t="n">
-        <v>285979.8881072557</v>
+        <v>285979.888105732</v>
       </c>
       <c r="H431" t="n">
-        <v>579386.9301137977</v>
+        <v>579386.9301185512</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>696095.9112670784</v>
+        <v>696095.9112833383</v>
       </c>
       <c r="C432" t="n">
-        <v>286717.6321274759</v>
+        <v>286717.6321188003</v>
       </c>
       <c r="D432" t="n">
-        <v>226011.9483363711</v>
+        <v>226011.9483313404</v>
       </c>
       <c r="E432" t="n">
-        <v>249987.2347634978</v>
+        <v>249987.2347597742</v>
       </c>
       <c r="F432" t="n">
-        <v>269852.6973951383</v>
+        <v>269852.6973923961</v>
       </c>
       <c r="G432" t="n">
-        <v>285972.0411015059</v>
+        <v>285972.0410999757</v>
       </c>
       <c r="H432" t="n">
-        <v>611141.2884380196</v>
+        <v>611141.2884434618</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>687777.5815006262</v>
+        <v>687777.5815169183</v>
       </c>
       <c r="C433" t="n">
-        <v>285678.842583951</v>
+        <v>285678.8425749126</v>
       </c>
       <c r="D433" t="n">
-        <v>225657.535436931</v>
+        <v>225657.5354316632</v>
       </c>
       <c r="E433" t="n">
-        <v>249838.9697095358</v>
+        <v>249838.9697056842</v>
       </c>
       <c r="F433" t="n">
-        <v>269808.3806010333</v>
+        <v>269808.38059825</v>
       </c>
       <c r="G433" t="n">
-        <v>285962.7160827002</v>
+        <v>285962.7160811623</v>
       </c>
       <c r="H433" t="n">
-        <v>643031.3672222516</v>
+        <v>643031.3672284379</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>679347.1732934506</v>
+        <v>679347.1733097627</v>
       </c>
       <c r="C434" t="n">
-        <v>284570.414457302</v>
+        <v>284570.4144478897</v>
       </c>
       <c r="D434" t="n">
-        <v>225269.5005101768</v>
+        <v>225269.5005046574</v>
       </c>
       <c r="E434" t="n">
-        <v>249672.6790596694</v>
+        <v>249672.6790556781</v>
       </c>
       <c r="F434" t="n">
-        <v>269757.3237918977</v>
+        <v>269757.323789068</v>
       </c>
       <c r="G434" t="n">
-        <v>285951.659958169</v>
+        <v>285951.6599566222</v>
       </c>
       <c r="H434" t="n">
-        <v>675059.9761412551</v>
+        <v>675059.9761482426</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>670806.083954809</v>
+        <v>670806.0839711288</v>
       </c>
       <c r="C435" t="n">
-        <v>283389.3560279214</v>
+        <v>283389.3560181252</v>
       </c>
       <c r="D435" t="n">
-        <v>224845.3904609268</v>
+        <v>224845.3904551407</v>
       </c>
       <c r="E435" t="n">
-        <v>249486.5335108709</v>
+        <v>249486.5335067275</v>
       </c>
       <c r="F435" t="n">
-        <v>269698.627028488</v>
+        <v>269698.6270256062</v>
       </c>
       <c r="G435" t="n">
-        <v>285938.5812956993</v>
+        <v>285938.5812941423</v>
       </c>
       <c r="H435" t="n">
-        <v>707230.1780710098</v>
+        <v>707230.1780788549</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>662155.9438567827</v>
+        <v>662155.9438730982</v>
       </c>
       <c r="C436" t="n">
-        <v>282132.6949443847</v>
+        <v>282132.6949341948</v>
       </c>
       <c r="D436" t="n">
-        <v>224382.6555877379</v>
+        <v>224382.65558167</v>
       </c>
       <c r="E436" t="n">
-        <v>249278.5673009115</v>
+        <v>249278.5672966028</v>
       </c>
       <c r="F436" t="n">
-        <v>269631.2907056124</v>
+        <v>269631.2907026726</v>
       </c>
       <c r="G436" t="n">
-        <v>285923.1454407788</v>
+        <v>285923.14543921</v>
       </c>
       <c r="H436" t="n">
-        <v>739545.282953006</v>
+        <v>739545.2829617655</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>653398.6226326731</v>
+        <v>653398.622648972</v>
       </c>
       <c r="C437" t="n">
-        <v>280797.4930158487</v>
+        <v>280797.4930052564</v>
       </c>
       <c r="D437" t="n">
-        <v>223878.6547044582</v>
+        <v>223878.6546980932</v>
       </c>
       <c r="E437" t="n">
-        <v>249046.6742696842</v>
+        <v>249046.6742651965</v>
       </c>
       <c r="F437" t="n">
-        <v>269554.2076362442</v>
+        <v>269554.2076332396</v>
       </c>
       <c r="G437" t="n">
-        <v>285904.9691722887</v>
+        <v>285904.9691707062</v>
       </c>
       <c r="H437" t="n">
-        <v>772008.8401725703</v>
+        <v>772008.8401823041</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>644536.2347303813</v>
+        <v>644536.2347466517</v>
       </c>
       <c r="C438" t="n">
-        <v>279380.8617835164</v>
+        <v>279380.8617725136</v>
       </c>
       <c r="D438" t="n">
-        <v>223330.6614094515</v>
+        <v>223330.6614027739</v>
       </c>
       <c r="E438" t="n">
-        <v>248788.6046274932</v>
+        <v>248788.6046228118</v>
       </c>
       <c r="F438" t="n">
-        <v>269466.1549590023</v>
+        <v>269466.1549559255</v>
       </c>
       <c r="G438" t="n">
-        <v>285883.6148795902</v>
+        <v>285883.6148779921</v>
       </c>
       <c r="H438" t="n">
-        <v>804624.6293663203</v>
+        <v>804624.6293770866</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>635571.1442605114</v>
+        <v>635571.1442767407</v>
       </c>
       <c r="C439" t="n">
-        <v>277879.9788045968</v>
+        <v>277879.9787931766</v>
       </c>
       <c r="D439" t="n">
-        <v>222735.8715499071</v>
+        <v>222735.8715429018</v>
       </c>
       <c r="E439" t="n">
-        <v>248501.9625471701</v>
+        <v>248501.96254228</v>
       </c>
       <c r="F439" t="n">
-        <v>269365.7859365773</v>
+        <v>269365.7859334202</v>
       </c>
       <c r="G439" t="n">
-        <v>285858.5842480722</v>
+        <v>285858.5842464563</v>
       </c>
       <c r="H439" t="n">
-        <v>837396.6495724462</v>
+        <v>837396.6495843048</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>626505.9690805128</v>
+        <v>626505.9690966902</v>
       </c>
       <c r="C440" t="n">
-        <v>276292.1045712437</v>
+        <v>276292.1045593999</v>
       </c>
       <c r="D440" t="n">
-        <v>222091.4119197418</v>
+        <v>222091.4119123933</v>
       </c>
       <c r="E440" t="n">
-        <v>248184.2047002049</v>
+        <v>248184.2046950901</v>
       </c>
       <c r="F440" t="n">
-        <v>269251.6217240565</v>
+        <v>269251.6217208107</v>
       </c>
       <c r="G440" t="n">
-        <v>285829.3114453038</v>
+        <v>285829.3114436673</v>
       </c>
       <c r="H440" t="n">
-        <v>870329.1066363968</v>
+        <v>870329.1066494081</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>617343.5840582853</v>
+        <v>617343.5840743991</v>
       </c>
       <c r="C441" t="n">
-        <v>274614.5999761103</v>
+        <v>274614.5999638381</v>
       </c>
       <c r="D441" t="n">
-        <v>221394.3502193771</v>
+        <v>221394.3502116706</v>
       </c>
       <c r="E441" t="n">
-        <v>247832.6398590262</v>
+        <v>247832.6398536705</v>
       </c>
       <c r="F441" t="n">
-        <v>269122.0431978693</v>
+        <v>269122.0431945253</v>
       </c>
       <c r="G441" t="n">
-        <v>285795.1558060613</v>
+        <v>285795.1558044014</v>
       </c>
       <c r="H441" t="n">
-        <v>903426.3987841986</v>
+        <v>903426.3987984229</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>608087.1234613109</v>
+        <v>608087.1234773498</v>
       </c>
       <c r="C442" t="n">
-        <v>272844.9442255559</v>
+        <v>272844.9442128515</v>
       </c>
       <c r="D442" t="n">
-        <v>220641.7062941987</v>
+        <v>220641.7062861193</v>
       </c>
       <c r="E442" t="n">
-        <v>247444.429687963</v>
+        <v>247444.4296823493</v>
       </c>
       <c r="F442" t="n">
-        <v>268975.2829480384</v>
+        <v>268975.2829445862</v>
       </c>
       <c r="G442" t="n">
-        <v>285755.3940217194</v>
+        <v>285755.394020033</v>
       </c>
       <c r="H442" t="n">
-        <v>936693.1002758418</v>
+        <v>936693.1002913385</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>598739.9824205635</v>
+        <v>598739.9824365167</v>
       </c>
       <c r="C443" t="n">
-        <v>270980.753091329</v>
+        <v>270980.7530781899</v>
       </c>
       <c r="D443" t="n">
-        <v>219830.4646558001</v>
+        <v>219830.4646473336</v>
       </c>
       <c r="E443" t="n">
-        <v>247016.5908440588</v>
+        <v>247016.5908381699</v>
       </c>
       <c r="F443" t="n">
-        <v>268809.4175484222</v>
+        <v>268809.4175448511</v>
       </c>
       <c r="G443" t="n">
-        <v>285709.2118478588</v>
+        <v>285709.2118461423</v>
       </c>
       <c r="H443" t="n">
-        <v>970133.9430522268</v>
+        <v>970133.9430690552</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>589305.8174221645</v>
+        <v>589305.8174380213</v>
       </c>
       <c r="C444" t="n">
-        <v>269019.7973818708</v>
+        <v>269019.7973682958</v>
       </c>
       <c r="D444" t="n">
-        <v>218957.588276294</v>
+        <v>218957.5882674266</v>
       </c>
       <c r="E444" t="n">
-        <v>246545.9985056463</v>
+        <v>246545.9984994642</v>
       </c>
       <c r="F444" t="n">
-        <v>268622.3602314287</v>
+        <v>268622.3602277273</v>
       </c>
       <c r="G444" t="n">
-        <v>285655.6953534831</v>
+        <v>285655.6953517327</v>
       </c>
       <c r="H444" t="n">
-        <v>1003753.796291221</v>
+        <v>1003753.796309441</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>579788.5457840009</v>
+        <v>579788.5457997508</v>
       </c>
       <c r="C445" t="n">
-        <v>266960.0215054074</v>
+        <v>266960.0214913969</v>
       </c>
       <c r="D445" t="n">
-        <v>218020.0336311239</v>
+        <v>218020.0336218425</v>
       </c>
       <c r="E445" t="n">
-        <v>246029.3914412451</v>
+        <v>246029.3914347517</v>
       </c>
       <c r="F445" t="n">
-        <v>268411.854105035</v>
+        <v>268411.854101191</v>
       </c>
       <c r="G445" t="n">
-        <v>285593.8217459571</v>
+        <v>285593.8217441684</v>
       </c>
       <c r="H445" t="n">
-        <v>1037557.643791452</v>
+        <v>1037557.64381112</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>570192.344079276</v>
+        <v>570192.3440949093</v>
       </c>
       <c r="C446" t="n">
-        <v>264799.5619888465</v>
+        <v>264799.5619744023</v>
       </c>
       <c r="D446" t="n">
-        <v>217014.7669500854</v>
+        <v>217014.7669403776</v>
       </c>
       <c r="E446" t="n">
-        <v>245463.3787238129</v>
+        <v>245463.3787169898</v>
       </c>
       <c r="F446" t="n">
-        <v>268175.4660605987</v>
+        <v>268175.4660565994</v>
       </c>
       <c r="G446" t="n">
-        <v>285522.4498176555</v>
+        <v>285522.4498158238</v>
       </c>
       <c r="H446" t="n">
-        <v>1071550.5591068</v>
+        <v>1071550.559127973</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>560521.6454742184</v>
+        <v>560521.6454897252</v>
       </c>
       <c r="C447" t="n">
-        <v>262536.765809349</v>
+        <v>262536.7657944745</v>
       </c>
       <c r="D447" t="n">
-        <v>215938.7816198088</v>
+        <v>215938.7816096632</v>
       </c>
       <c r="E447" t="n">
-        <v>244844.4481855283</v>
+        <v>244844.4481783571</v>
       </c>
       <c r="F447" t="n">
-        <v>267910.5815295941</v>
+        <v>267910.5815254255</v>
       </c>
       <c r="G447" t="n">
-        <v>285440.3100733088</v>
+        <v>285440.3100714287</v>
       </c>
       <c r="H447" t="n">
-        <v>1105737.67836029</v>
+        <v>1105737.678383023</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>550781.1359528782</v>
+        <v>550781.1359682493</v>
       </c>
       <c r="C448" t="n">
-        <v>260170.2083894244</v>
+        <v>260170.2083741243</v>
       </c>
       <c r="D448" t="n">
-        <v>214789.1166639659</v>
+        <v>214789.1166533722</v>
       </c>
       <c r="E448" t="n">
-        <v>244168.9766960704</v>
+        <v>244168.9766885325</v>
       </c>
       <c r="F448" t="n">
-        <v>267614.4002557467</v>
+        <v>267614.4002513947</v>
       </c>
       <c r="G448" t="n">
-        <v>285345.9946110561</v>
+        <v>285345.994609122</v>
       </c>
       <c r="H448" t="n">
-        <v>1140124.170673349</v>
+        <v>1140124.170697695</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>540975.7494080886</v>
+        <v>540975.7494233153</v>
       </c>
       <c r="C449" t="n">
-        <v>257698.7111016541</v>
+        <v>257698.7110859351</v>
       </c>
       <c r="D449" t="n">
-        <v>213562.8762101414</v>
+        <v>213562.8761990904</v>
       </c>
       <c r="E449" t="n">
-        <v>243433.2423327217</v>
+        <v>243433.2423247985</v>
       </c>
       <c r="F449" t="n">
-        <v>267283.9332557688</v>
+        <v>267283.9332512185</v>
       </c>
       <c r="G449" t="n">
-        <v>285237.9468451652</v>
+        <v>285237.9468431709</v>
       </c>
       <c r="H449" t="n">
-        <v>1174715.206155422</v>
+        <v>1174715.206181434</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>531110.6615842074</v>
+        <v>531110.6615992809</v>
       </c>
       <c r="C450" t="n">
-        <v>255121.3581257969</v>
+        <v>255121.3581096671</v>
       </c>
       <c r="D450" t="n">
-        <v>212257.2498348892</v>
+        <v>212257.2498233728</v>
       </c>
       <c r="E450" t="n">
-        <v>242633.4384935905</v>
+        <v>242633.4384852639</v>
       </c>
       <c r="F450" t="n">
-        <v>266916.0011466577</v>
+        <v>266916.0011418933</v>
       </c>
       <c r="G450" t="n">
-        <v>285114.4511740814</v>
+        <v>285114.4511720201</v>
       </c>
       <c r="H450" t="n">
-        <v>1209515.921409683</v>
+        <v>1209515.921437408</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>521191.2828641286</v>
+        <v>521191.2828790412</v>
       </c>
       <c r="C451" t="n">
-        <v>252437.5124991911</v>
+        <v>252437.5124826604</v>
       </c>
       <c r="D451" t="n">
-        <v>210869.5336612226</v>
+        <v>210869.5336492342</v>
       </c>
       <c r="E451" t="n">
-        <v>241765.6899858586</v>
+        <v>241765.6899771107</v>
       </c>
       <c r="F451" t="n">
-        <v>266507.2340200208</v>
+        <v>266507.2340150261</v>
       </c>
       <c r="G451" t="n">
-        <v>284973.6227137459</v>
+        <v>284973.6227116103</v>
       </c>
       <c r="H451" t="n">
-        <v>1244531.382523556</v>
+        <v>1244531.382553041</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>511223.2499002489</v>
+        <v>511223.2499149925</v>
       </c>
       <c r="C452" t="n">
-        <v>249646.8312011424</v>
+        <v>249646.8311842223</v>
       </c>
       <c r="D452" t="n">
-        <v>209397.1520659269</v>
+        <v>209397.1520534616</v>
       </c>
       <c r="E452" t="n">
-        <v>240826.0710993244</v>
+        <v>240826.0710901377</v>
       </c>
       <c r="F452" t="n">
-        <v>266054.0730437866</v>
+        <v>266054.0730385447</v>
       </c>
       <c r="G452" t="n">
-        <v>284813.3972327278</v>
+        <v>284813.3972305098</v>
       </c>
       <c r="H452" t="n">
-        <v>1279766.545527726</v>
+        <v>1279766.545559015</v>
       </c>
     </row>
   </sheetData>
